--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -686,9 +686,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1076,42 +1073,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15">
@@ -1127,11 +1124,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -697,7 +697,7 @@
     <t>This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -433,6 +433,12 @@
     <t>Lira</t>
   </si>
   <si>
+    <t>d229</t>
+  </si>
+  <si>
+    <t>Luuka</t>
+  </si>
+  <si>
     <t>d104</t>
   </si>
   <si>
@@ -499,6 +505,18 @@
     <t>Mitooma</t>
   </si>
   <si>
+    <t>d115</t>
+  </si>
+  <si>
+    <t>Mityana</t>
+  </si>
+  <si>
+    <t>d308</t>
+  </si>
+  <si>
+    <t>Moroto</t>
+  </si>
+  <si>
     <t>d309</t>
   </si>
   <si>
@@ -511,6 +529,12 @@
     <t>Mpigi</t>
   </si>
   <si>
+    <t>d107</t>
+  </si>
+  <si>
+    <t>Mubende</t>
+  </si>
+  <si>
     <t>d108</t>
   </si>
   <si>
@@ -649,6 +673,12 @@
     <t>Soroti</t>
   </si>
   <si>
+    <t>d111</t>
+  </si>
+  <si>
+    <t>Ssembabule</t>
+  </si>
+  <si>
     <t>d212</t>
   </si>
   <si>
@@ -679,13 +709,16 @@
     <t>Name: uganda-gov-spend-pp</t>
   </si>
   <si>
-    <t>Description: Ugandan Total Expenditure Per Capita</t>
+    <t>Description: Total Expenditure Per Capita</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Uganda budget information - Ministry of Finance, Planning and Economic Development</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.budget.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -703,7 +736,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1043,87 +1079,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>52.4434589379488</v>
+        <v>52.4434468401214</v>
       </c>
       <c r="F2" t="n">
         <v>177389.062628968</v>
@@ -1194,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>31.3917731960286</v>
+        <v>31.391777950544</v>
       </c>
       <c r="F3" t="n">
         <v>106182.111823652</v>
@@ -1214,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>30.1738489849573</v>
+        <v>30.1738348733548</v>
       </c>
       <c r="F4" t="n">
         <v>102062.504945359</v>
@@ -1234,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>25.7236918018795</v>
+        <v>25.7236860207609</v>
       </c>
       <c r="F5" t="n">
         <v>87009.9277938285</v>
@@ -1254,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>29.2107395479701</v>
+        <v>29.2107566846376</v>
       </c>
       <c r="F6" t="n">
         <v>98804.8044981757</v>
@@ -1274,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>18.6047813891802</v>
+        <v>18.6047799710088</v>
       </c>
       <c r="F7" t="n">
         <v>62930.3405572755</v>
@@ -1294,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0794392876427</v>
+        <v>21.0794379917295</v>
       </c>
       <c r="F8" t="n">
         <v>71300.8266783937</v>
@@ -1314,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>32.1576124147211</v>
+        <v>32.1576140586617</v>
       </c>
       <c r="F9" t="n">
         <v>108772.549287199</v>
@@ -1334,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8655508253431</v>
+        <v>27.8655480414116</v>
       </c>
       <c r="F10" t="n">
         <v>94268.2856724496</v>
@@ -1354,10 +1400,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>20.7556790714096</v>
+        <v>26.9794533545427</v>
       </c>
       <c r="F11" t="n">
-        <v>70205.7135288446</v>
+        <v>91257.5188903563</v>
       </c>
     </row>
     <row r="12">
@@ -1374,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>23.1288216585006</v>
+        <v>23.1288290579018</v>
       </c>
       <c r="F12" t="n">
         <v>78232.8259106981</v>
@@ -1394,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>22.1509045758814</v>
+        <v>22.1509096148486</v>
       </c>
       <c r="F13" t="n">
         <v>74925.0388552694</v>
@@ -1414,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9476353940007</v>
+        <v>21.9476307181165</v>
       </c>
       <c r="F14" t="n">
         <v>74237.4844902019</v>
@@ -1434,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6725816004974</v>
+        <v>22.6725919834897</v>
       </c>
       <c r="F15" t="n">
         <v>76689.6020766825</v>
@@ -1454,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>21.4822169705687</v>
+        <v>21.4822161015201</v>
       </c>
       <c r="F16" t="n">
         <v>72663.2149878783</v>
@@ -1474,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>30.8303137270562</v>
+        <v>30.8303232090113</v>
       </c>
       <c r="F17" t="n">
         <v>104282.985210515</v>
@@ -1494,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>23.7520238292239</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>80340.7512824756</v>
       </c>
     </row>
     <row r="19">
@@ -1514,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>47.4587601363461</v>
+        <v>47.458774494975</v>
       </c>
       <c r="F19" t="n">
         <v>160528.408008694</v>
@@ -1534,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>23.2898264850989</v>
+        <v>23.2898173943448</v>
       </c>
       <c r="F20" t="n">
         <v>78777.4218653072</v>
@@ -1554,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>35.9879106532328</v>
+        <v>35.9879016280851</v>
       </c>
       <c r="F21" t="n">
         <v>121728.464633835</v>
@@ -1574,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>31.1462394453204</v>
+        <v>31.1462401570412</v>
       </c>
       <c r="F22" t="n">
         <v>105351.598295746</v>
@@ -1594,10 +1640,10 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>26.8761854598444</v>
+        <v>36.2101850004881</v>
       </c>
       <c r="F23" t="n">
-        <v>90908.2170095195</v>
+        <v>122480.300991847</v>
       </c>
     </row>
     <row r="24">
@@ -1614,10 +1660,10 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>23.3068806809451</v>
+        <v>29.6218470357298</v>
       </c>
       <c r="F24" t="n">
-        <v>78835.1073797258</v>
+        <v>100195.357067156</v>
       </c>
     </row>
     <row r="25">
@@ -1634,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>27.1250055357685</v>
+        <v>27.1250076258882</v>
       </c>
       <c r="F25" t="n">
         <v>91749.8464654517</v>
@@ -1654,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>42.5776130324074</v>
+        <v>42.577609459446</v>
       </c>
       <c r="F26" t="n">
         <v>144018.01514865</v>
@@ -1674,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>26.487073284293</v>
+        <v>26.487105380169</v>
       </c>
       <c r="F27" t="n">
         <v>89592.0520231214</v>
@@ -1694,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>13.7370683267971</v>
+        <v>13.7370657912803</v>
       </c>
       <c r="F28" t="n">
         <v>46465.3881198747</v>
@@ -1714,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>26.8889380936307</v>
+        <v>26.888935748361</v>
       </c>
       <c r="F29" t="n">
         <v>90951.352565191</v>
@@ -1734,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>25.3073415430342</v>
+        <v>25.3073684210526</v>
       </c>
       <c r="F30" t="n">
         <v>85601.6304857098</v>
@@ -1754,10 +1800,10 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>25.8568260439224</v>
+        <v>49.0867098007135</v>
       </c>
       <c r="F31" t="n">
-        <v>87460.2519983864</v>
+        <v>166034.921901233</v>
       </c>
     </row>
     <row r="32">
@@ -1774,10 +1820,10 @@
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>11.980525773737</v>
+        <v>21.6874140752009</v>
       </c>
       <c r="F32" t="n">
-        <v>40523.9143200157</v>
+        <v>73357.3007982185</v>
       </c>
     </row>
     <row r="33">
@@ -1794,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>26.477014079812</v>
+        <v>26.4770097104598</v>
       </c>
       <c r="F33" t="n">
         <v>89558.0269506576</v>
@@ -1814,10 +1860,10 @@
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>24.5478846673973</v>
+        <v>28.0965326982472</v>
       </c>
       <c r="F34" t="n">
-        <v>83032.7811875479</v>
+        <v>95036.025735207</v>
       </c>
     </row>
     <row r="35">
@@ -1834,7 +1880,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>15.3707810694901</v>
+        <v>15.3707764023116</v>
       </c>
       <c r="F35" t="n">
         <v>51991.3922733664</v>
@@ -1854,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>27.6586763520895</v>
+        <v>38.2179406136814</v>
       </c>
       <c r="F36" t="n">
-        <v>93554.9784733137</v>
+        <v>129271.46902549</v>
       </c>
     </row>
     <row r="37">
@@ -1874,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>38.390914330795</v>
+        <v>38.390916502239</v>
       </c>
       <c r="F37" t="n">
         <v>129856.581636873</v>
@@ -1894,10 +1940,10 @@
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>25.2549601809083</v>
+        <v>35.3382170136289</v>
       </c>
       <c r="F38" t="n">
-        <v>85424.4514752134</v>
+        <v>119530.884004793</v>
       </c>
     </row>
     <row r="39">
@@ -1914,10 +1960,10 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>19.8748407064194</v>
+        <v>29.3240506435886</v>
       </c>
       <c r="F39" t="n">
-        <v>67226.2935033824</v>
+        <v>99188.0957200938</v>
       </c>
     </row>
     <row r="40">
@@ -1934,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>24.853959239599</v>
+        <v>24.853946591431</v>
       </c>
       <c r="F40" t="n">
         <v>84068.0729610918</v>
@@ -1954,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>85.8067352043216</v>
+        <v>85.8067445605363</v>
       </c>
       <c r="F41" t="n">
         <v>290239.748342883</v>
@@ -1974,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>25.8942029139655</v>
+        <v>25.8942079205831</v>
       </c>
       <c r="F42" t="n">
         <v>87586.678597205</v>
@@ -1994,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>30.2372652445976</v>
+        <v>30.2372767214646</v>
       </c>
       <c r="F43" t="n">
         <v>102277.009303159</v>
@@ -2014,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>21.0856579169979</v>
+        <v>21.0856595037277</v>
       </c>
       <c r="F44" t="n">
         <v>71321.8610722991</v>
@@ -2034,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>15.4150945134705</v>
+        <v>15.415092414644</v>
       </c>
       <c r="F45" t="n">
         <v>52141.2817045104</v>
@@ -2054,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>31.5460437996112</v>
+        <v>31.5460398690866</v>
       </c>
       <c r="F46" t="n">
         <v>106703.929386095</v>
@@ -2074,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>47.8780005320979</v>
+        <v>47.8780359533372</v>
       </c>
       <c r="F47" t="n">
         <v>161946.481162746</v>
@@ -2094,10 +2140,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>20.0244508802418</v>
+        <v>24.7641735597817</v>
       </c>
       <c r="F48" t="n">
-        <v>67732.3472392166</v>
+        <v>83764.3715573003</v>
       </c>
     </row>
     <row r="49">
@@ -2114,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>35.7388526672885</v>
+        <v>35.738851002398</v>
       </c>
       <c r="F49" t="n">
         <v>120886.030455504</v>
@@ -2134,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>21.8248086842657</v>
+        <v>21.8248156451744</v>
       </c>
       <c r="F50" t="n">
         <v>73822.0253369709</v>
@@ -2154,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>15.0614458278793</v>
+        <v>15.0614493973734</v>
       </c>
       <c r="F51" t="n">
         <v>50945.0713439853</v>
@@ -2174,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>31.4510085838849</v>
+        <v>31.4510113992706</v>
       </c>
       <c r="F52" t="n">
         <v>106382.474462673</v>
@@ -2194,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>20.5496062562997</v>
+        <v>20.5496125943839</v>
       </c>
       <c r="F53" t="n">
         <v>69508.6759117604</v>
@@ -2214,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>19.4841184569251</v>
+        <v>19.4841208483491</v>
       </c>
       <c r="F54" t="n">
         <v>65904.6824778416</v>
@@ -2234,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>20.4819180273916</v>
+        <v>20.4819268572792</v>
       </c>
       <c r="F55" t="n">
         <v>69279.7216877713</v>
@@ -2254,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>33.3089646737585</v>
+        <v>33.3089640955641</v>
       </c>
       <c r="F56" t="n">
         <v>112666.977738623</v>
@@ -2274,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>40.3931810421367</v>
+        <v>40.3931778522832</v>
       </c>
       <c r="F57" t="n">
         <v>136629.212987471</v>
@@ -2294,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>28.5491950630852</v>
+        <v>28.5492042293779</v>
       </c>
       <c r="F58" t="n">
         <v>96567.1420953772</v>
@@ -2314,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>24.7160204449392</v>
+        <v>24.7160179925417</v>
       </c>
       <c r="F59" t="n">
         <v>83601.4974491272</v>
@@ -2334,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>19.2308338308749</v>
+        <v>19.2308324343661</v>
       </c>
       <c r="F60" t="n">
         <v>65047.951752008</v>
@@ -2354,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>26.691251060851</v>
+        <v>26.6912578998965</v>
       </c>
       <c r="F61" t="n">
         <v>90282.6797069046</v>
@@ -2374,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>35.5917142959936</v>
+        <v>35.5917300231116</v>
       </c>
       <c r="F62" t="n">
         <v>120388.337533857</v>
@@ -2394,7 +2440,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>20.4142379053944</v>
+        <v>20.4142261173426</v>
       </c>
       <c r="F63" t="n">
         <v>69050.7948817371</v>
@@ -2414,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>14.9604663313192</v>
+        <v>14.9604692496548</v>
       </c>
       <c r="F64" t="n">
         <v>50603.5099989545</v>
@@ -2434,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>18.1615260955299</v>
+        <v>18.1615222964638</v>
       </c>
       <c r="F65" t="n">
         <v>61431.0374512667</v>
@@ -2454,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>49.9992513223648</v>
+        <v>49.9992540096979</v>
       </c>
       <c r="F66" t="n">
         <v>169121.574039537</v>
@@ -2474,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>23.3075382379006</v>
+        <v>40.1756326184607</v>
       </c>
       <c r="F67" t="n">
-        <v>78837.3315534595</v>
+        <v>135893.356166386</v>
       </c>
     </row>
     <row r="68">
@@ -2494,10 +2540,10 @@
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>27.185021130359</v>
+        <v>20.299602821253</v>
       </c>
       <c r="F68" t="n">
-        <v>91952.84814409</v>
+        <v>68663.0607198917</v>
       </c>
     </row>
     <row r="69">
@@ -2514,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>20.7502301432202</v>
+        <v>27.1850169592149</v>
       </c>
       <c r="F69" t="n">
-        <v>70187.2826284262</v>
+        <v>91952.84814409</v>
       </c>
     </row>
     <row r="70">
@@ -2534,10 +2580,10 @@
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>29.2574123293963</v>
+        <v>20.7502232710111</v>
       </c>
       <c r="F70" t="n">
-        <v>98962.674336227</v>
+        <v>70187.2826284262</v>
       </c>
     </row>
     <row r="71">
@@ -2554,10 +2600,10 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>25.3249069145934</v>
+        <v>29.2574096200818</v>
       </c>
       <c r="F71" t="n">
-        <v>85661.0450485173</v>
+        <v>98962.674336227</v>
       </c>
     </row>
     <row r="72">
@@ -2574,10 +2620,10 @@
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>28.8581125244027</v>
+        <v>25.3249042123878</v>
       </c>
       <c r="F72" t="n">
-        <v>97612.0498882778</v>
+        <v>85661.0450485173</v>
       </c>
     </row>
     <row r="73">
@@ -2594,10 +2640,10 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>17.804884396718</v>
+        <v>22.8955719319354</v>
       </c>
       <c r="F73" t="n">
-        <v>60224.7032688463</v>
+        <v>77443.8488312135</v>
       </c>
     </row>
     <row r="74">
@@ -2614,10 +2660,10 @@
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>22.6120754680182</v>
+        <v>34.5290393697602</v>
       </c>
       <c r="F74" t="n">
-        <v>76484.9411676355</v>
+        <v>116793.850645038</v>
       </c>
     </row>
     <row r="75">
@@ -2634,10 +2680,10 @@
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>19.733623516228</v>
+        <v>32.9067250154463</v>
       </c>
       <c r="F75" t="n">
-        <v>66748.6288848263</v>
+        <v>111306.406190796</v>
       </c>
     </row>
     <row r="76">
@@ -2654,10 +2700,10 @@
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>21.3369971655697</v>
+        <v>19.7336238344478</v>
       </c>
       <c r="F76" t="n">
-        <v>72172.011590815</v>
+        <v>66748.6288848263</v>
       </c>
     </row>
     <row r="77">
@@ -2674,10 +2720,10 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>19.9525670875647</v>
+        <v>34.2851011761268</v>
       </c>
       <c r="F77" t="n">
-        <v>67489.2015927651</v>
+        <v>115968.748224446</v>
       </c>
     </row>
     <row r="78">
@@ -2694,10 +2740,10 @@
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>28.1583809003714</v>
+        <v>36.540565735304</v>
       </c>
       <c r="F78" t="n">
-        <v>95245.2201661285</v>
+        <v>123597.828929608</v>
       </c>
     </row>
     <row r="79">
@@ -2714,10 +2760,10 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>41.9470737104779</v>
+        <v>28.1583880896296</v>
       </c>
       <c r="F79" t="n">
-        <v>141885.227181811</v>
+        <v>95245.2201661285</v>
       </c>
     </row>
     <row r="80">
@@ -2734,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>26.6127068008206</v>
+        <v>27.5151207790718</v>
       </c>
       <c r="F80" t="n">
-        <v>90017.0051528357</v>
+        <v>93069.4185337463</v>
       </c>
     </row>
     <row r="81">
@@ -2754,10 +2800,10 @@
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>16.4953680276353</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>55795.2875627066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2774,10 +2820,10 @@
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>30.1155390899656</v>
+        <v>41.947086676025</v>
       </c>
       <c r="F82" t="n">
-        <v>101865.272760488</v>
+        <v>141885.227181811</v>
       </c>
     </row>
     <row r="83">
@@ -2794,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>28.9981471313384</v>
+        <v>26.6127143038901</v>
       </c>
       <c r="F83" t="n">
-        <v>98085.7144302312</v>
+        <v>90017.0051528357</v>
       </c>
     </row>
     <row r="84">
@@ -2814,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>33.805248911932</v>
+        <v>14.861581925005</v>
       </c>
       <c r="F84" t="n">
-        <v>114345.650297202</v>
+        <v>50269.0343907471</v>
       </c>
     </row>
     <row r="85">
@@ -2834,10 +2880,10 @@
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>20.2654832562799</v>
+        <v>22.4361696984247</v>
       </c>
       <c r="F85" t="n">
-        <v>68547.6349399048</v>
+        <v>75889.9464336623</v>
       </c>
     </row>
     <row r="86">
@@ -2854,10 +2900,10 @@
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>20.5489849244981</v>
+        <v>30.1155394216547</v>
       </c>
       <c r="F86" t="n">
-        <v>69506.5742714996</v>
+        <v>101865.272760488</v>
       </c>
     </row>
     <row r="87">
@@ -2874,10 +2920,10 @@
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>28.2733957524291</v>
+        <v>28.9981436801667</v>
       </c>
       <c r="F87" t="n">
-        <v>95634.255848064</v>
+        <v>98085.7144302312</v>
       </c>
     </row>
     <row r="88">
@@ -2894,10 +2940,10 @@
         <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>23.5155683119698</v>
+        <v>33.8052545047646</v>
       </c>
       <c r="F88" t="n">
-        <v>79540.9895644048</v>
+        <v>114345.650297202</v>
       </c>
     </row>
     <row r="89">
@@ -2914,10 +2960,10 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>34.0137836093468</v>
+        <v>20.2654941786237</v>
       </c>
       <c r="F89" t="n">
-        <v>115051.015180332</v>
+        <v>68547.6349399048</v>
       </c>
     </row>
     <row r="90">
@@ -2934,10 +2980,10 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>48.1672446391256</v>
+        <v>20.5489812840559</v>
       </c>
       <c r="F90" t="n">
-        <v>162924.844178134</v>
+        <v>69506.5742714996</v>
       </c>
     </row>
     <row r="91">
@@ -2954,10 +3000,10 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>22.6939436215555</v>
+        <v>28.2734146358259</v>
       </c>
       <c r="F91" t="n">
-        <v>76761.8587313492</v>
+        <v>95634.255848064</v>
       </c>
     </row>
     <row r="92">
@@ -2974,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>45.3748976758014</v>
+        <v>23.5155625356939</v>
       </c>
       <c r="F92" t="n">
-        <v>153479.780473715</v>
+        <v>79540.9895644048</v>
       </c>
     </row>
     <row r="93">
@@ -2994,10 +3040,10 @@
         <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>36.0851254362792</v>
+        <v>34.0137837136019</v>
       </c>
       <c r="F93" t="n">
-        <v>122057.291913234</v>
+        <v>115051.015180332</v>
       </c>
     </row>
     <row r="94">
@@ -3014,10 +3060,10 @@
         <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>20.2421790473079</v>
+        <v>48.1672337478546</v>
       </c>
       <c r="F94" t="n">
-        <v>68468.8088739752</v>
+        <v>162924.844178134</v>
       </c>
     </row>
     <row r="95">
@@ -3034,10 +3080,10 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>38.9739479189105</v>
+        <v>24.818073133697</v>
       </c>
       <c r="F95" t="n">
-        <v>131828.682309782</v>
+        <v>83946.7059590495</v>
       </c>
     </row>
     <row r="96">
@@ -3054,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>21.7479831245772</v>
+        <v>45.3748965603385</v>
       </c>
       <c r="F96" t="n">
-        <v>73562.1642483047</v>
+        <v>153479.780473715</v>
       </c>
     </row>
     <row r="97">
@@ -3074,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>28.2995181292432</v>
+        <v>36.0851188729087</v>
       </c>
       <c r="F97" t="n">
-        <v>95722.6143225587</v>
+        <v>122057.291913234</v>
       </c>
     </row>
     <row r="98">
@@ -3094,10 +3140,10 @@
         <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>24.5146943291724</v>
+        <v>20.2421787011193</v>
       </c>
       <c r="F98" t="n">
-        <v>82920.5154583356</v>
+        <v>68468.8088739752</v>
       </c>
     </row>
     <row r="99">
@@ -3114,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>44.9050211828167</v>
+        <v>38.9739607996821</v>
       </c>
       <c r="F99" t="n">
-        <v>151890.431641435</v>
+        <v>131828.682309782</v>
       </c>
     </row>
     <row r="100">
@@ -3134,10 +3180,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>21.4370597176434</v>
+        <v>21.7479835471956</v>
       </c>
       <c r="F100" t="n">
-        <v>72510.4713887812</v>
+        <v>73562.1642483047</v>
       </c>
     </row>
     <row r="101">
@@ -3154,10 +3200,10 @@
         <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>32.3018663198144</v>
+        <v>28.2995166097821</v>
       </c>
       <c r="F101" t="n">
-        <v>109260.485546949</v>
+        <v>95722.6143225587</v>
       </c>
     </row>
     <row r="102">
@@ -3174,10 +3220,10 @@
         <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>27.7885323782189</v>
+        <v>24.5147080435943</v>
       </c>
       <c r="F102" t="n">
-        <v>93994.2141455424</v>
+        <v>82920.5154583356</v>
       </c>
     </row>
     <row r="103">
@@ -3194,10 +3240,10 @@
         <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>21.2794308641465</v>
+        <v>31.0279005636887</v>
       </c>
       <c r="F103" t="n">
-        <v>71977.2946014524</v>
+        <v>104951.314389816</v>
       </c>
     </row>
     <row r="104">
@@ -3214,10 +3260,10 @@
         <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>21.5238657847782</v>
+        <v>21.4370658957092</v>
       </c>
       <c r="F104" t="n">
-        <v>72804.0913564017</v>
+        <v>72510.4713887812</v>
       </c>
     </row>
     <row r="105">
@@ -3234,10 +3280,10 @@
         <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>11.6922252162241</v>
+        <v>32.3018467787644</v>
       </c>
       <c r="F105" t="n">
-        <v>39548.7428400657</v>
+        <v>109260.485546949</v>
       </c>
     </row>
     <row r="106">
@@ -3254,10 +3300,10 @@
         <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>19.8321446783283</v>
+        <v>27.7885304659498</v>
       </c>
       <c r="F106" t="n">
-        <v>67081.8749459412</v>
+        <v>93994.2141455424</v>
       </c>
     </row>
     <row r="107">
@@ -3274,9 +3320,109 @@
         <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>23.9508792683053</v>
+        <v>43.7035173680987</v>
       </c>
       <c r="F107" t="n">
+        <v>147826.366126655</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>24.5670134469592</v>
+      </c>
+      <c r="F108" t="n">
+        <v>83097.4568566844</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.9475908947562</v>
+      </c>
+      <c r="F109" t="n">
+        <v>91149.7422004719</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13.8228007172386</v>
+      </c>
+      <c r="F110" t="n">
+        <v>46755.3767993226</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>19.8321436956065</v>
+      </c>
+      <c r="F111" t="n">
+        <v>67081.8749459412</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>23.9508753245024</v>
+      </c>
+      <c r="F112" t="n">
         <v>81013.4210876656</v>
       </c>
     </row>
@@ -3302,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -3313,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>52.4434589379488</v>
+        <v>52.4434468401214</v>
       </c>
     </row>
     <row r="3">
@@ -3324,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>31.3917731960286</v>
+        <v>31.391777950544</v>
       </c>
     </row>
     <row r="4">
@@ -3335,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1738489849573</v>
+        <v>30.1738348733548</v>
       </c>
     </row>
     <row r="5">
@@ -3346,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>25.7236918018795</v>
+        <v>25.7236860207609</v>
       </c>
     </row>
     <row r="6">
@@ -3357,7 +3503,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>29.2107395479701</v>
+        <v>29.2107566846376</v>
       </c>
     </row>
     <row r="7">
@@ -3368,7 +3514,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>18.6047813891802</v>
+        <v>18.6047799710088</v>
       </c>
     </row>
     <row r="8">
@@ -3379,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0794392876427</v>
+        <v>21.0794379917295</v>
       </c>
     </row>
     <row r="9">
@@ -3390,7 +3536,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>32.1576124147211</v>
+        <v>32.1576140586617</v>
       </c>
     </row>
     <row r="10">
@@ -3401,7 +3547,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8655508253431</v>
+        <v>27.8655480414116</v>
       </c>
     </row>
     <row r="11">
@@ -3412,7 +3558,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7556790714096</v>
+        <v>26.9794533545427</v>
       </c>
     </row>
     <row r="12">
@@ -3423,7 +3569,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>23.1288216585006</v>
+        <v>23.1288290579018</v>
       </c>
     </row>
     <row r="13">
@@ -3434,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>22.1509045758814</v>
+        <v>22.1509096148486</v>
       </c>
     </row>
     <row r="14">
@@ -3445,7 +3591,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9476353940007</v>
+        <v>21.9476307181165</v>
       </c>
     </row>
     <row r="15">
@@ -3456,7 +3602,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>22.6725816004974</v>
+        <v>22.6725919834897</v>
       </c>
     </row>
     <row r="16">
@@ -3467,7 +3613,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4822169705687</v>
+        <v>21.4822161015201</v>
       </c>
     </row>
     <row r="17">
@@ -3478,7 +3624,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8303137270562</v>
+        <v>30.8303232090113</v>
       </c>
     </row>
     <row r="18">
@@ -3489,7 +3635,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>23.7520238292239</v>
       </c>
     </row>
     <row r="19">
@@ -3500,7 +3646,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>47.4587601363461</v>
+        <v>47.458774494975</v>
       </c>
     </row>
     <row r="20">
@@ -3511,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>23.2898264850989</v>
+        <v>23.2898173943448</v>
       </c>
     </row>
     <row r="21">
@@ -3522,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9879106532328</v>
+        <v>35.9879016280851</v>
       </c>
     </row>
     <row r="22">
@@ -3533,7 +3679,7 @@
         <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>31.1462394453204</v>
+        <v>31.1462401570412</v>
       </c>
     </row>
     <row r="23">
@@ -3544,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>26.8761854598444</v>
+        <v>36.2101850004881</v>
       </c>
     </row>
     <row r="24">
@@ -3555,7 +3701,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>23.3068806809451</v>
+        <v>29.6218470357298</v>
       </c>
     </row>
     <row r="25">
@@ -3566,7 +3712,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>27.1250055357685</v>
+        <v>27.1250076258882</v>
       </c>
     </row>
     <row r="26">
@@ -3577,7 +3723,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>42.5776130324074</v>
+        <v>42.577609459446</v>
       </c>
     </row>
     <row r="27">
@@ -3588,7 +3734,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>26.487073284293</v>
+        <v>26.487105380169</v>
       </c>
     </row>
     <row r="28">
@@ -3599,7 +3745,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>13.7370683267971</v>
+        <v>13.7370657912803</v>
       </c>
     </row>
     <row r="29">
@@ -3610,7 +3756,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>26.8889380936307</v>
+        <v>26.888935748361</v>
       </c>
     </row>
     <row r="30">
@@ -3621,7 +3767,7 @@
         <v>64</v>
       </c>
       <c r="C30" t="n">
-        <v>25.3073415430342</v>
+        <v>25.3073684210526</v>
       </c>
     </row>
     <row r="31">
@@ -3632,7 +3778,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>25.8568260439224</v>
+        <v>49.0867098007135</v>
       </c>
     </row>
     <row r="32">
@@ -3643,7 +3789,7 @@
         <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>11.980525773737</v>
+        <v>21.6874140752009</v>
       </c>
     </row>
     <row r="33">
@@ -3654,7 +3800,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>26.477014079812</v>
+        <v>26.4770097104598</v>
       </c>
     </row>
     <row r="34">
@@ -3665,7 +3811,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="n">
-        <v>24.5478846673973</v>
+        <v>28.0965326982472</v>
       </c>
     </row>
     <row r="35">
@@ -3676,7 +3822,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>15.3707810694901</v>
+        <v>15.3707764023116</v>
       </c>
     </row>
     <row r="36">
@@ -3687,7 +3833,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>27.6586763520895</v>
+        <v>38.2179406136814</v>
       </c>
     </row>
     <row r="37">
@@ -3698,7 +3844,7 @@
         <v>78</v>
       </c>
       <c r="C37" t="n">
-        <v>38.390914330795</v>
+        <v>38.390916502239</v>
       </c>
     </row>
     <row r="38">
@@ -3709,7 +3855,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>25.2549601809083</v>
+        <v>35.3382170136289</v>
       </c>
     </row>
     <row r="39">
@@ -3720,7 +3866,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="n">
-        <v>19.8748407064194</v>
+        <v>29.3240506435886</v>
       </c>
     </row>
     <row r="40">
@@ -3731,7 +3877,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="n">
-        <v>24.853959239599</v>
+        <v>24.853946591431</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3888,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="n">
-        <v>85.8067352043216</v>
+        <v>85.8067445605363</v>
       </c>
     </row>
     <row r="42">
@@ -3753,7 +3899,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="n">
-        <v>25.8942029139655</v>
+        <v>25.8942079205831</v>
       </c>
     </row>
     <row r="43">
@@ -3764,7 +3910,7 @@
         <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>30.2372652445976</v>
+        <v>30.2372767214646</v>
       </c>
     </row>
     <row r="44">
@@ -3775,7 +3921,7 @@
         <v>92</v>
       </c>
       <c r="C44" t="n">
-        <v>21.0856579169979</v>
+        <v>21.0856595037277</v>
       </c>
     </row>
     <row r="45">
@@ -3786,7 +3932,7 @@
         <v>94</v>
       </c>
       <c r="C45" t="n">
-        <v>15.4150945134705</v>
+        <v>15.415092414644</v>
       </c>
     </row>
     <row r="46">
@@ -3797,7 +3943,7 @@
         <v>96</v>
       </c>
       <c r="C46" t="n">
-        <v>31.5460437996112</v>
+        <v>31.5460398690866</v>
       </c>
     </row>
     <row r="47">
@@ -3808,7 +3954,7 @@
         <v>98</v>
       </c>
       <c r="C47" t="n">
-        <v>47.8780005320979</v>
+        <v>47.8780359533372</v>
       </c>
     </row>
     <row r="48">
@@ -3819,7 +3965,7 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>20.0244508802418</v>
+        <v>24.7641735597817</v>
       </c>
     </row>
     <row r="49">
@@ -3830,7 +3976,7 @@
         <v>102</v>
       </c>
       <c r="C49" t="n">
-        <v>35.7388526672885</v>
+        <v>35.738851002398</v>
       </c>
     </row>
     <row r="50">
@@ -3841,7 +3987,7 @@
         <v>104</v>
       </c>
       <c r="C50" t="n">
-        <v>21.8248086842657</v>
+        <v>21.8248156451744</v>
       </c>
     </row>
     <row r="51">
@@ -3852,7 +3998,7 @@
         <v>106</v>
       </c>
       <c r="C51" t="n">
-        <v>15.0614458278793</v>
+        <v>15.0614493973734</v>
       </c>
     </row>
     <row r="52">
@@ -3863,7 +4009,7 @@
         <v>108</v>
       </c>
       <c r="C52" t="n">
-        <v>31.4510085838849</v>
+        <v>31.4510113992706</v>
       </c>
     </row>
     <row r="53">
@@ -3874,7 +4020,7 @@
         <v>110</v>
       </c>
       <c r="C53" t="n">
-        <v>20.5496062562997</v>
+        <v>20.5496125943839</v>
       </c>
     </row>
     <row r="54">
@@ -3885,7 +4031,7 @@
         <v>112</v>
       </c>
       <c r="C54" t="n">
-        <v>19.4841184569251</v>
+        <v>19.4841208483491</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +4042,7 @@
         <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>20.4819180273916</v>
+        <v>20.4819268572792</v>
       </c>
     </row>
     <row r="56">
@@ -3907,7 +4053,7 @@
         <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>33.3089646737585</v>
+        <v>33.3089640955641</v>
       </c>
     </row>
     <row r="57">
@@ -3918,7 +4064,7 @@
         <v>118</v>
       </c>
       <c r="C57" t="n">
-        <v>40.3931810421367</v>
+        <v>40.3931778522832</v>
       </c>
     </row>
     <row r="58">
@@ -3929,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="C58" t="n">
-        <v>28.5491950630852</v>
+        <v>28.5492042293779</v>
       </c>
     </row>
     <row r="59">
@@ -3940,7 +4086,7 @@
         <v>122</v>
       </c>
       <c r="C59" t="n">
-        <v>24.7160204449392</v>
+        <v>24.7160179925417</v>
       </c>
     </row>
     <row r="60">
@@ -3951,7 +4097,7 @@
         <v>124</v>
       </c>
       <c r="C60" t="n">
-        <v>19.2308338308749</v>
+        <v>19.2308324343661</v>
       </c>
     </row>
     <row r="61">
@@ -3962,7 +4108,7 @@
         <v>126</v>
       </c>
       <c r="C61" t="n">
-        <v>26.691251060851</v>
+        <v>26.6912578998965</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +4119,7 @@
         <v>128</v>
       </c>
       <c r="C62" t="n">
-        <v>35.5917142959936</v>
+        <v>35.5917300231116</v>
       </c>
     </row>
     <row r="63">
@@ -3984,7 +4130,7 @@
         <v>130</v>
       </c>
       <c r="C63" t="n">
-        <v>20.4142379053944</v>
+        <v>20.4142261173426</v>
       </c>
     </row>
     <row r="64">
@@ -3995,7 +4141,7 @@
         <v>132</v>
       </c>
       <c r="C64" t="n">
-        <v>14.9604663313192</v>
+        <v>14.9604692496548</v>
       </c>
     </row>
     <row r="65">
@@ -4006,7 +4152,7 @@
         <v>134</v>
       </c>
       <c r="C65" t="n">
-        <v>18.1615260955299</v>
+        <v>18.1615222964638</v>
       </c>
     </row>
     <row r="66">
@@ -4017,7 +4163,7 @@
         <v>136</v>
       </c>
       <c r="C66" t="n">
-        <v>49.9992513223648</v>
+        <v>49.9992540096979</v>
       </c>
     </row>
     <row r="67">
@@ -4028,7 +4174,7 @@
         <v>138</v>
       </c>
       <c r="C67" t="n">
-        <v>23.3075382379006</v>
+        <v>40.1756326184607</v>
       </c>
     </row>
     <row r="68">
@@ -4039,7 +4185,7 @@
         <v>140</v>
       </c>
       <c r="C68" t="n">
-        <v>27.185021130359</v>
+        <v>20.299602821253</v>
       </c>
     </row>
     <row r="69">
@@ -4050,7 +4196,7 @@
         <v>142</v>
       </c>
       <c r="C69" t="n">
-        <v>20.7502301432202</v>
+        <v>27.1850169592149</v>
       </c>
     </row>
     <row r="70">
@@ -4061,7 +4207,7 @@
         <v>144</v>
       </c>
       <c r="C70" t="n">
-        <v>29.2574123293963</v>
+        <v>20.7502232710111</v>
       </c>
     </row>
     <row r="71">
@@ -4072,7 +4218,7 @@
         <v>146</v>
       </c>
       <c r="C71" t="n">
-        <v>25.3249069145934</v>
+        <v>29.2574096200818</v>
       </c>
     </row>
     <row r="72">
@@ -4083,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="C72" t="n">
-        <v>28.8581125244027</v>
+        <v>25.3249042123878</v>
       </c>
     </row>
     <row r="73">
@@ -4094,7 +4240,7 @@
         <v>150</v>
       </c>
       <c r="C73" t="n">
-        <v>17.804884396718</v>
+        <v>22.8955719319354</v>
       </c>
     </row>
     <row r="74">
@@ -4105,7 +4251,7 @@
         <v>152</v>
       </c>
       <c r="C74" t="n">
-        <v>22.6120754680182</v>
+        <v>34.5290393697602</v>
       </c>
     </row>
     <row r="75">
@@ -4116,7 +4262,7 @@
         <v>154</v>
       </c>
       <c r="C75" t="n">
-        <v>19.733623516228</v>
+        <v>32.9067250154463</v>
       </c>
     </row>
     <row r="76">
@@ -4127,7 +4273,7 @@
         <v>156</v>
       </c>
       <c r="C76" t="n">
-        <v>21.3369971655697</v>
+        <v>19.7336238344478</v>
       </c>
     </row>
     <row r="77">
@@ -4138,7 +4284,7 @@
         <v>158</v>
       </c>
       <c r="C77" t="n">
-        <v>19.9525670875647</v>
+        <v>34.2851011761268</v>
       </c>
     </row>
     <row r="78">
@@ -4149,7 +4295,7 @@
         <v>160</v>
       </c>
       <c r="C78" t="n">
-        <v>28.1583809003714</v>
+        <v>36.540565735304</v>
       </c>
     </row>
     <row r="79">
@@ -4160,7 +4306,7 @@
         <v>162</v>
       </c>
       <c r="C79" t="n">
-        <v>41.9470737104779</v>
+        <v>28.1583880896296</v>
       </c>
     </row>
     <row r="80">
@@ -4171,7 +4317,7 @@
         <v>164</v>
       </c>
       <c r="C80" t="n">
-        <v>26.6127068008206</v>
+        <v>27.5151207790718</v>
       </c>
     </row>
     <row r="81">
@@ -4182,7 +4328,7 @@
         <v>166</v>
       </c>
       <c r="C81" t="n">
-        <v>16.4953680276353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4193,7 +4339,7 @@
         <v>168</v>
       </c>
       <c r="C82" t="n">
-        <v>30.1155390899656</v>
+        <v>41.947086676025</v>
       </c>
     </row>
     <row r="83">
@@ -4204,7 +4350,7 @@
         <v>170</v>
       </c>
       <c r="C83" t="n">
-        <v>28.9981471313384</v>
+        <v>26.6127143038901</v>
       </c>
     </row>
     <row r="84">
@@ -4215,7 +4361,7 @@
         <v>172</v>
       </c>
       <c r="C84" t="n">
-        <v>33.805248911932</v>
+        <v>14.861581925005</v>
       </c>
     </row>
     <row r="85">
@@ -4226,7 +4372,7 @@
         <v>174</v>
       </c>
       <c r="C85" t="n">
-        <v>20.2654832562799</v>
+        <v>22.4361696984247</v>
       </c>
     </row>
     <row r="86">
@@ -4237,7 +4383,7 @@
         <v>176</v>
       </c>
       <c r="C86" t="n">
-        <v>20.5489849244981</v>
+        <v>30.1155394216547</v>
       </c>
     </row>
     <row r="87">
@@ -4248,7 +4394,7 @@
         <v>178</v>
       </c>
       <c r="C87" t="n">
-        <v>28.2733957524291</v>
+        <v>28.9981436801667</v>
       </c>
     </row>
     <row r="88">
@@ -4259,7 +4405,7 @@
         <v>180</v>
       </c>
       <c r="C88" t="n">
-        <v>23.5155683119698</v>
+        <v>33.8052545047646</v>
       </c>
     </row>
     <row r="89">
@@ -4270,7 +4416,7 @@
         <v>182</v>
       </c>
       <c r="C89" t="n">
-        <v>34.0137836093468</v>
+        <v>20.2654941786237</v>
       </c>
     </row>
     <row r="90">
@@ -4281,7 +4427,7 @@
         <v>184</v>
       </c>
       <c r="C90" t="n">
-        <v>48.1672446391256</v>
+        <v>20.5489812840559</v>
       </c>
     </row>
     <row r="91">
@@ -4292,7 +4438,7 @@
         <v>186</v>
       </c>
       <c r="C91" t="n">
-        <v>22.6939436215555</v>
+        <v>28.2734146358259</v>
       </c>
     </row>
     <row r="92">
@@ -4303,7 +4449,7 @@
         <v>188</v>
       </c>
       <c r="C92" t="n">
-        <v>45.3748976758014</v>
+        <v>23.5155625356939</v>
       </c>
     </row>
     <row r="93">
@@ -4314,7 +4460,7 @@
         <v>190</v>
       </c>
       <c r="C93" t="n">
-        <v>36.0851254362792</v>
+        <v>34.0137837136019</v>
       </c>
     </row>
     <row r="94">
@@ -4325,7 +4471,7 @@
         <v>192</v>
       </c>
       <c r="C94" t="n">
-        <v>20.2421790473079</v>
+        <v>48.1672337478546</v>
       </c>
     </row>
     <row r="95">
@@ -4336,7 +4482,7 @@
         <v>194</v>
       </c>
       <c r="C95" t="n">
-        <v>38.9739479189105</v>
+        <v>24.818073133697</v>
       </c>
     </row>
     <row r="96">
@@ -4347,7 +4493,7 @@
         <v>196</v>
       </c>
       <c r="C96" t="n">
-        <v>21.7479831245772</v>
+        <v>45.3748965603385</v>
       </c>
     </row>
     <row r="97">
@@ -4358,7 +4504,7 @@
         <v>198</v>
       </c>
       <c r="C97" t="n">
-        <v>28.2995181292432</v>
+        <v>36.0851188729087</v>
       </c>
     </row>
     <row r="98">
@@ -4369,7 +4515,7 @@
         <v>200</v>
       </c>
       <c r="C98" t="n">
-        <v>24.5146943291724</v>
+        <v>20.2421787011193</v>
       </c>
     </row>
     <row r="99">
@@ -4380,7 +4526,7 @@
         <v>202</v>
       </c>
       <c r="C99" t="n">
-        <v>44.9050211828167</v>
+        <v>38.9739607996821</v>
       </c>
     </row>
     <row r="100">
@@ -4391,7 +4537,7 @@
         <v>204</v>
       </c>
       <c r="C100" t="n">
-        <v>21.4370597176434</v>
+        <v>21.7479835471956</v>
       </c>
     </row>
     <row r="101">
@@ -4402,7 +4548,7 @@
         <v>206</v>
       </c>
       <c r="C101" t="n">
-        <v>32.3018663198144</v>
+        <v>28.2995166097821</v>
       </c>
     </row>
     <row r="102">
@@ -4413,7 +4559,7 @@
         <v>208</v>
       </c>
       <c r="C102" t="n">
-        <v>27.7885323782189</v>
+        <v>24.5147080435943</v>
       </c>
     </row>
     <row r="103">
@@ -4424,7 +4570,7 @@
         <v>210</v>
       </c>
       <c r="C103" t="n">
-        <v>21.2794308641465</v>
+        <v>31.0279005636887</v>
       </c>
     </row>
     <row r="104">
@@ -4435,7 +4581,7 @@
         <v>212</v>
       </c>
       <c r="C104" t="n">
-        <v>21.5238657847782</v>
+        <v>21.4370658957092</v>
       </c>
     </row>
     <row r="105">
@@ -4446,7 +4592,7 @@
         <v>214</v>
       </c>
       <c r="C105" t="n">
-        <v>11.6922252162241</v>
+        <v>32.3018467787644</v>
       </c>
     </row>
     <row r="106">
@@ -4457,7 +4603,7 @@
         <v>216</v>
       </c>
       <c r="C106" t="n">
-        <v>19.8321446783283</v>
+        <v>27.7885304659498</v>
       </c>
     </row>
     <row r="107">
@@ -4468,7 +4614,62 @@
         <v>218</v>
       </c>
       <c r="C107" t="n">
-        <v>23.9508792683053</v>
+        <v>43.7035173680987</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="n">
+        <v>24.5670134469592</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" t="n">
+        <v>26.9475908947562</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" t="n">
+        <v>13.8228007172386</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" t="n">
+        <v>19.8321436956065</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.9508753245024</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>52.4434468401214</v>
+        <v>55.5575798553213</v>
       </c>
       <c r="F2" t="n">
         <v>177389.062628968</v>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>31.391777950544</v>
+        <v>33.2558336428454</v>
       </c>
       <c r="F3" t="n">
         <v>106182.111823652</v>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>30.1738348733548</v>
+        <v>31.9655884342554</v>
       </c>
       <c r="F4" t="n">
         <v>102062.504945359</v>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>25.7236860207609</v>
+        <v>27.2511785110587</v>
       </c>
       <c r="F5" t="n">
         <v>87009.9277938285</v>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>29.2107566846376</v>
+        <v>30.9452890423042</v>
       </c>
       <c r="F6" t="n">
         <v>98804.8044981757</v>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>18.6047799710088</v>
+        <v>19.7095433563809</v>
       </c>
       <c r="F7" t="n">
         <v>62930.3405572755</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0794379917295</v>
+        <v>22.3311477789409</v>
       </c>
       <c r="F8" t="n">
         <v>71300.8266783937</v>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>32.1576140586617</v>
+        <v>34.0671488057325</v>
       </c>
       <c r="F9" t="n">
         <v>108772.549287199</v>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8655480414116</v>
+        <v>29.5244685971756</v>
       </c>
       <c r="F10" t="n">
         <v>94268.2856724496</v>
@@ -1400,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9794533545427</v>
+        <v>28.5815078901123</v>
       </c>
       <c r="F11" t="n">
         <v>91257.5188903563</v>
@@ -1420,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>23.1288290579018</v>
+        <v>24.5022235780804</v>
       </c>
       <c r="F12" t="n">
         <v>78232.8259106981</v>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>22.1509096148486</v>
+        <v>23.466237250892</v>
       </c>
       <c r="F13" t="n">
         <v>74925.0388552694</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9476307181165</v>
+        <v>23.2508978383262</v>
       </c>
       <c r="F14" t="n">
         <v>74237.4844902019</v>
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6725919834897</v>
+        <v>24.0188917417072</v>
       </c>
       <c r="F15" t="n">
         <v>76689.6020766825</v>
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>21.4822161015201</v>
+        <v>22.7578426166969</v>
       </c>
       <c r="F16" t="n">
         <v>72663.2149878783</v>
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>30.8303232090113</v>
+        <v>32.6610344094482</v>
       </c>
       <c r="F17" t="n">
         <v>104282.985210515</v>
@@ -1540,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>23.7520238292239</v>
+        <v>25.1624177886814</v>
       </c>
       <c r="F18" t="n">
         <v>80340.7512824756</v>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>47.458774494975</v>
+        <v>50.2768869445181</v>
       </c>
       <c r="F19" t="n">
         <v>160528.408008694</v>
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>23.2898173943448</v>
+        <v>24.6727889601207</v>
       </c>
       <c r="F20" t="n">
         <v>78777.4218653072</v>
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>35.9879016280851</v>
+        <v>38.1248922246436</v>
       </c>
       <c r="F21" t="n">
         <v>121728.464633835</v>
@@ -1620,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>31.1462401570412</v>
+        <v>32.9957199641115</v>
       </c>
       <c r="F22" t="n">
         <v>105351.598295746</v>
@@ -1640,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>36.2101850004881</v>
+        <v>38.3603645129536</v>
       </c>
       <c r="F23" t="n">
         <v>122480.300991847</v>
@@ -1660,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>29.6218470357298</v>
+        <v>31.3808048190335</v>
       </c>
       <c r="F24" t="n">
         <v>100195.357067156</v>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>27.1250076258882</v>
+        <v>28.7357030144507</v>
       </c>
       <c r="F25" t="n">
         <v>91749.8464654517</v>
@@ -1700,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>42.577609459446</v>
+        <v>45.1058946850728</v>
       </c>
       <c r="F26" t="n">
         <v>144018.01514865</v>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>26.487105380169</v>
+        <v>28.0598900005904</v>
       </c>
       <c r="F27" t="n">
         <v>89592.0520231214</v>
@@ -1740,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>13.7370657912803</v>
+        <v>14.5527828645106</v>
       </c>
       <c r="F28" t="n">
         <v>46465.3881198747</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>26.888935748361</v>
+        <v>28.4856177613339</v>
       </c>
       <c r="F29" t="n">
         <v>90951.352565191</v>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>25.3073684210526</v>
+        <v>26.8101051495094</v>
       </c>
       <c r="F30" t="n">
         <v>85601.6304857098</v>
@@ -1800,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>49.0867098007135</v>
+        <v>52.0015061559577</v>
       </c>
       <c r="F31" t="n">
         <v>166034.921901233</v>
@@ -1820,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>21.6874140752009</v>
+        <v>22.9752276530848</v>
       </c>
       <c r="F32" t="n">
         <v>73357.3007982185</v>
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>26.4770097104598</v>
+        <v>28.0492334772824</v>
       </c>
       <c r="F33" t="n">
         <v>89558.0269506576</v>
@@ -1860,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>28.0965326982472</v>
+        <v>29.7649218653345</v>
       </c>
       <c r="F34" t="n">
         <v>95036.025735207</v>
@@ -1880,7 +1880,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>15.3707764023116</v>
+        <v>16.2835063515647</v>
       </c>
       <c r="F35" t="n">
         <v>51991.3922733664</v>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>38.2179406136814</v>
+        <v>40.4873325162132</v>
       </c>
       <c r="F36" t="n">
         <v>129271.46902549</v>
@@ -1920,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>38.390916502239</v>
+        <v>40.6705875610816</v>
       </c>
       <c r="F37" t="n">
         <v>129856.581636873</v>
@@ -1940,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>35.3382170136289</v>
+        <v>37.4366183284007</v>
       </c>
       <c r="F38" t="n">
         <v>119530.884004793</v>
@@ -1960,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>29.3240506435886</v>
+        <v>31.0653343954617</v>
       </c>
       <c r="F39" t="n">
         <v>99188.0957200938</v>
@@ -1980,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>24.853946591431</v>
+        <v>26.3298007644815</v>
       </c>
       <c r="F40" t="n">
         <v>84068.0729610918</v>
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>85.8067445605363</v>
+        <v>90.9019854819103</v>
       </c>
       <c r="F41" t="n">
         <v>290239.748342883</v>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>25.8942079205831</v>
+        <v>27.4318146694572</v>
       </c>
       <c r="F42" t="n">
         <v>87586.678597205</v>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>30.2372767214646</v>
+        <v>32.0327703834193</v>
       </c>
       <c r="F43" t="n">
         <v>102277.009303159</v>
@@ -2060,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>21.0856595037277</v>
+        <v>22.3377356711243</v>
       </c>
       <c r="F44" t="n">
         <v>71321.8610722991</v>
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>15.415092414644</v>
+        <v>16.3304511514121</v>
       </c>
       <c r="F45" t="n">
         <v>52141.2817045104</v>
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>31.5460398690866</v>
+        <v>33.4192649190791</v>
       </c>
       <c r="F46" t="n">
         <v>106703.929386095</v>
@@ -2120,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>47.8780359533372</v>
+        <v>50.721022063839</v>
       </c>
       <c r="F47" t="n">
         <v>161946.481162746</v>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>24.7641735597817</v>
+        <v>26.2346826397039</v>
       </c>
       <c r="F48" t="n">
         <v>83764.3715573003</v>
@@ -2160,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>35.738851002398</v>
+        <v>37.8610450435275</v>
       </c>
       <c r="F49" t="n">
         <v>120886.030455504</v>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>21.8248156451744</v>
+        <v>23.120777611407</v>
       </c>
       <c r="F50" t="n">
         <v>73822.0253369709</v>
@@ -2200,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>15.0614493973734</v>
+        <v>15.9558026153429</v>
       </c>
       <c r="F51" t="n">
         <v>50945.0713439853</v>
@@ -2220,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>31.4510113992706</v>
+        <v>33.3185864594646</v>
       </c>
       <c r="F52" t="n">
         <v>106382.474462673</v>
@@ -2240,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>20.5496125943839</v>
+        <v>21.7698529738702</v>
       </c>
       <c r="F53" t="n">
         <v>69508.6759117604</v>
@@ -2260,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>19.4841208483491</v>
+        <v>20.6410959353272</v>
       </c>
       <c r="F54" t="n">
         <v>65904.6824778416</v>
@@ -2280,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>20.4819268572792</v>
+        <v>21.6981453815645</v>
       </c>
       <c r="F55" t="n">
         <v>69279.7216877713</v>
@@ -2300,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>33.3089640955641</v>
+        <v>35.2868689873164</v>
       </c>
       <c r="F56" t="n">
         <v>112666.977738623</v>
@@ -2320,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>40.3931778522832</v>
+        <v>42.7917499457014</v>
       </c>
       <c r="F57" t="n">
         <v>136629.212987471</v>
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>28.5492042293779</v>
+        <v>30.2444616869404</v>
       </c>
       <c r="F58" t="n">
         <v>96567.1420953772</v>
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>24.7160179925417</v>
+        <v>26.1836710883879</v>
       </c>
       <c r="F59" t="n">
         <v>83601.4974491272</v>
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>19.2308324343661</v>
+        <v>20.372771129899</v>
       </c>
       <c r="F60" t="n">
         <v>65047.951752008</v>
@@ -2400,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>26.6912578998965</v>
+        <v>28.276191964891</v>
       </c>
       <c r="F61" t="n">
         <v>90282.6797069046</v>
@@ -2420,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>35.5917300231116</v>
+        <v>37.7051695130521</v>
       </c>
       <c r="F62" t="n">
         <v>120388.337533857</v>
@@ -2440,7 +2440,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>20.4142261173426</v>
+        <v>21.626446376458</v>
       </c>
       <c r="F63" t="n">
         <v>69050.7948817371</v>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>14.9604692496548</v>
+        <v>15.8488269009398</v>
       </c>
       <c r="F64" t="n">
         <v>50603.5099989545</v>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>18.1615222964638</v>
+        <v>19.2399673250015</v>
       </c>
       <c r="F65" t="n">
         <v>61431.0374512667</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>49.9992540096979</v>
+        <v>52.9682338680157</v>
       </c>
       <c r="F66" t="n">
         <v>169121.574039537</v>
@@ -2520,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>40.1756326184607</v>
+        <v>42.5612823875913</v>
       </c>
       <c r="F67" t="n">
         <v>135893.356166386</v>
@@ -2540,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>20.299602821253</v>
+        <v>21.5050095114106</v>
       </c>
       <c r="F68" t="n">
         <v>68663.0607198917</v>
@@ -2560,7 +2560,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>27.1850169592149</v>
+        <v>28.7992823682426</v>
       </c>
       <c r="F69" t="n">
         <v>91952.84814409</v>
@@ -2580,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>20.7502232710111</v>
+        <v>21.9823900169819</v>
       </c>
       <c r="F70" t="n">
         <v>70187.2826284262</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>29.2574096200818</v>
+        <v>30.9947332752479</v>
       </c>
       <c r="F71" t="n">
         <v>98962.674336227</v>
@@ -2620,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>25.3249042123878</v>
+        <v>26.8287135646441</v>
       </c>
       <c r="F72" t="n">
         <v>85661.0450485173</v>
@@ -2640,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>22.8955719319354</v>
+        <v>24.2551189570408</v>
       </c>
       <c r="F73" t="n">
         <v>77443.8488312135</v>
@@ -2660,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>34.5290393697602</v>
+        <v>36.5793898882838</v>
       </c>
       <c r="F74" t="n">
         <v>116793.850645038</v>
@@ -2680,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>32.9067250154463</v>
+        <v>34.8607431524032</v>
       </c>
       <c r="F75" t="n">
         <v>111306.406190796</v>
@@ -2700,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>19.7336238344478</v>
+        <v>20.905416740707</v>
       </c>
       <c r="F76" t="n">
         <v>66748.6288848263</v>
@@ -2720,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>34.2851011761268</v>
+        <v>36.3209709477838</v>
       </c>
       <c r="F77" t="n">
         <v>115968.748224446</v>
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>36.540565735304</v>
+        <v>38.7103700134198</v>
       </c>
       <c r="F78" t="n">
         <v>123597.828929608</v>
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>28.1583880896296</v>
+        <v>29.8304407655923</v>
       </c>
       <c r="F79" t="n">
         <v>95245.2201661285</v>
@@ -2780,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>27.5151207790718</v>
+        <v>29.1489879682839</v>
       </c>
       <c r="F80" t="n">
         <v>93069.4185337463</v>
@@ -2820,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>41.947086676025</v>
+        <v>44.4379136042439</v>
       </c>
       <c r="F82" t="n">
         <v>141885.227181811</v>
@@ -2840,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>26.6127143038901</v>
+        <v>28.1929837048412</v>
       </c>
       <c r="F83" t="n">
         <v>90017.0051528357</v>
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>14.861581925005</v>
+        <v>15.7440704123646</v>
       </c>
       <c r="F84" t="n">
         <v>50269.0343907471</v>
@@ -2880,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>22.4361696984247</v>
+        <v>23.7684426351759</v>
       </c>
       <c r="F85" t="n">
         <v>75889.9464336623</v>
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>30.1155394216547</v>
+        <v>31.9038160639715</v>
       </c>
       <c r="F86" t="n">
         <v>101865.272760488</v>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>28.9981436801667</v>
+        <v>30.7200727675187</v>
       </c>
       <c r="F87" t="n">
         <v>98085.7144302312</v>
@@ -2940,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>33.8052545047646</v>
+        <v>35.8126228491498</v>
       </c>
       <c r="F88" t="n">
         <v>114345.650297202</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>20.2654941786237</v>
+        <v>21.4688585960501</v>
       </c>
       <c r="F89" t="n">
         <v>68547.6349399048</v>
@@ -2980,7 +2980,7 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>20.5489812840559</v>
+        <v>21.7691947481325</v>
       </c>
       <c r="F90" t="n">
         <v>69506.5742714996</v>
@@ -3000,7 +3000,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>28.2734146358259</v>
+        <v>29.9522852617825</v>
       </c>
       <c r="F91" t="n">
         <v>95634.255848064</v>
@@ -3020,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>23.5155625356939</v>
+        <v>24.9119354598476</v>
       </c>
       <c r="F92" t="n">
         <v>79540.9895644048</v>
@@ -3040,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>34.0137837136019</v>
+        <v>36.0335404482446</v>
       </c>
       <c r="F93" t="n">
         <v>115051.015180332</v>
@@ -3060,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>48.1672337478546</v>
+        <v>51.0274416398224</v>
       </c>
       <c r="F94" t="n">
         <v>162924.844178134</v>
@@ -3080,7 +3080,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>24.818073133697</v>
+        <v>26.291789080966</v>
       </c>
       <c r="F95" t="n">
         <v>83946.7059590495</v>
@@ -3100,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>45.3748965603385</v>
+        <v>48.069283604485</v>
       </c>
       <c r="F96" t="n">
         <v>153479.780473715</v>
@@ -3120,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>36.0851188729087</v>
+        <v>38.2278796781148</v>
       </c>
       <c r="F97" t="n">
         <v>122057.291913234</v>
@@ -3140,7 +3140,7 @@
         <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>20.2421787011193</v>
+        <v>21.444170571954</v>
       </c>
       <c r="F98" t="n">
         <v>68468.8088739752</v>
@@ -3160,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>38.9739607996821</v>
+        <v>41.2882419924996</v>
       </c>
       <c r="F99" t="n">
         <v>131828.682309782</v>
@@ -3180,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>21.7479835471956</v>
+        <v>23.0393901066145</v>
       </c>
       <c r="F100" t="n">
         <v>73562.1642483047</v>
@@ -3200,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>28.2995166097821</v>
+        <v>29.9799587999922</v>
       </c>
       <c r="F101" t="n">
         <v>95722.6143225587</v>
@@ -3220,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>24.5147080435943</v>
+        <v>25.9703901184525</v>
       </c>
       <c r="F102" t="n">
         <v>82920.5154583356</v>
@@ -3240,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>31.0279005636887</v>
+        <v>32.8703525669397</v>
       </c>
       <c r="F103" t="n">
         <v>104951.314389816</v>
@@ -3260,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>21.4370658957092</v>
+        <v>22.7100039023001</v>
       </c>
       <c r="F104" t="n">
         <v>72510.4713887812</v>
@@ -3280,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>32.3018467787644</v>
+        <v>34.2199685868035</v>
       </c>
       <c r="F105" t="n">
         <v>109260.485546949</v>
@@ -3300,7 +3300,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>27.7885304659498</v>
+        <v>29.4386304371642</v>
       </c>
       <c r="F106" t="n">
         <v>93994.2141455424</v>
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>43.7035173680987</v>
+        <v>46.2986557293101</v>
       </c>
       <c r="F107" t="n">
         <v>147826.366126655</v>
@@ -3340,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="n">
-        <v>24.5670134469592</v>
+        <v>26.0258074915576</v>
       </c>
       <c r="F108" t="n">
         <v>83097.4568566844</v>
@@ -3360,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>26.9475908947562</v>
+        <v>28.5477526406846</v>
       </c>
       <c r="F109" t="n">
         <v>91149.7422004719</v>
@@ -3380,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>13.8228007172386</v>
+        <v>14.6436062161694</v>
       </c>
       <c r="F110" t="n">
         <v>46755.3767993226</v>
@@ -3400,7 +3400,7 @@
         <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>19.8321436956065</v>
+        <v>21.0097881398084</v>
       </c>
       <c r="F111" t="n">
         <v>67081.8749459412</v>
@@ -3420,7 +3420,7 @@
         <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>23.9508753245024</v>
+        <v>25.3730954136952</v>
       </c>
       <c r="F112" t="n">
         <v>81013.4210876656</v>
@@ -3459,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>52.4434468401214</v>
+        <v>55.5575798553213</v>
       </c>
     </row>
     <row r="3">
@@ -3470,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>31.391777950544</v>
+        <v>33.2558336428454</v>
       </c>
     </row>
     <row r="4">
@@ -3481,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1738348733548</v>
+        <v>31.9655884342554</v>
       </c>
     </row>
     <row r="5">
@@ -3492,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>25.7236860207609</v>
+        <v>27.2511785110587</v>
       </c>
     </row>
     <row r="6">
@@ -3503,7 +3503,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>29.2107566846376</v>
+        <v>30.9452890423042</v>
       </c>
     </row>
     <row r="7">
@@ -3514,7 +3514,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>18.6047799710088</v>
+        <v>19.7095433563809</v>
       </c>
     </row>
     <row r="8">
@@ -3525,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0794379917295</v>
+        <v>22.3311477789409</v>
       </c>
     </row>
     <row r="9">
@@ -3536,7 +3536,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>32.1576140586617</v>
+        <v>34.0671488057325</v>
       </c>
     </row>
     <row r="10">
@@ -3547,7 +3547,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8655480414116</v>
+        <v>29.5244685971756</v>
       </c>
     </row>
     <row r="11">
@@ -3558,7 +3558,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9794533545427</v>
+        <v>28.5815078901123</v>
       </c>
     </row>
     <row r="12">
@@ -3569,7 +3569,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>23.1288290579018</v>
+        <v>24.5022235780804</v>
       </c>
     </row>
     <row r="13">
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>22.1509096148486</v>
+        <v>23.466237250892</v>
       </c>
     </row>
     <row r="14">
@@ -3591,7 +3591,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9476307181165</v>
+        <v>23.2508978383262</v>
       </c>
     </row>
     <row r="15">
@@ -3602,7 +3602,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>22.6725919834897</v>
+        <v>24.0188917417072</v>
       </c>
     </row>
     <row r="16">
@@ -3613,7 +3613,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4822161015201</v>
+        <v>22.7578426166969</v>
       </c>
     </row>
     <row r="17">
@@ -3624,7 +3624,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8303232090113</v>
+        <v>32.6610344094482</v>
       </c>
     </row>
     <row r="18">
@@ -3635,7 +3635,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>23.7520238292239</v>
+        <v>25.1624177886814</v>
       </c>
     </row>
     <row r="19">
@@ -3646,7 +3646,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>47.458774494975</v>
+        <v>50.2768869445181</v>
       </c>
     </row>
     <row r="20">
@@ -3657,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>23.2898173943448</v>
+        <v>24.6727889601207</v>
       </c>
     </row>
     <row r="21">
@@ -3668,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9879016280851</v>
+        <v>38.1248922246436</v>
       </c>
     </row>
     <row r="22">
@@ -3679,7 +3679,7 @@
         <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>31.1462401570412</v>
+        <v>32.9957199641115</v>
       </c>
     </row>
     <row r="23">
@@ -3690,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>36.2101850004881</v>
+        <v>38.3603645129536</v>
       </c>
     </row>
     <row r="24">
@@ -3701,7 +3701,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>29.6218470357298</v>
+        <v>31.3808048190335</v>
       </c>
     </row>
     <row r="25">
@@ -3712,7 +3712,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>27.1250076258882</v>
+        <v>28.7357030144507</v>
       </c>
     </row>
     <row r="26">
@@ -3723,7 +3723,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>42.577609459446</v>
+        <v>45.1058946850728</v>
       </c>
     </row>
     <row r="27">
@@ -3734,7 +3734,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>26.487105380169</v>
+        <v>28.0598900005904</v>
       </c>
     </row>
     <row r="28">
@@ -3745,7 +3745,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>13.7370657912803</v>
+        <v>14.5527828645106</v>
       </c>
     </row>
     <row r="29">
@@ -3756,7 +3756,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>26.888935748361</v>
+        <v>28.4856177613339</v>
       </c>
     </row>
     <row r="30">
@@ -3767,7 +3767,7 @@
         <v>64</v>
       </c>
       <c r="C30" t="n">
-        <v>25.3073684210526</v>
+        <v>26.8101051495094</v>
       </c>
     </row>
     <row r="31">
@@ -3778,7 +3778,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>49.0867098007135</v>
+        <v>52.0015061559577</v>
       </c>
     </row>
     <row r="32">
@@ -3789,7 +3789,7 @@
         <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>21.6874140752009</v>
+        <v>22.9752276530848</v>
       </c>
     </row>
     <row r="33">
@@ -3800,7 +3800,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>26.4770097104598</v>
+        <v>28.0492334772824</v>
       </c>
     </row>
     <row r="34">
@@ -3811,7 +3811,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="n">
-        <v>28.0965326982472</v>
+        <v>29.7649218653345</v>
       </c>
     </row>
     <row r="35">
@@ -3822,7 +3822,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>15.3707764023116</v>
+        <v>16.2835063515647</v>
       </c>
     </row>
     <row r="36">
@@ -3833,7 +3833,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>38.2179406136814</v>
+        <v>40.4873325162132</v>
       </c>
     </row>
     <row r="37">
@@ -3844,7 +3844,7 @@
         <v>78</v>
       </c>
       <c r="C37" t="n">
-        <v>38.390916502239</v>
+        <v>40.6705875610816</v>
       </c>
     </row>
     <row r="38">
@@ -3855,7 +3855,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>35.3382170136289</v>
+        <v>37.4366183284007</v>
       </c>
     </row>
     <row r="39">
@@ -3866,7 +3866,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="n">
-        <v>29.3240506435886</v>
+        <v>31.0653343954617</v>
       </c>
     </row>
     <row r="40">
@@ -3877,7 +3877,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="n">
-        <v>24.853946591431</v>
+        <v>26.3298007644815</v>
       </c>
     </row>
     <row r="41">
@@ -3888,7 +3888,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="n">
-        <v>85.8067445605363</v>
+        <v>90.9019854819103</v>
       </c>
     </row>
     <row r="42">
@@ -3899,7 +3899,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="n">
-        <v>25.8942079205831</v>
+        <v>27.4318146694572</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>30.2372767214646</v>
+        <v>32.0327703834193</v>
       </c>
     </row>
     <row r="44">
@@ -3921,7 +3921,7 @@
         <v>92</v>
       </c>
       <c r="C44" t="n">
-        <v>21.0856595037277</v>
+        <v>22.3377356711243</v>
       </c>
     </row>
     <row r="45">
@@ -3932,7 +3932,7 @@
         <v>94</v>
       </c>
       <c r="C45" t="n">
-        <v>15.415092414644</v>
+        <v>16.3304511514121</v>
       </c>
     </row>
     <row r="46">
@@ -3943,7 +3943,7 @@
         <v>96</v>
       </c>
       <c r="C46" t="n">
-        <v>31.5460398690866</v>
+        <v>33.4192649190791</v>
       </c>
     </row>
     <row r="47">
@@ -3954,7 +3954,7 @@
         <v>98</v>
       </c>
       <c r="C47" t="n">
-        <v>47.8780359533372</v>
+        <v>50.721022063839</v>
       </c>
     </row>
     <row r="48">
@@ -3965,7 +3965,7 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>24.7641735597817</v>
+        <v>26.2346826397039</v>
       </c>
     </row>
     <row r="49">
@@ -3976,7 +3976,7 @@
         <v>102</v>
       </c>
       <c r="C49" t="n">
-        <v>35.738851002398</v>
+        <v>37.8610450435275</v>
       </c>
     </row>
     <row r="50">
@@ -3987,7 +3987,7 @@
         <v>104</v>
       </c>
       <c r="C50" t="n">
-        <v>21.8248156451744</v>
+        <v>23.120777611407</v>
       </c>
     </row>
     <row r="51">
@@ -3998,7 +3998,7 @@
         <v>106</v>
       </c>
       <c r="C51" t="n">
-        <v>15.0614493973734</v>
+        <v>15.9558026153429</v>
       </c>
     </row>
     <row r="52">
@@ -4009,7 +4009,7 @@
         <v>108</v>
       </c>
       <c r="C52" t="n">
-        <v>31.4510113992706</v>
+        <v>33.3185864594646</v>
       </c>
     </row>
     <row r="53">
@@ -4020,7 +4020,7 @@
         <v>110</v>
       </c>
       <c r="C53" t="n">
-        <v>20.5496125943839</v>
+        <v>21.7698529738702</v>
       </c>
     </row>
     <row r="54">
@@ -4031,7 +4031,7 @@
         <v>112</v>
       </c>
       <c r="C54" t="n">
-        <v>19.4841208483491</v>
+        <v>20.6410959353272</v>
       </c>
     </row>
     <row r="55">
@@ -4042,7 +4042,7 @@
         <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>20.4819268572792</v>
+        <v>21.6981453815645</v>
       </c>
     </row>
     <row r="56">
@@ -4053,7 +4053,7 @@
         <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>33.3089640955641</v>
+        <v>35.2868689873164</v>
       </c>
     </row>
     <row r="57">
@@ -4064,7 +4064,7 @@
         <v>118</v>
       </c>
       <c r="C57" t="n">
-        <v>40.3931778522832</v>
+        <v>42.7917499457014</v>
       </c>
     </row>
     <row r="58">
@@ -4075,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="C58" t="n">
-        <v>28.5492042293779</v>
+        <v>30.2444616869404</v>
       </c>
     </row>
     <row r="59">
@@ -4086,7 +4086,7 @@
         <v>122</v>
       </c>
       <c r="C59" t="n">
-        <v>24.7160179925417</v>
+        <v>26.1836710883879</v>
       </c>
     </row>
     <row r="60">
@@ -4097,7 +4097,7 @@
         <v>124</v>
       </c>
       <c r="C60" t="n">
-        <v>19.2308324343661</v>
+        <v>20.372771129899</v>
       </c>
     </row>
     <row r="61">
@@ -4108,7 +4108,7 @@
         <v>126</v>
       </c>
       <c r="C61" t="n">
-        <v>26.6912578998965</v>
+        <v>28.276191964891</v>
       </c>
     </row>
     <row r="62">
@@ -4119,7 +4119,7 @@
         <v>128</v>
       </c>
       <c r="C62" t="n">
-        <v>35.5917300231116</v>
+        <v>37.7051695130521</v>
       </c>
     </row>
     <row r="63">
@@ -4130,7 +4130,7 @@
         <v>130</v>
       </c>
       <c r="C63" t="n">
-        <v>20.4142261173426</v>
+        <v>21.626446376458</v>
       </c>
     </row>
     <row r="64">
@@ -4141,7 +4141,7 @@
         <v>132</v>
       </c>
       <c r="C64" t="n">
-        <v>14.9604692496548</v>
+        <v>15.8488269009398</v>
       </c>
     </row>
     <row r="65">
@@ -4152,7 +4152,7 @@
         <v>134</v>
       </c>
       <c r="C65" t="n">
-        <v>18.1615222964638</v>
+        <v>19.2399673250015</v>
       </c>
     </row>
     <row r="66">
@@ -4163,7 +4163,7 @@
         <v>136</v>
       </c>
       <c r="C66" t="n">
-        <v>49.9992540096979</v>
+        <v>52.9682338680157</v>
       </c>
     </row>
     <row r="67">
@@ -4174,7 +4174,7 @@
         <v>138</v>
       </c>
       <c r="C67" t="n">
-        <v>40.1756326184607</v>
+        <v>42.5612823875913</v>
       </c>
     </row>
     <row r="68">
@@ -4185,7 +4185,7 @@
         <v>140</v>
       </c>
       <c r="C68" t="n">
-        <v>20.299602821253</v>
+        <v>21.5050095114106</v>
       </c>
     </row>
     <row r="69">
@@ -4196,7 +4196,7 @@
         <v>142</v>
       </c>
       <c r="C69" t="n">
-        <v>27.1850169592149</v>
+        <v>28.7992823682426</v>
       </c>
     </row>
     <row r="70">
@@ -4207,7 +4207,7 @@
         <v>144</v>
       </c>
       <c r="C70" t="n">
-        <v>20.7502232710111</v>
+        <v>21.9823900169819</v>
       </c>
     </row>
     <row r="71">
@@ -4218,7 +4218,7 @@
         <v>146</v>
       </c>
       <c r="C71" t="n">
-        <v>29.2574096200818</v>
+        <v>30.9947332752479</v>
       </c>
     </row>
     <row r="72">
@@ -4229,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="C72" t="n">
-        <v>25.3249042123878</v>
+        <v>26.8287135646441</v>
       </c>
     </row>
     <row r="73">
@@ -4240,7 +4240,7 @@
         <v>150</v>
       </c>
       <c r="C73" t="n">
-        <v>22.8955719319354</v>
+        <v>24.2551189570408</v>
       </c>
     </row>
     <row r="74">
@@ -4251,7 +4251,7 @@
         <v>152</v>
       </c>
       <c r="C74" t="n">
-        <v>34.5290393697602</v>
+        <v>36.5793898882838</v>
       </c>
     </row>
     <row r="75">
@@ -4262,7 +4262,7 @@
         <v>154</v>
       </c>
       <c r="C75" t="n">
-        <v>32.9067250154463</v>
+        <v>34.8607431524032</v>
       </c>
     </row>
     <row r="76">
@@ -4273,7 +4273,7 @@
         <v>156</v>
       </c>
       <c r="C76" t="n">
-        <v>19.7336238344478</v>
+        <v>20.905416740707</v>
       </c>
     </row>
     <row r="77">
@@ -4284,7 +4284,7 @@
         <v>158</v>
       </c>
       <c r="C77" t="n">
-        <v>34.2851011761268</v>
+        <v>36.3209709477838</v>
       </c>
     </row>
     <row r="78">
@@ -4295,7 +4295,7 @@
         <v>160</v>
       </c>
       <c r="C78" t="n">
-        <v>36.540565735304</v>
+        <v>38.7103700134198</v>
       </c>
     </row>
     <row r="79">
@@ -4306,7 +4306,7 @@
         <v>162</v>
       </c>
       <c r="C79" t="n">
-        <v>28.1583880896296</v>
+        <v>29.8304407655923</v>
       </c>
     </row>
     <row r="80">
@@ -4317,7 +4317,7 @@
         <v>164</v>
       </c>
       <c r="C80" t="n">
-        <v>27.5151207790718</v>
+        <v>29.1489879682839</v>
       </c>
     </row>
     <row r="81">
@@ -4339,7 +4339,7 @@
         <v>168</v>
       </c>
       <c r="C82" t="n">
-        <v>41.947086676025</v>
+        <v>44.4379136042439</v>
       </c>
     </row>
     <row r="83">
@@ -4350,7 +4350,7 @@
         <v>170</v>
       </c>
       <c r="C83" t="n">
-        <v>26.6127143038901</v>
+        <v>28.1929837048412</v>
       </c>
     </row>
     <row r="84">
@@ -4361,7 +4361,7 @@
         <v>172</v>
       </c>
       <c r="C84" t="n">
-        <v>14.861581925005</v>
+        <v>15.7440704123646</v>
       </c>
     </row>
     <row r="85">
@@ -4372,7 +4372,7 @@
         <v>174</v>
       </c>
       <c r="C85" t="n">
-        <v>22.4361696984247</v>
+        <v>23.7684426351759</v>
       </c>
     </row>
     <row r="86">
@@ -4383,7 +4383,7 @@
         <v>176</v>
       </c>
       <c r="C86" t="n">
-        <v>30.1155394216547</v>
+        <v>31.9038160639715</v>
       </c>
     </row>
     <row r="87">
@@ -4394,7 +4394,7 @@
         <v>178</v>
       </c>
       <c r="C87" t="n">
-        <v>28.9981436801667</v>
+        <v>30.7200727675187</v>
       </c>
     </row>
     <row r="88">
@@ -4405,7 +4405,7 @@
         <v>180</v>
       </c>
       <c r="C88" t="n">
-        <v>33.8052545047646</v>
+        <v>35.8126228491498</v>
       </c>
     </row>
     <row r="89">
@@ -4416,7 +4416,7 @@
         <v>182</v>
       </c>
       <c r="C89" t="n">
-        <v>20.2654941786237</v>
+        <v>21.4688585960501</v>
       </c>
     </row>
     <row r="90">
@@ -4427,7 +4427,7 @@
         <v>184</v>
       </c>
       <c r="C90" t="n">
-        <v>20.5489812840559</v>
+        <v>21.7691947481325</v>
       </c>
     </row>
     <row r="91">
@@ -4438,7 +4438,7 @@
         <v>186</v>
       </c>
       <c r="C91" t="n">
-        <v>28.2734146358259</v>
+        <v>29.9522852617825</v>
       </c>
     </row>
     <row r="92">
@@ -4449,7 +4449,7 @@
         <v>188</v>
       </c>
       <c r="C92" t="n">
-        <v>23.5155625356939</v>
+        <v>24.9119354598476</v>
       </c>
     </row>
     <row r="93">
@@ -4460,7 +4460,7 @@
         <v>190</v>
       </c>
       <c r="C93" t="n">
-        <v>34.0137837136019</v>
+        <v>36.0335404482446</v>
       </c>
     </row>
     <row r="94">
@@ -4471,7 +4471,7 @@
         <v>192</v>
       </c>
       <c r="C94" t="n">
-        <v>48.1672337478546</v>
+        <v>51.0274416398224</v>
       </c>
     </row>
     <row r="95">
@@ -4482,7 +4482,7 @@
         <v>194</v>
       </c>
       <c r="C95" t="n">
-        <v>24.818073133697</v>
+        <v>26.291789080966</v>
       </c>
     </row>
     <row r="96">
@@ -4493,7 +4493,7 @@
         <v>196</v>
       </c>
       <c r="C96" t="n">
-        <v>45.3748965603385</v>
+        <v>48.069283604485</v>
       </c>
     </row>
     <row r="97">
@@ -4504,7 +4504,7 @@
         <v>198</v>
       </c>
       <c r="C97" t="n">
-        <v>36.0851188729087</v>
+        <v>38.2278796781148</v>
       </c>
     </row>
     <row r="98">
@@ -4515,7 +4515,7 @@
         <v>200</v>
       </c>
       <c r="C98" t="n">
-        <v>20.2421787011193</v>
+        <v>21.444170571954</v>
       </c>
     </row>
     <row r="99">
@@ -4526,7 +4526,7 @@
         <v>202</v>
       </c>
       <c r="C99" t="n">
-        <v>38.9739607996821</v>
+        <v>41.2882419924996</v>
       </c>
     </row>
     <row r="100">
@@ -4537,7 +4537,7 @@
         <v>204</v>
       </c>
       <c r="C100" t="n">
-        <v>21.7479835471956</v>
+        <v>23.0393901066145</v>
       </c>
     </row>
     <row r="101">
@@ -4548,7 +4548,7 @@
         <v>206</v>
       </c>
       <c r="C101" t="n">
-        <v>28.2995166097821</v>
+        <v>29.9799587999922</v>
       </c>
     </row>
     <row r="102">
@@ -4559,7 +4559,7 @@
         <v>208</v>
       </c>
       <c r="C102" t="n">
-        <v>24.5147080435943</v>
+        <v>25.9703901184525</v>
       </c>
     </row>
     <row r="103">
@@ -4570,7 +4570,7 @@
         <v>210</v>
       </c>
       <c r="C103" t="n">
-        <v>31.0279005636887</v>
+        <v>32.8703525669397</v>
       </c>
     </row>
     <row r="104">
@@ -4581,7 +4581,7 @@
         <v>212</v>
       </c>
       <c r="C104" t="n">
-        <v>21.4370658957092</v>
+        <v>22.7100039023001</v>
       </c>
     </row>
     <row r="105">
@@ -4592,7 +4592,7 @@
         <v>214</v>
       </c>
       <c r="C105" t="n">
-        <v>32.3018467787644</v>
+        <v>34.2199685868035</v>
       </c>
     </row>
     <row r="106">
@@ -4603,7 +4603,7 @@
         <v>216</v>
       </c>
       <c r="C106" t="n">
-        <v>27.7885304659498</v>
+        <v>29.4386304371642</v>
       </c>
     </row>
     <row r="107">
@@ -4614,7 +4614,7 @@
         <v>218</v>
       </c>
       <c r="C107" t="n">
-        <v>43.7035173680987</v>
+        <v>46.2986557293101</v>
       </c>
     </row>
     <row r="108">
@@ -4625,7 +4625,7 @@
         <v>220</v>
       </c>
       <c r="C108" t="n">
-        <v>24.5670134469592</v>
+        <v>26.0258074915576</v>
       </c>
     </row>
     <row r="109">
@@ -4636,7 +4636,7 @@
         <v>222</v>
       </c>
       <c r="C109" t="n">
-        <v>26.9475908947562</v>
+        <v>28.5477526406846</v>
       </c>
     </row>
     <row r="110">
@@ -4647,7 +4647,7 @@
         <v>224</v>
       </c>
       <c r="C110" t="n">
-        <v>13.8228007172386</v>
+        <v>14.6436062161694</v>
       </c>
     </row>
     <row r="111">
@@ -4658,7 +4658,7 @@
         <v>226</v>
       </c>
       <c r="C111" t="n">
-        <v>19.8321436956065</v>
+        <v>21.0097881398084</v>
       </c>
     </row>
     <row r="112">
@@ -4669,7 +4669,7 @@
         <v>228</v>
       </c>
       <c r="C112" t="n">
-        <v>23.9508753245024</v>
+        <v>25.3730954136952</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -709,13 +709,13 @@
     <t>Name: uganda-gov-spend-pp</t>
   </si>
   <si>
-    <t>Description: Total Expenditure Per Capita</t>
+    <t>Description: Total expenditure per capita</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Uganda budget information - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Uganda budget information â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>55.5575798553213</v>
+        <v>55.5575798553</v>
       </c>
       <c r="F2" t="n">
         <v>177389.062628968</v>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>33.2558336428454</v>
+        <v>33.2558336428</v>
       </c>
       <c r="F3" t="n">
         <v>106182.111823652</v>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>31.9655884342554</v>
+        <v>31.9655884343</v>
       </c>
       <c r="F4" t="n">
         <v>102062.504945359</v>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.2511785110587</v>
+        <v>27.2511785111</v>
       </c>
       <c r="F5" t="n">
         <v>87009.9277938285</v>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>30.9452890423042</v>
+        <v>30.9452890423</v>
       </c>
       <c r="F6" t="n">
         <v>98804.8044981757</v>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7095433563809</v>
+        <v>19.7095433564</v>
       </c>
       <c r="F7" t="n">
         <v>62930.3405572755</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>22.3311477789409</v>
+        <v>22.3311477789</v>
       </c>
       <c r="F8" t="n">
         <v>71300.8266783937</v>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0671488057325</v>
+        <v>34.0671488057</v>
       </c>
       <c r="F9" t="n">
         <v>108772.549287199</v>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>29.5244685971756</v>
+        <v>29.5244685972</v>
       </c>
       <c r="F10" t="n">
         <v>94268.2856724496</v>
@@ -1400,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>28.5815078901123</v>
+        <v>28.5815078901</v>
       </c>
       <c r="F11" t="n">
         <v>91257.5188903563</v>
@@ -1420,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>24.5022235780804</v>
+        <v>24.5022235781</v>
       </c>
       <c r="F12" t="n">
         <v>78232.8259106981</v>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>23.466237250892</v>
+        <v>23.4662372509</v>
       </c>
       <c r="F13" t="n">
         <v>74925.0388552694</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>23.2508978383262</v>
+        <v>23.2508978383</v>
       </c>
       <c r="F14" t="n">
         <v>74237.4844902019</v>
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>24.0188917417072</v>
+        <v>24.0188917417</v>
       </c>
       <c r="F15" t="n">
         <v>76689.6020766825</v>
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>22.7578426166969</v>
+        <v>22.7578426167</v>
       </c>
       <c r="F16" t="n">
         <v>72663.2149878783</v>
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>32.6610344094482</v>
+        <v>32.6610344094</v>
       </c>
       <c r="F17" t="n">
         <v>104282.985210515</v>
@@ -1540,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>25.1624177886814</v>
+        <v>25.1624177887</v>
       </c>
       <c r="F18" t="n">
         <v>80340.7512824756</v>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>50.2768869445181</v>
+        <v>50.2768869445</v>
       </c>
       <c r="F19" t="n">
         <v>160528.408008694</v>
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>24.6727889601207</v>
+        <v>24.6727889601</v>
       </c>
       <c r="F20" t="n">
         <v>78777.4218653072</v>
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>38.1248922246436</v>
+        <v>38.1248922246</v>
       </c>
       <c r="F21" t="n">
         <v>121728.464633835</v>
@@ -1620,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>32.9957199641115</v>
+        <v>32.9957199641</v>
       </c>
       <c r="F22" t="n">
         <v>105351.598295746</v>
@@ -1640,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>38.3603645129536</v>
+        <v>38.360364513</v>
       </c>
       <c r="F23" t="n">
         <v>122480.300991847</v>
@@ -1660,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>31.3808048190335</v>
+        <v>31.380804819</v>
       </c>
       <c r="F24" t="n">
         <v>100195.357067156</v>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>28.7357030144507</v>
+        <v>28.7357030145</v>
       </c>
       <c r="F25" t="n">
         <v>91749.8464654517</v>
@@ -1700,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>45.1058946850728</v>
+        <v>45.1058946851</v>
       </c>
       <c r="F26" t="n">
         <v>144018.01514865</v>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>28.0598900005904</v>
+        <v>28.0598900006</v>
       </c>
       <c r="F27" t="n">
         <v>89592.0520231214</v>
@@ -1740,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>14.5527828645106</v>
+        <v>14.5527828645</v>
       </c>
       <c r="F28" t="n">
         <v>46465.3881198747</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>28.4856177613339</v>
+        <v>28.4856177613</v>
       </c>
       <c r="F29" t="n">
         <v>90951.352565191</v>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>26.8101051495094</v>
+        <v>26.8101051495</v>
       </c>
       <c r="F30" t="n">
         <v>85601.6304857098</v>
@@ -1800,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>52.0015061559577</v>
+        <v>52.001506156</v>
       </c>
       <c r="F31" t="n">
         <v>166034.921901233</v>
@@ -1820,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>22.9752276530848</v>
+        <v>22.9752276531</v>
       </c>
       <c r="F32" t="n">
         <v>73357.3007982185</v>
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>28.0492334772824</v>
+        <v>28.0492334773</v>
       </c>
       <c r="F33" t="n">
         <v>89558.0269506576</v>
@@ -1860,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>29.7649218653345</v>
+        <v>29.7649218653</v>
       </c>
       <c r="F34" t="n">
         <v>95036.025735207</v>
@@ -1880,7 +1880,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>16.2835063515647</v>
+        <v>16.2835063516</v>
       </c>
       <c r="F35" t="n">
         <v>51991.3922733664</v>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>40.4873325162132</v>
+        <v>40.4873325162</v>
       </c>
       <c r="F36" t="n">
         <v>129271.46902549</v>
@@ -1920,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>40.6705875610816</v>
+        <v>40.6705875611</v>
       </c>
       <c r="F37" t="n">
         <v>129856.581636873</v>
@@ -1940,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>37.4366183284007</v>
+        <v>37.4366183284</v>
       </c>
       <c r="F38" t="n">
         <v>119530.884004793</v>
@@ -1960,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>31.0653343954617</v>
+        <v>31.0653343955</v>
       </c>
       <c r="F39" t="n">
         <v>99188.0957200938</v>
@@ -1980,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>26.3298007644815</v>
+        <v>26.3298007645</v>
       </c>
       <c r="F40" t="n">
         <v>84068.0729610918</v>
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>90.9019854819103</v>
+        <v>90.9019854819</v>
       </c>
       <c r="F41" t="n">
         <v>290239.748342883</v>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>27.4318146694572</v>
+        <v>27.4318146695</v>
       </c>
       <c r="F42" t="n">
         <v>87586.678597205</v>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>32.0327703834193</v>
+        <v>32.0327703834</v>
       </c>
       <c r="F43" t="n">
         <v>102277.009303159</v>
@@ -2060,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>22.3377356711243</v>
+        <v>22.3377356711</v>
       </c>
       <c r="F44" t="n">
         <v>71321.8610722991</v>
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>16.3304511514121</v>
+        <v>16.3304511514</v>
       </c>
       <c r="F45" t="n">
         <v>52141.2817045104</v>
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>33.4192649190791</v>
+        <v>33.4192649191</v>
       </c>
       <c r="F46" t="n">
         <v>106703.929386095</v>
@@ -2120,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>50.721022063839</v>
+        <v>50.7210220638</v>
       </c>
       <c r="F47" t="n">
         <v>161946.481162746</v>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>26.2346826397039</v>
+        <v>26.2346826397</v>
       </c>
       <c r="F48" t="n">
         <v>83764.3715573003</v>
@@ -2160,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>37.8610450435275</v>
+        <v>37.8610450435</v>
       </c>
       <c r="F49" t="n">
         <v>120886.030455504</v>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>23.120777611407</v>
+        <v>23.1207776114</v>
       </c>
       <c r="F50" t="n">
         <v>73822.0253369709</v>
@@ -2200,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>15.9558026153429</v>
+        <v>15.9558026153</v>
       </c>
       <c r="F51" t="n">
         <v>50945.0713439853</v>
@@ -2220,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>33.3185864594646</v>
+        <v>33.3185864595</v>
       </c>
       <c r="F52" t="n">
         <v>106382.474462673</v>
@@ -2240,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>21.7698529738702</v>
+        <v>21.7698529739</v>
       </c>
       <c r="F53" t="n">
         <v>69508.6759117604</v>
@@ -2260,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>20.6410959353272</v>
+        <v>20.6410959353</v>
       </c>
       <c r="F54" t="n">
         <v>65904.6824778416</v>
@@ -2280,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>21.6981453815645</v>
+        <v>21.6981453816</v>
       </c>
       <c r="F55" t="n">
         <v>69279.7216877713</v>
@@ -2300,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>35.2868689873164</v>
+        <v>35.2868689873</v>
       </c>
       <c r="F56" t="n">
         <v>112666.977738623</v>
@@ -2320,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>42.7917499457014</v>
+        <v>42.7917499457</v>
       </c>
       <c r="F57" t="n">
         <v>136629.212987471</v>
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>30.2444616869404</v>
+        <v>30.2444616869</v>
       </c>
       <c r="F58" t="n">
         <v>96567.1420953772</v>
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>26.1836710883879</v>
+        <v>26.1836710884</v>
       </c>
       <c r="F59" t="n">
         <v>83601.4974491272</v>
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>20.372771129899</v>
+        <v>20.3727711299</v>
       </c>
       <c r="F60" t="n">
         <v>65047.951752008</v>
@@ -2400,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>28.276191964891</v>
+        <v>28.2761919649</v>
       </c>
       <c r="F61" t="n">
         <v>90282.6797069046</v>
@@ -2420,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>37.7051695130521</v>
+        <v>37.7051695131</v>
       </c>
       <c r="F62" t="n">
         <v>120388.337533857</v>
@@ -2440,7 +2440,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>21.626446376458</v>
+        <v>21.6264463765</v>
       </c>
       <c r="F63" t="n">
         <v>69050.7948817371</v>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>15.8488269009398</v>
+        <v>15.8488269009</v>
       </c>
       <c r="F64" t="n">
         <v>50603.5099989545</v>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>19.2399673250015</v>
+        <v>19.239967325</v>
       </c>
       <c r="F65" t="n">
         <v>61431.0374512667</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>52.9682338680157</v>
+        <v>52.968233868</v>
       </c>
       <c r="F66" t="n">
         <v>169121.574039537</v>
@@ -2520,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>42.5612823875913</v>
+        <v>42.5612823876</v>
       </c>
       <c r="F67" t="n">
         <v>135893.356166386</v>
@@ -2540,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>21.5050095114106</v>
+        <v>21.5050095114</v>
       </c>
       <c r="F68" t="n">
         <v>68663.0607198917</v>
@@ -2560,7 +2560,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>28.7992823682426</v>
+        <v>28.7992823682</v>
       </c>
       <c r="F69" t="n">
         <v>91952.84814409</v>
@@ -2580,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>21.9823900169819</v>
+        <v>21.982390017</v>
       </c>
       <c r="F70" t="n">
         <v>70187.2826284262</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>30.9947332752479</v>
+        <v>30.9947332752</v>
       </c>
       <c r="F71" t="n">
         <v>98962.674336227</v>
@@ -2620,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>26.8287135646441</v>
+        <v>26.8287135646</v>
       </c>
       <c r="F72" t="n">
         <v>85661.0450485173</v>
@@ -2640,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>24.2551189570408</v>
+        <v>24.255118957</v>
       </c>
       <c r="F73" t="n">
         <v>77443.8488312135</v>
@@ -2660,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>36.5793898882838</v>
+        <v>36.5793898883</v>
       </c>
       <c r="F74" t="n">
         <v>116793.850645038</v>
@@ -2680,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>34.8607431524032</v>
+        <v>34.8607431524</v>
       </c>
       <c r="F75" t="n">
         <v>111306.406190796</v>
@@ -2700,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>20.905416740707</v>
+        <v>20.9054167407</v>
       </c>
       <c r="F76" t="n">
         <v>66748.6288848263</v>
@@ -2720,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>36.3209709477838</v>
+        <v>36.3209709478</v>
       </c>
       <c r="F77" t="n">
         <v>115968.748224446</v>
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>38.7103700134198</v>
+        <v>38.7103700134</v>
       </c>
       <c r="F78" t="n">
         <v>123597.828929608</v>
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>29.8304407655923</v>
+        <v>29.8304407656</v>
       </c>
       <c r="F79" t="n">
         <v>95245.2201661285</v>
@@ -2780,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>29.1489879682839</v>
+        <v>29.1489879683</v>
       </c>
       <c r="F80" t="n">
         <v>93069.4185337463</v>
@@ -2820,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>44.4379136042439</v>
+        <v>44.4379136042</v>
       </c>
       <c r="F82" t="n">
         <v>141885.227181811</v>
@@ -2840,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>28.1929837048412</v>
+        <v>28.1929837048</v>
       </c>
       <c r="F83" t="n">
         <v>90017.0051528357</v>
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>15.7440704123646</v>
+        <v>15.7440704124</v>
       </c>
       <c r="F84" t="n">
         <v>50269.0343907471</v>
@@ -2880,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>23.7684426351759</v>
+        <v>23.7684426352</v>
       </c>
       <c r="F85" t="n">
         <v>75889.9464336623</v>
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>31.9038160639715</v>
+        <v>31.903816064</v>
       </c>
       <c r="F86" t="n">
         <v>101865.272760488</v>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>30.7200727675187</v>
+        <v>30.7200727675</v>
       </c>
       <c r="F87" t="n">
         <v>98085.7144302312</v>
@@ -2940,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>35.8126228491498</v>
+        <v>35.8126228491</v>
       </c>
       <c r="F88" t="n">
         <v>114345.650297202</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>21.4688585960501</v>
+        <v>21.4688585961</v>
       </c>
       <c r="F89" t="n">
         <v>68547.6349399048</v>
@@ -2980,7 +2980,7 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>21.7691947481325</v>
+        <v>21.7691947481</v>
       </c>
       <c r="F90" t="n">
         <v>69506.5742714996</v>
@@ -3000,7 +3000,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>29.9522852617825</v>
+        <v>29.9522852618</v>
       </c>
       <c r="F91" t="n">
         <v>95634.255848064</v>
@@ -3020,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>24.9119354598476</v>
+        <v>24.9119354598</v>
       </c>
       <c r="F92" t="n">
         <v>79540.9895644048</v>
@@ -3040,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>36.0335404482446</v>
+        <v>36.0335404482</v>
       </c>
       <c r="F93" t="n">
         <v>115051.015180332</v>
@@ -3060,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>51.0274416398224</v>
+        <v>51.0274416398</v>
       </c>
       <c r="F94" t="n">
         <v>162924.844178134</v>
@@ -3080,7 +3080,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>26.291789080966</v>
+        <v>26.291789081</v>
       </c>
       <c r="F95" t="n">
         <v>83946.7059590495</v>
@@ -3100,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>48.069283604485</v>
+        <v>48.0692836045</v>
       </c>
       <c r="F96" t="n">
         <v>153479.780473715</v>
@@ -3120,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>38.2278796781148</v>
+        <v>38.2278796781</v>
       </c>
       <c r="F97" t="n">
         <v>122057.291913234</v>
@@ -3140,7 +3140,7 @@
         <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>21.444170571954</v>
+        <v>21.444170572</v>
       </c>
       <c r="F98" t="n">
         <v>68468.8088739752</v>
@@ -3160,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>41.2882419924996</v>
+        <v>41.2882419925</v>
       </c>
       <c r="F99" t="n">
         <v>131828.682309782</v>
@@ -3180,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>23.0393901066145</v>
+        <v>23.0393901066</v>
       </c>
       <c r="F100" t="n">
         <v>73562.1642483047</v>
@@ -3200,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>29.9799587999922</v>
+        <v>29.9799588</v>
       </c>
       <c r="F101" t="n">
         <v>95722.6143225587</v>
@@ -3220,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>25.9703901184525</v>
+        <v>25.9703901185</v>
       </c>
       <c r="F102" t="n">
         <v>82920.5154583356</v>
@@ -3240,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>32.8703525669397</v>
+        <v>32.8703525669</v>
       </c>
       <c r="F103" t="n">
         <v>104951.314389816</v>
@@ -3260,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>22.7100039023001</v>
+        <v>22.7100039023</v>
       </c>
       <c r="F104" t="n">
         <v>72510.4713887812</v>
@@ -3280,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>34.2199685868035</v>
+        <v>34.2199685868</v>
       </c>
       <c r="F105" t="n">
         <v>109260.485546949</v>
@@ -3300,7 +3300,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>29.4386304371642</v>
+        <v>29.4386304372</v>
       </c>
       <c r="F106" t="n">
         <v>93994.2141455424</v>
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>46.2986557293101</v>
+        <v>46.2986557293</v>
       </c>
       <c r="F107" t="n">
         <v>147826.366126655</v>
@@ -3340,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="n">
-        <v>26.0258074915576</v>
+        <v>26.0258074916</v>
       </c>
       <c r="F108" t="n">
         <v>83097.4568566844</v>
@@ -3360,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>28.5477526406846</v>
+        <v>28.5477526407</v>
       </c>
       <c r="F109" t="n">
         <v>91149.7422004719</v>
@@ -3380,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>14.6436062161694</v>
+        <v>14.6436062162</v>
       </c>
       <c r="F110" t="n">
         <v>46755.3767993226</v>
@@ -3400,7 +3400,7 @@
         <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>21.0097881398084</v>
+        <v>21.0097881398</v>
       </c>
       <c r="F111" t="n">
         <v>67081.8749459412</v>
@@ -3420,7 +3420,7 @@
         <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>25.3730954136952</v>
+        <v>25.3730954137</v>
       </c>
       <c r="F112" t="n">
         <v>81013.4210876656</v>
@@ -3459,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>55.5575798553213</v>
+        <v>55.5575798553</v>
       </c>
     </row>
     <row r="3">
@@ -3470,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>33.2558336428454</v>
+        <v>33.2558336428</v>
       </c>
     </row>
     <row r="4">
@@ -3481,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>31.9655884342554</v>
+        <v>31.9655884343</v>
       </c>
     </row>
     <row r="5">
@@ -3492,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2511785110587</v>
+        <v>27.2511785111</v>
       </c>
     </row>
     <row r="6">
@@ -3503,7 +3503,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>30.9452890423042</v>
+        <v>30.9452890423</v>
       </c>
     </row>
     <row r="7">
@@ -3514,7 +3514,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7095433563809</v>
+        <v>19.7095433564</v>
       </c>
     </row>
     <row r="8">
@@ -3525,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3311477789409</v>
+        <v>22.3311477789</v>
       </c>
     </row>
     <row r="9">
@@ -3536,7 +3536,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0671488057325</v>
+        <v>34.0671488057</v>
       </c>
     </row>
     <row r="10">
@@ -3547,7 +3547,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5244685971756</v>
+        <v>29.5244685972</v>
       </c>
     </row>
     <row r="11">
@@ -3558,7 +3558,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>28.5815078901123</v>
+        <v>28.5815078901</v>
       </c>
     </row>
     <row r="12">
@@ -3569,7 +3569,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5022235780804</v>
+        <v>24.5022235781</v>
       </c>
     </row>
     <row r="13">
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>23.466237250892</v>
+        <v>23.4662372509</v>
       </c>
     </row>
     <row r="14">
@@ -3591,7 +3591,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>23.2508978383262</v>
+        <v>23.2508978383</v>
       </c>
     </row>
     <row r="15">
@@ -3602,7 +3602,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0188917417072</v>
+        <v>24.0188917417</v>
       </c>
     </row>
     <row r="16">
@@ -3613,7 +3613,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>22.7578426166969</v>
+        <v>22.7578426167</v>
       </c>
     </row>
     <row r="17">
@@ -3624,7 +3624,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>32.6610344094482</v>
+        <v>32.6610344094</v>
       </c>
     </row>
     <row r="18">
@@ -3635,7 +3635,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>25.1624177886814</v>
+        <v>25.1624177887</v>
       </c>
     </row>
     <row r="19">
@@ -3646,7 +3646,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>50.2768869445181</v>
+        <v>50.2768869445</v>
       </c>
     </row>
     <row r="20">
@@ -3657,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>24.6727889601207</v>
+        <v>24.6727889601</v>
       </c>
     </row>
     <row r="21">
@@ -3668,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="n">
-        <v>38.1248922246436</v>
+        <v>38.1248922246</v>
       </c>
     </row>
     <row r="22">
@@ -3679,7 +3679,7 @@
         <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>32.9957199641115</v>
+        <v>32.9957199641</v>
       </c>
     </row>
     <row r="23">
@@ -3690,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>38.3603645129536</v>
+        <v>38.360364513</v>
       </c>
     </row>
     <row r="24">
@@ -3701,7 +3701,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>31.3808048190335</v>
+        <v>31.380804819</v>
       </c>
     </row>
     <row r="25">
@@ -3712,7 +3712,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>28.7357030144507</v>
+        <v>28.7357030145</v>
       </c>
     </row>
     <row r="26">
@@ -3723,7 +3723,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>45.1058946850728</v>
+        <v>45.1058946851</v>
       </c>
     </row>
     <row r="27">
@@ -3734,7 +3734,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>28.0598900005904</v>
+        <v>28.0598900006</v>
       </c>
     </row>
     <row r="28">
@@ -3745,7 +3745,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>14.5527828645106</v>
+        <v>14.5527828645</v>
       </c>
     </row>
     <row r="29">
@@ -3756,7 +3756,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>28.4856177613339</v>
+        <v>28.4856177613</v>
       </c>
     </row>
     <row r="30">
@@ -3767,7 +3767,7 @@
         <v>64</v>
       </c>
       <c r="C30" t="n">
-        <v>26.8101051495094</v>
+        <v>26.8101051495</v>
       </c>
     </row>
     <row r="31">
@@ -3778,7 +3778,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>52.0015061559577</v>
+        <v>52.001506156</v>
       </c>
     </row>
     <row r="32">
@@ -3789,7 +3789,7 @@
         <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>22.9752276530848</v>
+        <v>22.9752276531</v>
       </c>
     </row>
     <row r="33">
@@ -3800,7 +3800,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>28.0492334772824</v>
+        <v>28.0492334773</v>
       </c>
     </row>
     <row r="34">
@@ -3811,7 +3811,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="n">
-        <v>29.7649218653345</v>
+        <v>29.7649218653</v>
       </c>
     </row>
     <row r="35">
@@ -3822,7 +3822,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>16.2835063515647</v>
+        <v>16.2835063516</v>
       </c>
     </row>
     <row r="36">
@@ -3833,7 +3833,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>40.4873325162132</v>
+        <v>40.4873325162</v>
       </c>
     </row>
     <row r="37">
@@ -3844,7 +3844,7 @@
         <v>78</v>
       </c>
       <c r="C37" t="n">
-        <v>40.6705875610816</v>
+        <v>40.6705875611</v>
       </c>
     </row>
     <row r="38">
@@ -3855,7 +3855,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>37.4366183284007</v>
+        <v>37.4366183284</v>
       </c>
     </row>
     <row r="39">
@@ -3866,7 +3866,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="n">
-        <v>31.0653343954617</v>
+        <v>31.0653343955</v>
       </c>
     </row>
     <row r="40">
@@ -3877,7 +3877,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="n">
-        <v>26.3298007644815</v>
+        <v>26.3298007645</v>
       </c>
     </row>
     <row r="41">
@@ -3888,7 +3888,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="n">
-        <v>90.9019854819103</v>
+        <v>90.9019854819</v>
       </c>
     </row>
     <row r="42">
@@ -3899,7 +3899,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="n">
-        <v>27.4318146694572</v>
+        <v>27.4318146695</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>32.0327703834193</v>
+        <v>32.0327703834</v>
       </c>
     </row>
     <row r="44">
@@ -3921,7 +3921,7 @@
         <v>92</v>
       </c>
       <c r="C44" t="n">
-        <v>22.3377356711243</v>
+        <v>22.3377356711</v>
       </c>
     </row>
     <row r="45">
@@ -3932,7 +3932,7 @@
         <v>94</v>
       </c>
       <c r="C45" t="n">
-        <v>16.3304511514121</v>
+        <v>16.3304511514</v>
       </c>
     </row>
     <row r="46">
@@ -3943,7 +3943,7 @@
         <v>96</v>
       </c>
       <c r="C46" t="n">
-        <v>33.4192649190791</v>
+        <v>33.4192649191</v>
       </c>
     </row>
     <row r="47">
@@ -3954,7 +3954,7 @@
         <v>98</v>
       </c>
       <c r="C47" t="n">
-        <v>50.721022063839</v>
+        <v>50.7210220638</v>
       </c>
     </row>
     <row r="48">
@@ -3965,7 +3965,7 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>26.2346826397039</v>
+        <v>26.2346826397</v>
       </c>
     </row>
     <row r="49">
@@ -3976,7 +3976,7 @@
         <v>102</v>
       </c>
       <c r="C49" t="n">
-        <v>37.8610450435275</v>
+        <v>37.8610450435</v>
       </c>
     </row>
     <row r="50">
@@ -3987,7 +3987,7 @@
         <v>104</v>
       </c>
       <c r="C50" t="n">
-        <v>23.120777611407</v>
+        <v>23.1207776114</v>
       </c>
     </row>
     <row r="51">
@@ -3998,7 +3998,7 @@
         <v>106</v>
       </c>
       <c r="C51" t="n">
-        <v>15.9558026153429</v>
+        <v>15.9558026153</v>
       </c>
     </row>
     <row r="52">
@@ -4009,7 +4009,7 @@
         <v>108</v>
       </c>
       <c r="C52" t="n">
-        <v>33.3185864594646</v>
+        <v>33.3185864595</v>
       </c>
     </row>
     <row r="53">
@@ -4020,7 +4020,7 @@
         <v>110</v>
       </c>
       <c r="C53" t="n">
-        <v>21.7698529738702</v>
+        <v>21.7698529739</v>
       </c>
     </row>
     <row r="54">
@@ -4031,7 +4031,7 @@
         <v>112</v>
       </c>
       <c r="C54" t="n">
-        <v>20.6410959353272</v>
+        <v>20.6410959353</v>
       </c>
     </row>
     <row r="55">
@@ -4042,7 +4042,7 @@
         <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>21.6981453815645</v>
+        <v>21.6981453816</v>
       </c>
     </row>
     <row r="56">
@@ -4053,7 +4053,7 @@
         <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>35.2868689873164</v>
+        <v>35.2868689873</v>
       </c>
     </row>
     <row r="57">
@@ -4064,7 +4064,7 @@
         <v>118</v>
       </c>
       <c r="C57" t="n">
-        <v>42.7917499457014</v>
+        <v>42.7917499457</v>
       </c>
     </row>
     <row r="58">
@@ -4075,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="C58" t="n">
-        <v>30.2444616869404</v>
+        <v>30.2444616869</v>
       </c>
     </row>
     <row r="59">
@@ -4086,7 +4086,7 @@
         <v>122</v>
       </c>
       <c r="C59" t="n">
-        <v>26.1836710883879</v>
+        <v>26.1836710884</v>
       </c>
     </row>
     <row r="60">
@@ -4097,7 +4097,7 @@
         <v>124</v>
       </c>
       <c r="C60" t="n">
-        <v>20.372771129899</v>
+        <v>20.3727711299</v>
       </c>
     </row>
     <row r="61">
@@ -4108,7 +4108,7 @@
         <v>126</v>
       </c>
       <c r="C61" t="n">
-        <v>28.276191964891</v>
+        <v>28.2761919649</v>
       </c>
     </row>
     <row r="62">
@@ -4119,7 +4119,7 @@
         <v>128</v>
       </c>
       <c r="C62" t="n">
-        <v>37.7051695130521</v>
+        <v>37.7051695131</v>
       </c>
     </row>
     <row r="63">
@@ -4130,7 +4130,7 @@
         <v>130</v>
       </c>
       <c r="C63" t="n">
-        <v>21.626446376458</v>
+        <v>21.6264463765</v>
       </c>
     </row>
     <row r="64">
@@ -4141,7 +4141,7 @@
         <v>132</v>
       </c>
       <c r="C64" t="n">
-        <v>15.8488269009398</v>
+        <v>15.8488269009</v>
       </c>
     </row>
     <row r="65">
@@ -4152,7 +4152,7 @@
         <v>134</v>
       </c>
       <c r="C65" t="n">
-        <v>19.2399673250015</v>
+        <v>19.239967325</v>
       </c>
     </row>
     <row r="66">
@@ -4163,7 +4163,7 @@
         <v>136</v>
       </c>
       <c r="C66" t="n">
-        <v>52.9682338680157</v>
+        <v>52.968233868</v>
       </c>
     </row>
     <row r="67">
@@ -4174,7 +4174,7 @@
         <v>138</v>
       </c>
       <c r="C67" t="n">
-        <v>42.5612823875913</v>
+        <v>42.5612823876</v>
       </c>
     </row>
     <row r="68">
@@ -4185,7 +4185,7 @@
         <v>140</v>
       </c>
       <c r="C68" t="n">
-        <v>21.5050095114106</v>
+        <v>21.5050095114</v>
       </c>
     </row>
     <row r="69">
@@ -4196,7 +4196,7 @@
         <v>142</v>
       </c>
       <c r="C69" t="n">
-        <v>28.7992823682426</v>
+        <v>28.7992823682</v>
       </c>
     </row>
     <row r="70">
@@ -4207,7 +4207,7 @@
         <v>144</v>
       </c>
       <c r="C70" t="n">
-        <v>21.9823900169819</v>
+        <v>21.982390017</v>
       </c>
     </row>
     <row r="71">
@@ -4218,7 +4218,7 @@
         <v>146</v>
       </c>
       <c r="C71" t="n">
-        <v>30.9947332752479</v>
+        <v>30.9947332752</v>
       </c>
     </row>
     <row r="72">
@@ -4229,7 +4229,7 @@
         <v>148</v>
       </c>
       <c r="C72" t="n">
-        <v>26.8287135646441</v>
+        <v>26.8287135646</v>
       </c>
     </row>
     <row r="73">
@@ -4240,7 +4240,7 @@
         <v>150</v>
       </c>
       <c r="C73" t="n">
-        <v>24.2551189570408</v>
+        <v>24.255118957</v>
       </c>
     </row>
     <row r="74">
@@ -4251,7 +4251,7 @@
         <v>152</v>
       </c>
       <c r="C74" t="n">
-        <v>36.5793898882838</v>
+        <v>36.5793898883</v>
       </c>
     </row>
     <row r="75">
@@ -4262,7 +4262,7 @@
         <v>154</v>
       </c>
       <c r="C75" t="n">
-        <v>34.8607431524032</v>
+        <v>34.8607431524</v>
       </c>
     </row>
     <row r="76">
@@ -4273,7 +4273,7 @@
         <v>156</v>
       </c>
       <c r="C76" t="n">
-        <v>20.905416740707</v>
+        <v>20.9054167407</v>
       </c>
     </row>
     <row r="77">
@@ -4284,7 +4284,7 @@
         <v>158</v>
       </c>
       <c r="C77" t="n">
-        <v>36.3209709477838</v>
+        <v>36.3209709478</v>
       </c>
     </row>
     <row r="78">
@@ -4295,7 +4295,7 @@
         <v>160</v>
       </c>
       <c r="C78" t="n">
-        <v>38.7103700134198</v>
+        <v>38.7103700134</v>
       </c>
     </row>
     <row r="79">
@@ -4306,7 +4306,7 @@
         <v>162</v>
       </c>
       <c r="C79" t="n">
-        <v>29.8304407655923</v>
+        <v>29.8304407656</v>
       </c>
     </row>
     <row r="80">
@@ -4317,7 +4317,7 @@
         <v>164</v>
       </c>
       <c r="C80" t="n">
-        <v>29.1489879682839</v>
+        <v>29.1489879683</v>
       </c>
     </row>
     <row r="81">
@@ -4339,7 +4339,7 @@
         <v>168</v>
       </c>
       <c r="C82" t="n">
-        <v>44.4379136042439</v>
+        <v>44.4379136042</v>
       </c>
     </row>
     <row r="83">
@@ -4350,7 +4350,7 @@
         <v>170</v>
       </c>
       <c r="C83" t="n">
-        <v>28.1929837048412</v>
+        <v>28.1929837048</v>
       </c>
     </row>
     <row r="84">
@@ -4361,7 +4361,7 @@
         <v>172</v>
       </c>
       <c r="C84" t="n">
-        <v>15.7440704123646</v>
+        <v>15.7440704124</v>
       </c>
     </row>
     <row r="85">
@@ -4372,7 +4372,7 @@
         <v>174</v>
       </c>
       <c r="C85" t="n">
-        <v>23.7684426351759</v>
+        <v>23.7684426352</v>
       </c>
     </row>
     <row r="86">
@@ -4383,7 +4383,7 @@
         <v>176</v>
       </c>
       <c r="C86" t="n">
-        <v>31.9038160639715</v>
+        <v>31.903816064</v>
       </c>
     </row>
     <row r="87">
@@ -4394,7 +4394,7 @@
         <v>178</v>
       </c>
       <c r="C87" t="n">
-        <v>30.7200727675187</v>
+        <v>30.7200727675</v>
       </c>
     </row>
     <row r="88">
@@ -4405,7 +4405,7 @@
         <v>180</v>
       </c>
       <c r="C88" t="n">
-        <v>35.8126228491498</v>
+        <v>35.8126228491</v>
       </c>
     </row>
     <row r="89">
@@ -4416,7 +4416,7 @@
         <v>182</v>
       </c>
       <c r="C89" t="n">
-        <v>21.4688585960501</v>
+        <v>21.4688585961</v>
       </c>
     </row>
     <row r="90">
@@ -4427,7 +4427,7 @@
         <v>184</v>
       </c>
       <c r="C90" t="n">
-        <v>21.7691947481325</v>
+        <v>21.7691947481</v>
       </c>
     </row>
     <row r="91">
@@ -4438,7 +4438,7 @@
         <v>186</v>
       </c>
       <c r="C91" t="n">
-        <v>29.9522852617825</v>
+        <v>29.9522852618</v>
       </c>
     </row>
     <row r="92">
@@ -4449,7 +4449,7 @@
         <v>188</v>
       </c>
       <c r="C92" t="n">
-        <v>24.9119354598476</v>
+        <v>24.9119354598</v>
       </c>
     </row>
     <row r="93">
@@ -4460,7 +4460,7 @@
         <v>190</v>
       </c>
       <c r="C93" t="n">
-        <v>36.0335404482446</v>
+        <v>36.0335404482</v>
       </c>
     </row>
     <row r="94">
@@ -4471,7 +4471,7 @@
         <v>192</v>
       </c>
       <c r="C94" t="n">
-        <v>51.0274416398224</v>
+        <v>51.0274416398</v>
       </c>
     </row>
     <row r="95">
@@ -4482,7 +4482,7 @@
         <v>194</v>
       </c>
       <c r="C95" t="n">
-        <v>26.291789080966</v>
+        <v>26.291789081</v>
       </c>
     </row>
     <row r="96">
@@ -4493,7 +4493,7 @@
         <v>196</v>
       </c>
       <c r="C96" t="n">
-        <v>48.069283604485</v>
+        <v>48.0692836045</v>
       </c>
     </row>
     <row r="97">
@@ -4504,7 +4504,7 @@
         <v>198</v>
       </c>
       <c r="C97" t="n">
-        <v>38.2278796781148</v>
+        <v>38.2278796781</v>
       </c>
     </row>
     <row r="98">
@@ -4515,7 +4515,7 @@
         <v>200</v>
       </c>
       <c r="C98" t="n">
-        <v>21.444170571954</v>
+        <v>21.444170572</v>
       </c>
     </row>
     <row r="99">
@@ -4526,7 +4526,7 @@
         <v>202</v>
       </c>
       <c r="C99" t="n">
-        <v>41.2882419924996</v>
+        <v>41.2882419925</v>
       </c>
     </row>
     <row r="100">
@@ -4537,7 +4537,7 @@
         <v>204</v>
       </c>
       <c r="C100" t="n">
-        <v>23.0393901066145</v>
+        <v>23.0393901066</v>
       </c>
     </row>
     <row r="101">
@@ -4548,7 +4548,7 @@
         <v>206</v>
       </c>
       <c r="C101" t="n">
-        <v>29.9799587999922</v>
+        <v>29.9799588</v>
       </c>
     </row>
     <row r="102">
@@ -4559,7 +4559,7 @@
         <v>208</v>
       </c>
       <c r="C102" t="n">
-        <v>25.9703901184525</v>
+        <v>25.9703901185</v>
       </c>
     </row>
     <row r="103">
@@ -4570,7 +4570,7 @@
         <v>210</v>
       </c>
       <c r="C103" t="n">
-        <v>32.8703525669397</v>
+        <v>32.8703525669</v>
       </c>
     </row>
     <row r="104">
@@ -4581,7 +4581,7 @@
         <v>212</v>
       </c>
       <c r="C104" t="n">
-        <v>22.7100039023001</v>
+        <v>22.7100039023</v>
       </c>
     </row>
     <row r="105">
@@ -4592,7 +4592,7 @@
         <v>214</v>
       </c>
       <c r="C105" t="n">
-        <v>34.2199685868035</v>
+        <v>34.2199685868</v>
       </c>
     </row>
     <row r="106">
@@ -4603,7 +4603,7 @@
         <v>216</v>
       </c>
       <c r="C106" t="n">
-        <v>29.4386304371642</v>
+        <v>29.4386304372</v>
       </c>
     </row>
     <row r="107">
@@ -4614,7 +4614,7 @@
         <v>218</v>
       </c>
       <c r="C107" t="n">
-        <v>46.2986557293101</v>
+        <v>46.2986557293</v>
       </c>
     </row>
     <row r="108">
@@ -4625,7 +4625,7 @@
         <v>220</v>
       </c>
       <c r="C108" t="n">
-        <v>26.0258074915576</v>
+        <v>26.0258074916</v>
       </c>
     </row>
     <row r="109">
@@ -4636,7 +4636,7 @@
         <v>222</v>
       </c>
       <c r="C109" t="n">
-        <v>28.5477526406846</v>
+        <v>28.5477526407</v>
       </c>
     </row>
     <row r="110">
@@ -4647,7 +4647,7 @@
         <v>224</v>
       </c>
       <c r="C110" t="n">
-        <v>14.6436062161694</v>
+        <v>14.6436062162</v>
       </c>
     </row>
     <row r="111">
@@ -4658,7 +4658,7 @@
         <v>226</v>
       </c>
       <c r="C111" t="n">
-        <v>21.0097881398084</v>
+        <v>21.0097881398</v>
       </c>
     </row>
     <row r="112">
@@ -4669,7 +4669,7 @@
         <v>228</v>
       </c>
       <c r="C112" t="n">
-        <v>25.3730954136952</v>
+        <v>25.3730954137</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -745,7 +745,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -2800,10 +2800,10 @@
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>57.5766234634305</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>183835.640287357</v>
       </c>
     </row>
     <row r="82">
@@ -4328,7 +4328,7 @@
         <v>166</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>57.5766234634305</v>
       </c>
     </row>
     <row r="82">

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -2886,6 +2886,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2893,7 +2896,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>90.9019854819</v>
       </c>
     </row>
@@ -2901,7 +2907,10 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>33.3185864595</v>
       </c>
     </row>
@@ -2909,7 +2918,10 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
         <v>28.7992823682</v>
       </c>
     </row>
@@ -2917,7 +2929,10 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>36.5793898883</v>
       </c>
     </row>
@@ -2925,7 +2940,10 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
         <v>28.1929837048</v>
       </c>
     </row>
@@ -2933,7 +2951,10 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>15.7440704124</v>
       </c>
     </row>
@@ -2941,7 +2962,10 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>23.7684426352</v>
       </c>
     </row>
@@ -2949,7 +2973,10 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>35.8126228491</v>
       </c>
     </row>
@@ -2957,7 +2984,10 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
         <v>29.9799588</v>
       </c>
     </row>
@@ -2965,7 +2995,10 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
         <v>26.0258074916</v>
       </c>
     </row>
@@ -2973,7 +3006,10 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
         <v>23.1207776114</v>
       </c>
     </row>
@@ -2981,7 +3017,10 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
         <v>14.6436062162</v>
       </c>
     </row>
@@ -2989,7 +3028,10 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
         <v>30.9947332752</v>
       </c>
     </row>
@@ -2997,7 +3039,10 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
         <v>29.1489879683</v>
       </c>
     </row>
@@ -3005,7 +3050,10 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
         <v>30.7200727675</v>
       </c>
     </row>
@@ -3013,7 +3061,10 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
         <v>22.7578426167</v>
       </c>
     </row>
@@ -3021,7 +3072,10 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
         <v>25.1624177887</v>
       </c>
     </row>
@@ -3029,7 +3083,10 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
         <v>45.1058946851</v>
       </c>
     </row>
@@ -3037,7 +3094,10 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
         <v>28.0598900006</v>
       </c>
     </row>
@@ -3045,7 +3105,10 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
         <v>26.8101051495</v>
       </c>
     </row>
@@ -3053,7 +3116,10 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
         <v>32.0327703834</v>
       </c>
     </row>
@@ -3061,7 +3127,10 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
         <v>21.6264463765</v>
       </c>
     </row>
@@ -3069,7 +3138,10 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
         <v>21.982390017</v>
       </c>
     </row>
@@ -3077,7 +3149,10 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
         <v>23.2508978383</v>
       </c>
     </row>
@@ -3085,7 +3160,10 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
         <v>31.380804819</v>
       </c>
     </row>
@@ -3093,7 +3171,10 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
         <v>29.7649218653</v>
       </c>
     </row>
@@ -3101,7 +3182,10 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
         <v>40.4873325162</v>
       </c>
     </row>
@@ -3109,7 +3193,10 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
         <v>22.3377356711</v>
       </c>
     </row>
@@ -3117,7 +3204,10 @@
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
         <v>50.7210220638</v>
       </c>
     </row>
@@ -3125,7 +3215,10 @@
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
         <v>37.8610450435</v>
       </c>
     </row>
@@ -3133,7 +3226,10 @@
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
         <v>28.2761919649</v>
       </c>
     </row>
@@ -3141,7 +3237,10 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
         <v>36.3209709478</v>
       </c>
     </row>
@@ -3149,7 +3248,10 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
         <v>23.0393901066</v>
       </c>
     </row>
@@ -3157,7 +3259,10 @@
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
         <v>46.2986557293</v>
       </c>
     </row>
@@ -3165,7 +3270,10 @@
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
         <v>28.5477526407</v>
       </c>
     </row>
@@ -3173,7 +3281,10 @@
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
         <v>26.3298007645</v>
       </c>
     </row>
@@ -3181,7 +3292,10 @@
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
         <v>20.9054167407</v>
       </c>
     </row>
@@ -3189,7 +3303,10 @@
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
         <v>29.4386304372</v>
       </c>
     </row>
@@ -3197,7 +3314,10 @@
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
         <v>22.3311477789</v>
       </c>
     </row>
@@ -3205,7 +3325,10 @@
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
         <v>24.5022235781</v>
       </c>
     </row>
@@ -3213,7 +3336,10 @@
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
         <v>23.4662372509</v>
       </c>
     </row>
@@ -3221,7 +3347,10 @@
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
         <v>32.6610344094</v>
       </c>
     </row>
@@ -3229,7 +3358,10 @@
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
         <v>50.2768869445</v>
       </c>
     </row>
@@ -3237,7 +3369,10 @@
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
         <v>28.7357030145</v>
       </c>
     </row>
@@ -3245,7 +3380,10 @@
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
         <v>27.4318146695</v>
       </c>
     </row>
@@ -3253,7 +3391,10 @@
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
         <v>26.8287135646</v>
       </c>
     </row>
@@ -3261,7 +3402,10 @@
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
         <v>21.7691947481</v>
       </c>
     </row>
@@ -3269,7 +3413,10 @@
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n">
         <v>24.6727889601</v>
       </c>
     </row>
@@ -3277,7 +3424,10 @@
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="n">
         <v>14.5527828645</v>
       </c>
     </row>
@@ -3285,7 +3435,10 @@
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
         <v>21.7698529739</v>
       </c>
     </row>
@@ -3293,7 +3446,10 @@
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="n">
         <v>37.7051695131</v>
       </c>
     </row>
@@ -3301,7 +3457,10 @@
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="n">
         <v>21.5050095114</v>
       </c>
     </row>
@@ -3309,7 +3468,10 @@
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n">
         <v>21.4688585961</v>
       </c>
     </row>
@@ -3317,7 +3479,10 @@
       <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n">
         <v>36.0335404482</v>
       </c>
     </row>
@@ -3325,7 +3490,10 @@
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="n">
         <v>22.7100039023</v>
       </c>
     </row>
@@ -3333,7 +3501,10 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="n">
         <v>33.2558336428</v>
       </c>
     </row>
@@ -3341,7 +3512,10 @@
       <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="n">
         <v>29.5244685972</v>
       </c>
     </row>
@@ -3349,7 +3523,10 @@
       <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="n">
         <v>28.5815078901</v>
       </c>
     </row>
@@ -3357,7 +3534,10 @@
       <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
         <v>52.001506156</v>
       </c>
     </row>
@@ -3365,7 +3545,10 @@
       <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="n">
         <v>42.7917499457</v>
       </c>
     </row>
@@ -3373,7 +3556,10 @@
       <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="n">
         <v>20.3727711299</v>
       </c>
     </row>
@@ -3381,7 +3567,10 @@
       <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="n">
         <v>42.5612823876</v>
       </c>
     </row>
@@ -3389,7 +3578,10 @@
       <c r="A64" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3397,7 +3589,10 @@
       <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="n">
         <v>44.4379136042</v>
       </c>
     </row>
@@ -3405,7 +3600,10 @@
       <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="n">
         <v>24.9119354598</v>
       </c>
     </row>
@@ -3413,7 +3611,10 @@
       <c r="A67" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="n">
         <v>31.903816064</v>
       </c>
     </row>
@@ -3421,7 +3622,10 @@
       <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="n">
         <v>41.2882419925</v>
       </c>
     </row>
@@ -3429,7 +3633,10 @@
       <c r="A69" t="s">
         <v>74</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="n">
         <v>21.0097881398</v>
       </c>
     </row>
@@ -3437,7 +3644,10 @@
       <c r="A70" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="n">
         <v>55.5575798553</v>
       </c>
     </row>
@@ -3445,7 +3655,10 @@
       <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="n">
         <v>30.9452890423</v>
       </c>
     </row>
@@ -3453,7 +3666,10 @@
       <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
         <v>34.0671488057</v>
       </c>
     </row>
@@ -3461,7 +3677,10 @@
       <c r="A73" t="s">
         <v>78</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="n">
         <v>28.4856177613</v>
       </c>
     </row>
@@ -3469,7 +3688,10 @@
       <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="n">
         <v>40.6705875611</v>
       </c>
     </row>
@@ -3477,7 +3699,10 @@
       <c r="A75" t="s">
         <v>80</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="n">
         <v>30.2444616869</v>
       </c>
     </row>
@@ -3485,7 +3710,10 @@
       <c r="A76" t="s">
         <v>81</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="n">
         <v>24.255118957</v>
       </c>
     </row>
@@ -3493,7 +3721,10 @@
       <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="n">
         <v>21.444170572</v>
       </c>
     </row>
@@ -3501,7 +3732,10 @@
       <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="n">
         <v>31.9655884343</v>
       </c>
     </row>
@@ -3509,7 +3743,10 @@
       <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="n">
         <v>27.2511785111</v>
       </c>
     </row>
@@ -3517,7 +3754,10 @@
       <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="n">
         <v>19.7095433564</v>
       </c>
     </row>
@@ -3525,7 +3765,10 @@
       <c r="A81" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="n">
         <v>26.1836710884</v>
       </c>
     </row>
@@ -3533,7 +3776,10 @@
       <c r="A82" t="s">
         <v>87</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="n">
         <v>52.968233868</v>
       </c>
     </row>
@@ -3541,7 +3787,10 @@
       <c r="A83" t="s">
         <v>88</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="n">
         <v>29.9522852618</v>
       </c>
     </row>
@@ -3549,7 +3798,10 @@
       <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="n">
         <v>48.0692836045</v>
       </c>
     </row>
@@ -3557,7 +3809,10 @@
       <c r="A85" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="n">
         <v>38.2278796781</v>
       </c>
     </row>
@@ -3565,7 +3820,10 @@
       <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="n">
         <v>25.3730954137</v>
       </c>
     </row>
@@ -3573,7 +3831,10 @@
       <c r="A87" t="s">
         <v>92</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="n">
         <v>32.9957199641</v>
       </c>
     </row>
@@ -3581,7 +3842,10 @@
       <c r="A88" t="s">
         <v>93</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="n">
         <v>38.360364513</v>
       </c>
     </row>
@@ -3589,7 +3853,10 @@
       <c r="A89" t="s">
         <v>94</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="n">
         <v>22.9752276531</v>
       </c>
     </row>
@@ -3597,7 +3864,10 @@
       <c r="A90" t="s">
         <v>95</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="n">
         <v>37.4366183284</v>
       </c>
     </row>
@@ -3605,7 +3875,10 @@
       <c r="A91" t="s">
         <v>96</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="n">
         <v>31.0653343955</v>
       </c>
     </row>
@@ -3613,7 +3886,10 @@
       <c r="A92" t="s">
         <v>97</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="n">
         <v>26.2346826397</v>
       </c>
     </row>
@@ -3621,7 +3897,10 @@
       <c r="A93" t="s">
         <v>98</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="n">
         <v>15.9558026153</v>
       </c>
     </row>
@@ -3629,7 +3908,10 @@
       <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="n">
         <v>35.2868689873</v>
       </c>
     </row>
@@ -3637,7 +3919,10 @@
       <c r="A95" t="s">
         <v>100</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="n">
         <v>34.8607431524</v>
       </c>
     </row>
@@ -3645,7 +3930,10 @@
       <c r="A96" t="s">
         <v>101</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="n">
         <v>38.7103700134</v>
       </c>
     </row>
@@ -3653,7 +3941,10 @@
       <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="n">
         <v>26.291789081</v>
       </c>
     </row>
@@ -3661,7 +3952,10 @@
       <c r="A98" t="s">
         <v>103</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="n">
         <v>32.8703525669</v>
       </c>
     </row>
@@ -3669,7 +3963,10 @@
       <c r="A99" t="s">
         <v>104</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="n">
         <v>16.3304511514</v>
       </c>
     </row>
@@ -3677,7 +3974,10 @@
       <c r="A100" t="s">
         <v>105</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="n">
         <v>33.4192649191</v>
       </c>
     </row>
@@ -3685,7 +3985,10 @@
       <c r="A101" t="s">
         <v>106</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="n">
         <v>19.239967325</v>
       </c>
     </row>
@@ -3693,7 +3996,10 @@
       <c r="A102" t="s">
         <v>107</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="n">
         <v>38.1248922246</v>
       </c>
     </row>
@@ -3701,7 +4007,10 @@
       <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="n">
         <v>28.0492334773</v>
       </c>
     </row>
@@ -3709,7 +4018,10 @@
       <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="n">
         <v>16.2835063516</v>
       </c>
     </row>
@@ -3717,7 +4029,10 @@
       <c r="A105" t="s">
         <v>110</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="n">
         <v>20.6410959353</v>
       </c>
     </row>
@@ -3725,7 +4040,10 @@
       <c r="A106" t="s">
         <v>111</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="n">
         <v>24.0188917417</v>
       </c>
     </row>
@@ -3733,7 +4051,10 @@
       <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="n">
         <v>21.6981453816</v>
       </c>
     </row>
@@ -3741,7 +4062,10 @@
       <c r="A108" t="s">
         <v>113</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="n">
         <v>15.8488269009</v>
       </c>
     </row>
@@ -3749,7 +4073,10 @@
       <c r="A109" t="s">
         <v>114</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="n">
         <v>29.8304407656</v>
       </c>
     </row>
@@ -3757,7 +4084,10 @@
       <c r="A110" t="s">
         <v>115</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="n">
         <v>51.0274416398</v>
       </c>
     </row>
@@ -3765,7 +4095,10 @@
       <c r="A111" t="s">
         <v>116</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="n">
         <v>25.9703901185</v>
       </c>
     </row>
@@ -3773,7 +4106,10 @@
       <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="n">
         <v>34.2199685868</v>
       </c>
     </row>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -2886,9 +2886,6 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2896,10 +2893,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>90.9019854819</v>
       </c>
     </row>
@@ -2907,10 +2901,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>33.3185864595</v>
       </c>
     </row>
@@ -2918,10 +2909,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>28.7992823682</v>
       </c>
     </row>
@@ -2929,10 +2917,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>36.5793898883</v>
       </c>
     </row>
@@ -2940,10 +2925,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>28.1929837048</v>
       </c>
     </row>
@@ -2951,10 +2933,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="n">
         <v>15.7440704124</v>
       </c>
     </row>
@@ -2962,10 +2941,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>23.7684426352</v>
       </c>
     </row>
@@ -2973,10 +2949,7 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="n">
         <v>35.8126228491</v>
       </c>
     </row>
@@ -2984,10 +2957,7 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="n">
         <v>29.9799588</v>
       </c>
     </row>
@@ -2995,10 +2965,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>26.0258074916</v>
       </c>
     </row>
@@ -3006,10 +2973,7 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>23.1207776114</v>
       </c>
     </row>
@@ -3017,10 +2981,7 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="n">
         <v>14.6436062162</v>
       </c>
     </row>
@@ -3028,10 +2989,7 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>30.9947332752</v>
       </c>
     </row>
@@ -3039,10 +2997,7 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>29.1489879683</v>
       </c>
     </row>
@@ -3050,10 +3005,7 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>30.7200727675</v>
       </c>
     </row>
@@ -3061,10 +3013,7 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="n">
         <v>22.7578426167</v>
       </c>
     </row>
@@ -3072,10 +3021,7 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="n">
         <v>25.1624177887</v>
       </c>
     </row>
@@ -3083,10 +3029,7 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="n">
         <v>45.1058946851</v>
       </c>
     </row>
@@ -3094,10 +3037,7 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>28.0598900006</v>
       </c>
     </row>
@@ -3105,10 +3045,7 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="n">
         <v>26.8101051495</v>
       </c>
     </row>
@@ -3116,10 +3053,7 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>32.0327703834</v>
       </c>
     </row>
@@ -3127,10 +3061,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="n">
         <v>21.6264463765</v>
       </c>
     </row>
@@ -3138,10 +3069,7 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="n">
         <v>21.982390017</v>
       </c>
     </row>
@@ -3149,10 +3077,7 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="n">
         <v>23.2508978383</v>
       </c>
     </row>
@@ -3160,10 +3085,7 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="n">
         <v>31.380804819</v>
       </c>
     </row>
@@ -3171,10 +3093,7 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="n">
         <v>29.7649218653</v>
       </c>
     </row>
@@ -3182,10 +3101,7 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="n">
         <v>40.4873325162</v>
       </c>
     </row>
@@ -3193,10 +3109,7 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="n">
         <v>22.3377356711</v>
       </c>
     </row>
@@ -3204,10 +3117,7 @@
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="n">
         <v>50.7210220638</v>
       </c>
     </row>
@@ -3215,10 +3125,7 @@
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="n">
         <v>37.8610450435</v>
       </c>
     </row>
@@ -3226,10 +3133,7 @@
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="n">
         <v>28.2761919649</v>
       </c>
     </row>
@@ -3237,10 +3141,7 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="n">
         <v>36.3209709478</v>
       </c>
     </row>
@@ -3248,10 +3149,7 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="n">
         <v>23.0393901066</v>
       </c>
     </row>
@@ -3259,10 +3157,7 @@
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="n">
         <v>46.2986557293</v>
       </c>
     </row>
@@ -3270,10 +3165,7 @@
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="n">
         <v>28.5477526407</v>
       </c>
     </row>
@@ -3281,10 +3173,7 @@
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="n">
         <v>26.3298007645</v>
       </c>
     </row>
@@ -3292,10 +3181,7 @@
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="n">
         <v>20.9054167407</v>
       </c>
     </row>
@@ -3303,10 +3189,7 @@
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="n">
         <v>29.4386304372</v>
       </c>
     </row>
@@ -3314,10 +3197,7 @@
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="n">
         <v>22.3311477789</v>
       </c>
     </row>
@@ -3325,10 +3205,7 @@
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="n">
         <v>24.5022235781</v>
       </c>
     </row>
@@ -3336,10 +3213,7 @@
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="n">
         <v>23.4662372509</v>
       </c>
     </row>
@@ -3347,10 +3221,7 @@
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="n">
         <v>32.6610344094</v>
       </c>
     </row>
@@ -3358,10 +3229,7 @@
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="n">
         <v>50.2768869445</v>
       </c>
     </row>
@@ -3369,10 +3237,7 @@
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="n">
         <v>28.7357030145</v>
       </c>
     </row>
@@ -3380,10 +3245,7 @@
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="n">
         <v>27.4318146695</v>
       </c>
     </row>
@@ -3391,10 +3253,7 @@
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" t="n">
         <v>26.8287135646</v>
       </c>
     </row>
@@ -3402,10 +3261,7 @@
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="n">
         <v>21.7691947481</v>
       </c>
     </row>
@@ -3413,10 +3269,7 @@
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="n">
         <v>24.6727889601</v>
       </c>
     </row>
@@ -3424,10 +3277,7 @@
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="n">
         <v>14.5527828645</v>
       </c>
     </row>
@@ -3435,10 +3285,7 @@
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" t="n">
         <v>21.7698529739</v>
       </c>
     </row>
@@ -3446,10 +3293,7 @@
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" t="n">
         <v>37.7051695131</v>
       </c>
     </row>
@@ -3457,10 +3301,7 @@
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="n">
         <v>21.5050095114</v>
       </c>
     </row>
@@ -3468,10 +3309,7 @@
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" t="n">
         <v>21.4688585961</v>
       </c>
     </row>
@@ -3479,10 +3317,7 @@
       <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" t="n">
         <v>36.0335404482</v>
       </c>
     </row>
@@ -3490,10 +3325,7 @@
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="n">
         <v>22.7100039023</v>
       </c>
     </row>
@@ -3501,10 +3333,7 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="n">
         <v>33.2558336428</v>
       </c>
     </row>
@@ -3512,10 +3341,7 @@
       <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="n">
         <v>29.5244685972</v>
       </c>
     </row>
@@ -3523,10 +3349,7 @@
       <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" t="n">
         <v>28.5815078901</v>
       </c>
     </row>
@@ -3534,10 +3357,7 @@
       <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" t="n">
         <v>52.001506156</v>
       </c>
     </row>
@@ -3545,10 +3365,7 @@
       <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" t="n">
         <v>42.7917499457</v>
       </c>
     </row>
@@ -3556,10 +3373,7 @@
       <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" t="n">
         <v>20.3727711299</v>
       </c>
     </row>
@@ -3567,10 +3381,7 @@
       <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" t="n">
         <v>42.5612823876</v>
       </c>
     </row>
@@ -3578,10 +3389,7 @@
       <c r="A64" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3589,10 +3397,7 @@
       <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" t="n">
         <v>44.4379136042</v>
       </c>
     </row>
@@ -3600,10 +3405,7 @@
       <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" t="n">
         <v>24.9119354598</v>
       </c>
     </row>
@@ -3611,10 +3413,7 @@
       <c r="A67" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" t="n">
         <v>31.903816064</v>
       </c>
     </row>
@@ -3622,10 +3421,7 @@
       <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" t="n">
         <v>41.2882419925</v>
       </c>
     </row>
@@ -3633,10 +3429,7 @@
       <c r="A69" t="s">
         <v>74</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" t="n">
         <v>21.0097881398</v>
       </c>
     </row>
@@ -3644,10 +3437,7 @@
       <c r="A70" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" t="n">
         <v>55.5575798553</v>
       </c>
     </row>
@@ -3655,10 +3445,7 @@
       <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" t="n">
         <v>30.9452890423</v>
       </c>
     </row>
@@ -3666,10 +3453,7 @@
       <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" t="n">
         <v>34.0671488057</v>
       </c>
     </row>
@@ -3677,10 +3461,7 @@
       <c r="A73" t="s">
         <v>78</v>
       </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" t="n">
         <v>28.4856177613</v>
       </c>
     </row>
@@ -3688,10 +3469,7 @@
       <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" t="n">
         <v>40.6705875611</v>
       </c>
     </row>
@@ -3699,10 +3477,7 @@
       <c r="A75" t="s">
         <v>80</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" t="n">
         <v>30.2444616869</v>
       </c>
     </row>
@@ -3710,10 +3485,7 @@
       <c r="A76" t="s">
         <v>81</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" t="n">
         <v>24.255118957</v>
       </c>
     </row>
@@ -3721,10 +3493,7 @@
       <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77" t="n">
         <v>21.444170572</v>
       </c>
     </row>
@@ -3732,10 +3501,7 @@
       <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" t="n">
         <v>31.9655884343</v>
       </c>
     </row>
@@ -3743,10 +3509,7 @@
       <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" t="n">
         <v>27.2511785111</v>
       </c>
     </row>
@@ -3754,10 +3517,7 @@
       <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" t="n">
         <v>19.7095433564</v>
       </c>
     </row>
@@ -3765,10 +3525,7 @@
       <c r="A81" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" t="n">
         <v>26.1836710884</v>
       </c>
     </row>
@@ -3776,10 +3533,7 @@
       <c r="A82" t="s">
         <v>87</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" t="n">
         <v>52.968233868</v>
       </c>
     </row>
@@ -3787,10 +3541,7 @@
       <c r="A83" t="s">
         <v>88</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" t="n">
         <v>29.9522852618</v>
       </c>
     </row>
@@ -3798,10 +3549,7 @@
       <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>48.0692836045</v>
       </c>
     </row>
@@ -3809,10 +3557,7 @@
       <c r="A85" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" t="n">
         <v>38.2278796781</v>
       </c>
     </row>
@@ -3820,10 +3565,7 @@
       <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" t="n">
         <v>25.3730954137</v>
       </c>
     </row>
@@ -3831,10 +3573,7 @@
       <c r="A87" t="s">
         <v>92</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" t="n">
         <v>32.9957199641</v>
       </c>
     </row>
@@ -3842,10 +3581,7 @@
       <c r="A88" t="s">
         <v>93</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" t="n">
         <v>38.360364513</v>
       </c>
     </row>
@@ -3853,10 +3589,7 @@
       <c r="A89" t="s">
         <v>94</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" t="n">
         <v>22.9752276531</v>
       </c>
     </row>
@@ -3864,10 +3597,7 @@
       <c r="A90" t="s">
         <v>95</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" t="n">
         <v>37.4366183284</v>
       </c>
     </row>
@@ -3875,10 +3605,7 @@
       <c r="A91" t="s">
         <v>96</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" t="n">
         <v>31.0653343955</v>
       </c>
     </row>
@@ -3886,10 +3613,7 @@
       <c r="A92" t="s">
         <v>97</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="B92" t="n">
         <v>26.2346826397</v>
       </c>
     </row>
@@ -3897,10 +3621,7 @@
       <c r="A93" t="s">
         <v>98</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" t="n">
         <v>15.9558026153</v>
       </c>
     </row>
@@ -3908,10 +3629,7 @@
       <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" t="n">
         <v>35.2868689873</v>
       </c>
     </row>
@@ -3919,10 +3637,7 @@
       <c r="A95" t="s">
         <v>100</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" t="n">
         <v>34.8607431524</v>
       </c>
     </row>
@@ -3930,10 +3645,7 @@
       <c r="A96" t="s">
         <v>101</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="n">
+      <c r="B96" t="n">
         <v>38.7103700134</v>
       </c>
     </row>
@@ -3941,10 +3653,7 @@
       <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>26.291789081</v>
       </c>
     </row>
@@ -3952,10 +3661,7 @@
       <c r="A98" t="s">
         <v>103</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" t="n">
         <v>32.8703525669</v>
       </c>
     </row>
@@ -3963,10 +3669,7 @@
       <c r="A99" t="s">
         <v>104</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" t="n">
         <v>16.3304511514</v>
       </c>
     </row>
@@ -3974,10 +3677,7 @@
       <c r="A100" t="s">
         <v>105</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" t="n">
         <v>33.4192649191</v>
       </c>
     </row>
@@ -3985,10 +3685,7 @@
       <c r="A101" t="s">
         <v>106</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101" t="n">
         <v>19.239967325</v>
       </c>
     </row>
@@ -3996,10 +3693,7 @@
       <c r="A102" t="s">
         <v>107</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" t="n">
         <v>38.1248922246</v>
       </c>
     </row>
@@ -4007,10 +3701,7 @@
       <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" t="n">
         <v>28.0492334773</v>
       </c>
     </row>
@@ -4018,10 +3709,7 @@
       <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" t="n">
         <v>16.2835063516</v>
       </c>
     </row>
@@ -4029,10 +3717,7 @@
       <c r="A105" t="s">
         <v>110</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="B105" t="n">
         <v>20.6410959353</v>
       </c>
     </row>
@@ -4040,10 +3725,7 @@
       <c r="A106" t="s">
         <v>111</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="n">
+      <c r="B106" t="n">
         <v>24.0188917417</v>
       </c>
     </row>
@@ -4051,10 +3733,7 @@
       <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107" t="n">
         <v>21.6981453816</v>
       </c>
     </row>
@@ -4062,10 +3741,7 @@
       <c r="A108" t="s">
         <v>113</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="B108" t="n">
         <v>15.8488269009</v>
       </c>
     </row>
@@ -4073,10 +3749,7 @@
       <c r="A109" t="s">
         <v>114</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109" t="n">
         <v>29.8304407656</v>
       </c>
     </row>
@@ -4084,10 +3757,7 @@
       <c r="A110" t="s">
         <v>115</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" t="n">
         <v>51.0274416398</v>
       </c>
     </row>
@@ -4095,10 +3765,7 @@
       <c r="A111" t="s">
         <v>116</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" t="n">
         <v>25.9703901185</v>
       </c>
     </row>
@@ -4106,10 +3773,7 @@
       <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" t="n">
         <v>34.2199685868</v>
       </c>
     </row>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -37,337 +37,670 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">budget</t>
   </si>
   <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -746,22 +1079,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1102,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1110,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -873,12 +1206,14 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>90.9019854819</v>
@@ -889,14 +1224,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3"/>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>33.3185864595</v>
@@ -907,14 +1244,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4"/>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>28.7992823682</v>
@@ -925,14 +1264,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5"/>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>36.5793898883</v>
@@ -943,14 +1284,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6"/>
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>28.1929837048</v>
@@ -961,14 +1304,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7"/>
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>15.7440704124</v>
@@ -979,14 +1324,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8"/>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>23.7684426352</v>
@@ -997,14 +1344,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9"/>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>35.8126228491</v>
@@ -1015,14 +1364,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10"/>
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>29.9799588</v>
@@ -1033,14 +1384,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11"/>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>26.0258074916</v>
@@ -1051,14 +1404,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12"/>
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>23.1207776114</v>
@@ -1069,14 +1424,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13"/>
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>14.6436062162</v>
@@ -1087,14 +1444,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14"/>
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>30.9947332752</v>
@@ -1105,14 +1464,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15"/>
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>29.1489879683</v>
@@ -1123,14 +1484,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16"/>
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>30.7200727675</v>
@@ -1141,14 +1504,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17"/>
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>22.7578426167</v>
@@ -1159,14 +1524,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18"/>
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>25.1624177887</v>
@@ -1177,14 +1544,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19"/>
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>45.1058946851</v>
@@ -1195,14 +1564,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20"/>
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>28.0598900006</v>
@@ -1213,14 +1584,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21"/>
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>26.8101051495</v>
@@ -1231,14 +1604,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22"/>
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
         <v>32.0327703834</v>
@@ -1249,14 +1624,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23"/>
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
         <v>21.6264463765</v>
@@ -1267,14 +1644,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24"/>
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>21.982390017</v>
@@ -1285,14 +1664,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25"/>
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
         <v>23.2508978383</v>
@@ -1303,14 +1684,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26"/>
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
         <v>31.380804819</v>
@@ -1321,14 +1704,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27"/>
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>29.7649218653</v>
@@ -1339,14 +1724,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28"/>
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>40.4873325162</v>
@@ -1357,14 +1744,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29"/>
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
         <v>22.3377356711</v>
@@ -1375,14 +1764,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30"/>
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
         <v>50.7210220638</v>
@@ -1393,14 +1784,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31"/>
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
         <v>37.8610450435</v>
@@ -1411,14 +1804,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32"/>
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
         <v>28.2761919649</v>
@@ -1429,14 +1824,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33"/>
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
         <v>36.3209709478</v>
@@ -1447,14 +1844,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34"/>
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
         <v>23.0393901066</v>
@@ -1465,14 +1864,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35"/>
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>46.2986557293</v>
@@ -1483,14 +1884,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36"/>
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
         <v>28.5477526407</v>
@@ -1501,14 +1904,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37"/>
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
         <v>26.3298007645</v>
@@ -1519,14 +1924,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38"/>
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
         <v>20.9054167407</v>
@@ -1537,14 +1944,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39"/>
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
         <v>29.4386304372</v>
@@ -1555,14 +1964,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40"/>
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
         <v>22.3311477789</v>
@@ -1573,14 +1984,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41"/>
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
         <v>24.5022235781</v>
@@ -1591,14 +2004,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42"/>
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
         <v>23.4662372509</v>
@@ -1609,14 +2024,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43"/>
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
         <v>32.6610344094</v>
@@ -1627,14 +2044,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44"/>
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
         <v>50.2768869445</v>
@@ -1645,14 +2064,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45"/>
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
         <v>28.7357030145</v>
@@ -1663,14 +2084,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46"/>
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
         <v>27.4318146695</v>
@@ -1681,14 +2104,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47"/>
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
         <v>26.8287135646</v>
@@ -1699,14 +2124,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48"/>
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
         <v>21.7691947481</v>
@@ -1717,14 +2144,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49"/>
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
         <v>24.6727889601</v>
@@ -1735,14 +2164,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50"/>
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
         <v>14.5527828645</v>
@@ -1753,14 +2184,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51"/>
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>21.7698529739</v>
@@ -1771,14 +2204,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52"/>
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
         <v>37.7051695131</v>
@@ -1789,14 +2224,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53"/>
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
         <v>21.5050095114</v>
@@ -1807,14 +2244,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54"/>
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
         <v>21.4688585961</v>
@@ -1825,14 +2264,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55"/>
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
         <v>36.0335404482</v>
@@ -1843,14 +2284,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56"/>
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
         <v>22.7100039023</v>
@@ -1861,14 +2304,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57"/>
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
         <v>33.2558336428</v>
@@ -1879,14 +2324,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58"/>
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
         <v>29.5244685972</v>
@@ -1897,14 +2344,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59"/>
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>28.5815078901</v>
@@ -1915,14 +2364,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60"/>
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
         <v>52.001506156</v>
@@ -1933,14 +2384,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61"/>
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
         <v>42.7917499457</v>
@@ -1951,14 +2404,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62"/>
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
         <v>20.3727711299</v>
@@ -1969,14 +2424,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63"/>
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
         <v>42.5612823876</v>
@@ -1987,14 +2444,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64"/>
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2005,14 +2464,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65"/>
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
         <v>44.4379136042</v>
@@ -2023,14 +2484,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66"/>
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
         <v>24.9119354598</v>
@@ -2041,14 +2504,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67"/>
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
         <v>31.903816064</v>
@@ -2059,14 +2524,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68"/>
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
         <v>41.2882419925</v>
@@ -2077,14 +2544,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69"/>
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
         <v>21.0097881398</v>
@@ -2095,14 +2564,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70"/>
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
         <v>55.5575798553</v>
@@ -2113,14 +2584,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71"/>
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" t="n">
         <v>30.9452890423</v>
@@ -2131,14 +2604,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72"/>
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
         <v>34.0671488057</v>
@@ -2149,14 +2624,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73"/>
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
         <v>28.4856177613</v>
@@ -2167,14 +2644,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74"/>
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
         <v>40.6705875611</v>
@@ -2185,14 +2664,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75"/>
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
         <v>30.2444616869</v>
@@ -2203,14 +2684,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76"/>
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
         <v>24.255118957</v>
@@ -2221,14 +2704,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77"/>
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
         <v>21.444170572</v>
@@ -2239,14 +2724,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78"/>
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
         <v>31.9655884343</v>
@@ -2257,14 +2744,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79"/>
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E79" t="n">
         <v>27.2511785111</v>
@@ -2275,14 +2764,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80"/>
+        <v>163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" t="n">
         <v>19.7095433564</v>
@@ -2293,14 +2784,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81"/>
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
         <v>26.1836710884</v>
@@ -2311,14 +2804,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82"/>
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
         <v>52.968233868</v>
@@ -2329,14 +2824,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83"/>
+        <v>169</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
         <v>29.9522852618</v>
@@ -2347,14 +2844,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84"/>
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
         <v>48.0692836045</v>
@@ -2365,14 +2864,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85"/>
+        <v>173</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
         <v>38.2278796781</v>
@@ -2383,14 +2884,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86"/>
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
         <v>25.3730954137</v>
@@ -2401,14 +2904,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87"/>
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
         <v>32.9957199641</v>
@@ -2419,14 +2924,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88"/>
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
         <v>38.360364513</v>
@@ -2437,14 +2944,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89"/>
+        <v>181</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
         <v>22.9752276531</v>
@@ -2455,14 +2964,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90"/>
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
         <v>37.4366183284</v>
@@ -2473,14 +2984,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91"/>
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" t="n">
         <v>31.0653343955</v>
@@ -2491,14 +3004,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92"/>
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
         <v>26.2346826397</v>
@@ -2509,14 +3024,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93"/>
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
         <v>15.9558026153</v>
@@ -2527,14 +3044,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94"/>
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n">
         <v>35.2868689873</v>
@@ -2545,14 +3064,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95"/>
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95" t="n">
         <v>34.8607431524</v>
@@ -2563,14 +3084,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96"/>
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
         <v>38.7103700134</v>
@@ -2581,14 +3104,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97"/>
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" t="n">
         <v>26.291789081</v>
@@ -2599,14 +3124,16 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98"/>
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
         <v>32.8703525669</v>
@@ -2617,14 +3144,16 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99"/>
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
         <v>16.3304511514</v>
@@ -2635,14 +3164,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100"/>
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
         <v>33.4192649191</v>
@@ -2653,14 +3184,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101"/>
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
         <v>19.239967325</v>
@@ -2671,14 +3204,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102"/>
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
         <v>38.1248922246</v>
@@ -2689,14 +3224,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103"/>
+        <v>209</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103" t="n">
         <v>28.0492334773</v>
@@ -2707,14 +3244,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104"/>
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>212</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
         <v>16.2835063516</v>
@@ -2725,14 +3264,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105"/>
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
         <v>20.6410959353</v>
@@ -2743,14 +3284,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106"/>
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
         <v>24.0188917417</v>
@@ -2761,14 +3304,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107"/>
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
         <v>21.6981453816</v>
@@ -2779,14 +3324,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108"/>
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
         <v>15.8488269009</v>
@@ -2797,14 +3344,16 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109"/>
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
         <v>29.8304407656</v>
@@ -2815,14 +3364,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110"/>
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110" t="n">
         <v>51.0274416398</v>
@@ -2833,14 +3384,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111"/>
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
         <v>25.9703901185</v>
@@ -2851,14 +3404,16 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112"/>
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>34.2199685868</v>
@@ -2889,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -2897,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>90.9019854819</v>
@@ -2905,10 +3460,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>33.3185864595</v>
@@ -2916,10 +3471,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>28.7992823682</v>
@@ -2927,10 +3482,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>36.5793898883</v>
@@ -2938,10 +3493,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>28.1929837048</v>
@@ -2949,10 +3504,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>15.7440704124</v>
@@ -2960,10 +3515,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>23.7684426352</v>
@@ -2971,10 +3526,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>35.8126228491</v>
@@ -2982,10 +3537,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>29.9799588</v>
@@ -2993,10 +3548,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>26.0258074916</v>
@@ -3004,10 +3559,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>23.1207776114</v>
@@ -3015,10 +3570,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>14.6436062162</v>
@@ -3026,10 +3581,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>30.9947332752</v>
@@ -3037,10 +3592,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>29.1489879683</v>
@@ -3048,10 +3603,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>30.7200727675</v>
@@ -3059,10 +3614,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>22.7578426167</v>
@@ -3070,10 +3625,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>25.1624177887</v>
@@ -3081,10 +3636,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>45.1058946851</v>
@@ -3092,10 +3647,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>28.0598900006</v>
@@ -3103,10 +3658,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>26.8101051495</v>
@@ -3114,10 +3669,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>32.0327703834</v>
@@ -3125,10 +3680,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>21.6264463765</v>
@@ -3136,10 +3691,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>21.982390017</v>
@@ -3147,10 +3702,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>23.2508978383</v>
@@ -3158,10 +3713,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>31.380804819</v>
@@ -3169,10 +3724,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>29.7649218653</v>
@@ -3180,10 +3735,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>40.4873325162</v>
@@ -3191,10 +3746,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>22.3377356711</v>
@@ -3202,10 +3757,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
         <v>50.7210220638</v>
@@ -3213,10 +3768,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>37.8610450435</v>
@@ -3224,10 +3779,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>28.2761919649</v>
@@ -3235,10 +3790,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
         <v>36.3209709478</v>
@@ -3246,10 +3801,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>23.0393901066</v>
@@ -3257,10 +3812,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>46.2986557293</v>
@@ -3268,10 +3823,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>28.5477526407</v>
@@ -3279,10 +3834,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>26.3298007645</v>
@@ -3290,10 +3845,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>20.9054167407</v>
@@ -3301,10 +3856,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>29.4386304372</v>
@@ -3312,10 +3867,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>22.3311477789</v>
@@ -3323,10 +3878,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
         <v>24.5022235781</v>
@@ -3334,10 +3889,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>23.4662372509</v>
@@ -3345,10 +3900,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
         <v>32.6610344094</v>
@@ -3356,10 +3911,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
         <v>50.2768869445</v>
@@ -3367,10 +3922,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
         <v>28.7357030145</v>
@@ -3378,10 +3933,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
         <v>27.4318146695</v>
@@ -3389,10 +3944,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
         <v>26.8287135646</v>
@@ -3400,10 +3955,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
         <v>21.7691947481</v>
@@ -3411,10 +3966,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
         <v>24.6727889601</v>
@@ -3422,10 +3977,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
         <v>14.5527828645</v>
@@ -3433,10 +3988,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
         <v>21.7698529739</v>
@@ -3444,10 +3999,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
         <v>37.7051695131</v>
@@ -3455,10 +4010,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
         <v>21.5050095114</v>
@@ -3466,10 +4021,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>21.4688585961</v>
@@ -3477,10 +4032,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
         <v>36.0335404482</v>
@@ -3488,10 +4043,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
         <v>22.7100039023</v>
@@ -3499,10 +4054,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
         <v>33.2558336428</v>
@@ -3510,10 +4065,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
         <v>29.5244685972</v>
@@ -3521,10 +4076,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
         <v>28.5815078901</v>
@@ -3532,10 +4087,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
         <v>52.001506156</v>
@@ -3543,10 +4098,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="n">
         <v>42.7917499457</v>
@@ -3554,10 +4109,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
         <v>20.3727711299</v>
@@ -3565,10 +4120,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="n">
         <v>42.5612823876</v>
@@ -3576,10 +4131,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -3587,10 +4142,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
         <v>44.4379136042</v>
@@ -3598,10 +4153,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
         <v>24.9119354598</v>
@@ -3609,10 +4164,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="n">
         <v>31.903816064</v>
@@ -3620,10 +4175,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
         <v>41.2882419925</v>
@@ -3631,10 +4186,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="n">
         <v>21.0097881398</v>
@@ -3642,10 +4197,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
         <v>55.5575798553</v>
@@ -3653,10 +4208,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
         <v>30.9452890423</v>
@@ -3664,10 +4219,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
         <v>34.0671488057</v>
@@ -3675,10 +4230,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
         <v>28.4856177613</v>
@@ -3686,10 +4241,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="n">
         <v>40.6705875611</v>
@@ -3697,10 +4252,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
         <v>30.2444616869</v>
@@ -3708,10 +4263,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
         <v>24.255118957</v>
@@ -3719,10 +4274,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>21.444170572</v>
@@ -3730,10 +4285,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
         <v>31.9655884343</v>
@@ -3741,10 +4296,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
         <v>27.2511785111</v>
@@ -3752,10 +4307,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
         <v>19.7095433564</v>
@@ -3763,10 +4318,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>26.1836710884</v>
@@ -3774,10 +4329,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
         <v>52.968233868</v>
@@ -3785,10 +4340,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
         <v>29.9522852618</v>
@@ -3796,10 +4351,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
         <v>48.0692836045</v>
@@ -3807,10 +4362,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>38.2278796781</v>
@@ -3818,10 +4373,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
         <v>25.3730954137</v>
@@ -3829,10 +4384,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
         <v>32.9957199641</v>
@@ -3840,10 +4395,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
         <v>38.360364513</v>
@@ -3851,10 +4406,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
         <v>22.9752276531</v>
@@ -3862,10 +4417,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
         <v>37.4366183284</v>
@@ -3873,10 +4428,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
         <v>31.0653343955</v>
@@ -3884,10 +4439,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
         <v>26.2346826397</v>
@@ -3895,10 +4450,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
         <v>15.9558026153</v>
@@ -3906,10 +4461,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
         <v>35.2868689873</v>
@@ -3917,10 +4472,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="n">
         <v>34.8607431524</v>
@@ -3928,10 +4483,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="n">
         <v>38.7103700134</v>
@@ -3939,10 +4494,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
         <v>26.291789081</v>
@@ -3950,10 +4505,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
         <v>32.8703525669</v>
@@ -3961,10 +4516,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
         <v>16.3304511514</v>
@@ -3972,10 +4527,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="n">
         <v>33.4192649191</v>
@@ -3983,10 +4538,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
         <v>19.239967325</v>
@@ -3994,10 +4549,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
         <v>38.1248922246</v>
@@ -4005,10 +4560,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
         <v>28.0492334773</v>
@@ -4016,10 +4571,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
         <v>16.2835063516</v>
@@ -4027,10 +4582,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
         <v>20.6410959353</v>
@@ -4038,10 +4593,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
         <v>24.0188917417</v>
@@ -4049,10 +4604,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
         <v>21.6981453816</v>
@@ -4060,10 +4615,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="n">
         <v>15.8488269009</v>
@@ -4071,10 +4626,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
         <v>29.8304407656</v>
@@ -4082,10 +4637,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
         <v>51.0274416398</v>
@@ -4093,10 +4648,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
         <v>25.9703901185</v>
@@ -4104,10 +4659,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="n">
         <v>34.2199685868</v>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -34,13 +34,307 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
-    <t xml:space="preserve">budget</t>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
   </si>
   <si>
     <t xml:space="preserve">d103</t>
@@ -49,18 +343,186 @@
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -79,28 +541,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -109,598 +691,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -1216,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>90.9019854819</v>
+        <v>55.5575798553</v>
       </c>
       <c r="F2" t="n">
-        <v>290239.748342883</v>
+        <v>177389.062628968</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1236,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3185864595</v>
+        <v>33.2558336428</v>
       </c>
       <c r="F3" t="n">
-        <v>106382.474462673</v>
+        <v>106182.111823652</v>
       </c>
     </row>
     <row r="4">
@@ -1256,10 +1256,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>28.7992823682</v>
+        <v>31.9655884343</v>
       </c>
       <c r="F4" t="n">
-        <v>91952.84814409</v>
+        <v>102062.504945359</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>36.5793898883</v>
+        <v>27.2511785111</v>
       </c>
       <c r="F5" t="n">
-        <v>116793.850645038</v>
+        <v>87009.9277938285</v>
       </c>
     </row>
     <row r="6">
@@ -1296,10 +1296,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>28.1929837048</v>
+        <v>30.9452890423</v>
       </c>
       <c r="F6" t="n">
-        <v>90017.0051528357</v>
+        <v>98804.8044981757</v>
       </c>
     </row>
     <row r="7">
@@ -1316,10 +1316,10 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7440704124</v>
+        <v>19.7095433564</v>
       </c>
       <c r="F7" t="n">
-        <v>50269.0343907471</v>
+        <v>62930.3405572755</v>
       </c>
     </row>
     <row r="8">
@@ -1336,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>23.7684426352</v>
+        <v>22.3311477789</v>
       </c>
       <c r="F8" t="n">
-        <v>75889.9464336623</v>
+        <v>71300.8266783937</v>
       </c>
     </row>
     <row r="9">
@@ -1356,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>35.8126228491</v>
+        <v>34.0671488057</v>
       </c>
       <c r="F9" t="n">
-        <v>114345.650297202</v>
+        <v>108772.549287199</v>
       </c>
     </row>
     <row r="10">
@@ -1376,10 +1376,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>29.9799588</v>
+        <v>29.5244685972</v>
       </c>
       <c r="F10" t="n">
-        <v>95722.6143225587</v>
+        <v>94268.2856724496</v>
       </c>
     </row>
     <row r="11">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>26.0258074916</v>
+        <v>28.5815078901</v>
       </c>
       <c r="F11" t="n">
-        <v>83097.4568566844</v>
+        <v>91257.5188903563</v>
       </c>
     </row>
     <row r="12">
@@ -1416,10 +1416,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>23.1207776114</v>
+        <v>24.5022235781</v>
       </c>
       <c r="F12" t="n">
-        <v>73822.0253369709</v>
+        <v>78232.8259106981</v>
       </c>
     </row>
     <row r="13">
@@ -1436,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>14.6436062162</v>
+        <v>23.4662372509</v>
       </c>
       <c r="F13" t="n">
-        <v>46755.3767993226</v>
+        <v>74925.0388552694</v>
       </c>
     </row>
     <row r="14">
@@ -1456,10 +1456,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>30.9947332752</v>
+        <v>23.2508978383</v>
       </c>
       <c r="F14" t="n">
-        <v>98962.674336227</v>
+        <v>74237.4844902019</v>
       </c>
     </row>
     <row r="15">
@@ -1476,10 +1476,10 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>29.1489879683</v>
+        <v>24.0188917417</v>
       </c>
       <c r="F15" t="n">
-        <v>93069.4185337463</v>
+        <v>76689.6020766825</v>
       </c>
     </row>
     <row r="16">
@@ -1496,10 +1496,10 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>30.7200727675</v>
+        <v>22.7578426167</v>
       </c>
       <c r="F16" t="n">
-        <v>98085.7144302312</v>
+        <v>72663.2149878783</v>
       </c>
     </row>
     <row r="17">
@@ -1516,10 +1516,10 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>22.7578426167</v>
+        <v>32.6610344094</v>
       </c>
       <c r="F17" t="n">
-        <v>72663.2149878783</v>
+        <v>104282.985210515</v>
       </c>
     </row>
     <row r="18">
@@ -1556,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>45.1058946851</v>
+        <v>50.2768869445</v>
       </c>
       <c r="F19" t="n">
-        <v>144018.01514865</v>
+        <v>160528.408008694</v>
       </c>
     </row>
     <row r="20">
@@ -1576,10 +1576,10 @@
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>28.0598900006</v>
+        <v>24.6727889601</v>
       </c>
       <c r="F20" t="n">
-        <v>89592.0520231214</v>
+        <v>78777.4218653072</v>
       </c>
     </row>
     <row r="21">
@@ -1596,10 +1596,10 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>26.8101051495</v>
+        <v>38.1248922246</v>
       </c>
       <c r="F21" t="n">
-        <v>85601.6304857098</v>
+        <v>121728.464633835</v>
       </c>
     </row>
     <row r="22">
@@ -1616,10 +1616,10 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>32.0327703834</v>
+        <v>32.9957199641</v>
       </c>
       <c r="F22" t="n">
-        <v>102277.009303159</v>
+        <v>105351.598295746</v>
       </c>
     </row>
     <row r="23">
@@ -1636,10 +1636,10 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>21.6264463765</v>
+        <v>38.360364513</v>
       </c>
       <c r="F23" t="n">
-        <v>69050.7948817371</v>
+        <v>122480.300991847</v>
       </c>
     </row>
     <row r="24">
@@ -1656,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>21.982390017</v>
+        <v>31.380804819</v>
       </c>
       <c r="F24" t="n">
-        <v>70187.2826284262</v>
+        <v>100195.357067156</v>
       </c>
     </row>
     <row r="25">
@@ -1676,10 +1676,10 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>23.2508978383</v>
+        <v>28.7357030145</v>
       </c>
       <c r="F25" t="n">
-        <v>74237.4844902019</v>
+        <v>91749.8464654517</v>
       </c>
     </row>
     <row r="26">
@@ -1696,10 +1696,10 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>31.380804819</v>
+        <v>45.1058946851</v>
       </c>
       <c r="F26" t="n">
-        <v>100195.357067156</v>
+        <v>144018.01514865</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>29.7649218653</v>
+        <v>28.0598900006</v>
       </c>
       <c r="F27" t="n">
-        <v>95036.025735207</v>
+        <v>89592.0520231214</v>
       </c>
     </row>
     <row r="28">
@@ -1736,10 +1736,10 @@
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>40.4873325162</v>
+        <v>14.5527828645</v>
       </c>
       <c r="F28" t="n">
-        <v>129271.46902549</v>
+        <v>46465.3881198747</v>
       </c>
     </row>
     <row r="29">
@@ -1756,10 +1756,10 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>22.3377356711</v>
+        <v>28.4856177613</v>
       </c>
       <c r="F29" t="n">
-        <v>71321.8610722991</v>
+        <v>90951.352565191</v>
       </c>
     </row>
     <row r="30">
@@ -1776,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>50.7210220638</v>
+        <v>26.8101051495</v>
       </c>
       <c r="F30" t="n">
-        <v>161946.481162746</v>
+        <v>85601.6304857098</v>
       </c>
     </row>
     <row r="31">
@@ -1796,10 +1796,10 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>37.8610450435</v>
+        <v>52.001506156</v>
       </c>
       <c r="F31" t="n">
-        <v>120886.030455504</v>
+        <v>166034.921901233</v>
       </c>
     </row>
     <row r="32">
@@ -1816,10 +1816,10 @@
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>28.2761919649</v>
+        <v>22.9752276531</v>
       </c>
       <c r="F32" t="n">
-        <v>90282.6797069046</v>
+        <v>73357.3007982185</v>
       </c>
     </row>
     <row r="33">
@@ -1836,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>36.3209709478</v>
+        <v>28.0492334773</v>
       </c>
       <c r="F33" t="n">
-        <v>115968.748224446</v>
+        <v>89558.0269506576</v>
       </c>
     </row>
     <row r="34">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>23.0393901066</v>
+        <v>29.7649218653</v>
       </c>
       <c r="F34" t="n">
-        <v>73562.1642483047</v>
+        <v>95036.025735207</v>
       </c>
     </row>
     <row r="35">
@@ -1876,10 +1876,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>46.2986557293</v>
+        <v>16.2835063516</v>
       </c>
       <c r="F35" t="n">
-        <v>147826.366126655</v>
+        <v>51991.3922733664</v>
       </c>
     </row>
     <row r="36">
@@ -1896,10 +1896,10 @@
         <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>28.5477526407</v>
+        <v>40.4873325162</v>
       </c>
       <c r="F36" t="n">
-        <v>91149.7422004719</v>
+        <v>129271.46902549</v>
       </c>
     </row>
     <row r="37">
@@ -1916,10 +1916,10 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>26.3298007645</v>
+        <v>40.6705875611</v>
       </c>
       <c r="F37" t="n">
-        <v>84068.0729610918</v>
+        <v>129856.581636873</v>
       </c>
     </row>
     <row r="38">
@@ -1936,10 +1936,10 @@
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>20.9054167407</v>
+        <v>37.4366183284</v>
       </c>
       <c r="F38" t="n">
-        <v>66748.6288848263</v>
+        <v>119530.884004793</v>
       </c>
     </row>
     <row r="39">
@@ -1956,10 +1956,10 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>29.4386304372</v>
+        <v>31.0653343955</v>
       </c>
       <c r="F39" t="n">
-        <v>93994.2141455424</v>
+        <v>99188.0957200938</v>
       </c>
     </row>
     <row r="40">
@@ -1976,10 +1976,10 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>22.3311477789</v>
+        <v>26.3298007645</v>
       </c>
       <c r="F40" t="n">
-        <v>71300.8266783937</v>
+        <v>84068.0729610918</v>
       </c>
     </row>
     <row r="41">
@@ -1996,10 +1996,10 @@
         <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>24.5022235781</v>
+        <v>90.9019854819</v>
       </c>
       <c r="F41" t="n">
-        <v>78232.8259106981</v>
+        <v>290239.748342883</v>
       </c>
     </row>
     <row r="42">
@@ -2016,10 +2016,10 @@
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>23.4662372509</v>
+        <v>27.4318146695</v>
       </c>
       <c r="F42" t="n">
-        <v>74925.0388552694</v>
+        <v>87586.678597205</v>
       </c>
     </row>
     <row r="43">
@@ -2036,10 +2036,10 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>32.6610344094</v>
+        <v>32.0327703834</v>
       </c>
       <c r="F43" t="n">
-        <v>104282.985210515</v>
+        <v>102277.009303159</v>
       </c>
     </row>
     <row r="44">
@@ -2056,10 +2056,10 @@
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>50.2768869445</v>
+        <v>22.3377356711</v>
       </c>
       <c r="F44" t="n">
-        <v>160528.408008694</v>
+        <v>71321.8610722991</v>
       </c>
     </row>
     <row r="45">
@@ -2076,10 +2076,10 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>28.7357030145</v>
+        <v>16.3304511514</v>
       </c>
       <c r="F45" t="n">
-        <v>91749.8464654517</v>
+        <v>52141.2817045104</v>
       </c>
     </row>
     <row r="46">
@@ -2096,10 +2096,10 @@
         <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>27.4318146695</v>
+        <v>33.4192649191</v>
       </c>
       <c r="F46" t="n">
-        <v>87586.678597205</v>
+        <v>106703.929386095</v>
       </c>
     </row>
     <row r="47">
@@ -2116,10 +2116,10 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>26.8287135646</v>
+        <v>50.7210220638</v>
       </c>
       <c r="F47" t="n">
-        <v>85661.0450485173</v>
+        <v>161946.481162746</v>
       </c>
     </row>
     <row r="48">
@@ -2136,10 +2136,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>21.7691947481</v>
+        <v>26.2346826397</v>
       </c>
       <c r="F48" t="n">
-        <v>69506.5742714996</v>
+        <v>83764.3715573003</v>
       </c>
     </row>
     <row r="49">
@@ -2156,10 +2156,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>24.6727889601</v>
+        <v>37.8610450435</v>
       </c>
       <c r="F49" t="n">
-        <v>78777.4218653072</v>
+        <v>120886.030455504</v>
       </c>
     </row>
     <row r="50">
@@ -2176,10 +2176,10 @@
         <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>14.5527828645</v>
+        <v>23.1207776114</v>
       </c>
       <c r="F50" t="n">
-        <v>46465.3881198747</v>
+        <v>73822.0253369709</v>
       </c>
     </row>
     <row r="51">
@@ -2196,10 +2196,10 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>21.7698529739</v>
+        <v>15.9558026153</v>
       </c>
       <c r="F51" t="n">
-        <v>69508.6759117604</v>
+        <v>50945.0713439853</v>
       </c>
     </row>
     <row r="52">
@@ -2216,10 +2216,10 @@
         <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>37.7051695131</v>
+        <v>33.3185864595</v>
       </c>
       <c r="F52" t="n">
-        <v>120388.337533857</v>
+        <v>106382.474462673</v>
       </c>
     </row>
     <row r="53">
@@ -2236,10 +2236,10 @@
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>21.5050095114</v>
+        <v>21.7698529739</v>
       </c>
       <c r="F53" t="n">
-        <v>68663.0607198917</v>
+        <v>69508.6759117604</v>
       </c>
     </row>
     <row r="54">
@@ -2256,10 +2256,10 @@
         <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>21.4688585961</v>
+        <v>20.6410959353</v>
       </c>
       <c r="F54" t="n">
-        <v>68547.6349399048</v>
+        <v>65904.6824778416</v>
       </c>
     </row>
     <row r="55">
@@ -2276,10 +2276,10 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>36.0335404482</v>
+        <v>21.6981453816</v>
       </c>
       <c r="F55" t="n">
-        <v>115051.015180332</v>
+        <v>69279.7216877713</v>
       </c>
     </row>
     <row r="56">
@@ -2296,10 +2296,10 @@
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>22.7100039023</v>
+        <v>35.2868689873</v>
       </c>
       <c r="F56" t="n">
-        <v>72510.4713887812</v>
+        <v>112666.977738623</v>
       </c>
     </row>
     <row r="57">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>33.2558336428</v>
+        <v>42.7917499457</v>
       </c>
       <c r="F57" t="n">
-        <v>106182.111823652</v>
+        <v>136629.212987471</v>
       </c>
     </row>
     <row r="58">
@@ -2336,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>29.5244685972</v>
+        <v>30.2444616869</v>
       </c>
       <c r="F58" t="n">
-        <v>94268.2856724496</v>
+        <v>96567.1420953772</v>
       </c>
     </row>
     <row r="59">
@@ -2356,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>28.5815078901</v>
+        <v>26.1836710884</v>
       </c>
       <c r="F59" t="n">
-        <v>91257.5188903563</v>
+        <v>83601.4974491272</v>
       </c>
     </row>
     <row r="60">
@@ -2376,10 +2376,10 @@
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>52.001506156</v>
+        <v>20.3727711299</v>
       </c>
       <c r="F60" t="n">
-        <v>166034.921901233</v>
+        <v>65047.951752008</v>
       </c>
     </row>
     <row r="61">
@@ -2396,10 +2396,10 @@
         <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>42.7917499457</v>
+        <v>28.2761919649</v>
       </c>
       <c r="F61" t="n">
-        <v>136629.212987471</v>
+        <v>90282.6797069046</v>
       </c>
     </row>
     <row r="62">
@@ -2416,10 +2416,10 @@
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>20.3727711299</v>
+        <v>37.7051695131</v>
       </c>
       <c r="F62" t="n">
-        <v>65047.951752008</v>
+        <v>120388.337533857</v>
       </c>
     </row>
     <row r="63">
@@ -2436,10 +2436,10 @@
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>42.5612823876</v>
+        <v>21.6264463765</v>
       </c>
       <c r="F63" t="n">
-        <v>135893.356166386</v>
+        <v>69050.7948817371</v>
       </c>
     </row>
     <row r="64">
@@ -2456,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>15.8488269009</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>50603.5099989545</v>
       </c>
     </row>
     <row r="65">
@@ -2476,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>44.4379136042</v>
+        <v>19.239967325</v>
       </c>
       <c r="F65" t="n">
-        <v>141885.227181811</v>
+        <v>61431.0374512667</v>
       </c>
     </row>
     <row r="66">
@@ -2496,10 +2496,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>24.9119354598</v>
+        <v>52.968233868</v>
       </c>
       <c r="F66" t="n">
-        <v>79540.9895644048</v>
+        <v>169121.574039537</v>
       </c>
     </row>
     <row r="67">
@@ -2516,10 +2516,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>31.903816064</v>
+        <v>42.5612823876</v>
       </c>
       <c r="F67" t="n">
-        <v>101865.272760488</v>
+        <v>135893.356166386</v>
       </c>
     </row>
     <row r="68">
@@ -2536,10 +2536,10 @@
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>41.2882419925</v>
+        <v>21.5050095114</v>
       </c>
       <c r="F68" t="n">
-        <v>131828.682309782</v>
+        <v>68663.0607198917</v>
       </c>
     </row>
     <row r="69">
@@ -2556,10 +2556,10 @@
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>21.0097881398</v>
+        <v>28.7992823682</v>
       </c>
       <c r="F69" t="n">
-        <v>67081.8749459412</v>
+        <v>91952.84814409</v>
       </c>
     </row>
     <row r="70">
@@ -2576,10 +2576,10 @@
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>55.5575798553</v>
+        <v>21.982390017</v>
       </c>
       <c r="F70" t="n">
-        <v>177389.062628968</v>
+        <v>70187.2826284262</v>
       </c>
     </row>
     <row r="71">
@@ -2596,10 +2596,10 @@
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>30.9452890423</v>
+        <v>30.9947332752</v>
       </c>
       <c r="F71" t="n">
-        <v>98804.8044981757</v>
+        <v>98962.674336227</v>
       </c>
     </row>
     <row r="72">
@@ -2616,10 +2616,10 @@
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>34.0671488057</v>
+        <v>26.8287135646</v>
       </c>
       <c r="F72" t="n">
-        <v>108772.549287199</v>
+        <v>85661.0450485173</v>
       </c>
     </row>
     <row r="73">
@@ -2636,10 +2636,10 @@
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>28.4856177613</v>
+        <v>24.255118957</v>
       </c>
       <c r="F73" t="n">
-        <v>90951.352565191</v>
+        <v>77443.8488312135</v>
       </c>
     </row>
     <row r="74">
@@ -2656,10 +2656,10 @@
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>40.6705875611</v>
+        <v>36.5793898883</v>
       </c>
       <c r="F74" t="n">
-        <v>129856.581636873</v>
+        <v>116793.850645038</v>
       </c>
     </row>
     <row r="75">
@@ -2676,10 +2676,10 @@
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>30.2444616869</v>
+        <v>34.8607431524</v>
       </c>
       <c r="F75" t="n">
-        <v>96567.1420953772</v>
+        <v>111306.406190796</v>
       </c>
     </row>
     <row r="76">
@@ -2696,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>24.255118957</v>
+        <v>20.9054167407</v>
       </c>
       <c r="F76" t="n">
-        <v>77443.8488312135</v>
+        <v>66748.6288848263</v>
       </c>
     </row>
     <row r="77">
@@ -2716,10 +2716,10 @@
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>21.444170572</v>
+        <v>36.3209709478</v>
       </c>
       <c r="F77" t="n">
-        <v>68468.8088739752</v>
+        <v>115968.748224446</v>
       </c>
     </row>
     <row r="78">
@@ -2736,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>31.9655884343</v>
+        <v>38.7103700134</v>
       </c>
       <c r="F78" t="n">
-        <v>102062.504945359</v>
+        <v>123597.828929608</v>
       </c>
     </row>
     <row r="79">
@@ -2756,10 +2756,10 @@
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>27.2511785111</v>
+        <v>29.8304407656</v>
       </c>
       <c r="F79" t="n">
-        <v>87009.9277938285</v>
+        <v>95245.2201661285</v>
       </c>
     </row>
     <row r="80">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>19.7095433564</v>
+        <v>29.1489879683</v>
       </c>
       <c r="F80" t="n">
-        <v>62930.3405572755</v>
+        <v>93069.4185337463</v>
       </c>
     </row>
     <row r="81">
@@ -2796,10 +2796,10 @@
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>26.1836710884</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>83601.4974491272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2816,10 +2816,10 @@
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>52.968233868</v>
+        <v>44.4379136042</v>
       </c>
       <c r="F82" t="n">
-        <v>169121.574039537</v>
+        <v>141885.227181811</v>
       </c>
     </row>
     <row r="83">
@@ -2836,10 +2836,10 @@
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>29.9522852618</v>
+        <v>28.1929837048</v>
       </c>
       <c r="F83" t="n">
-        <v>95634.255848064</v>
+        <v>90017.0051528357</v>
       </c>
     </row>
     <row r="84">
@@ -2856,10 +2856,10 @@
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>48.0692836045</v>
+        <v>15.7440704124</v>
       </c>
       <c r="F84" t="n">
-        <v>153479.780473715</v>
+        <v>50269.0343907471</v>
       </c>
     </row>
     <row r="85">
@@ -2876,10 +2876,10 @@
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>38.2278796781</v>
+        <v>23.7684426352</v>
       </c>
       <c r="F85" t="n">
-        <v>122057.291913234</v>
+        <v>75889.9464336623</v>
       </c>
     </row>
     <row r="86">
@@ -2896,10 +2896,10 @@
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>25.3730954137</v>
+        <v>31.903816064</v>
       </c>
       <c r="F86" t="n">
-        <v>81013.4210876656</v>
+        <v>101865.272760488</v>
       </c>
     </row>
     <row r="87">
@@ -2916,10 +2916,10 @@
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>32.9957199641</v>
+        <v>30.7200727675</v>
       </c>
       <c r="F87" t="n">
-        <v>105351.598295746</v>
+        <v>98085.7144302312</v>
       </c>
     </row>
     <row r="88">
@@ -2936,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>38.360364513</v>
+        <v>35.8126228491</v>
       </c>
       <c r="F88" t="n">
-        <v>122480.300991847</v>
+        <v>114345.650297202</v>
       </c>
     </row>
     <row r="89">
@@ -2956,10 +2956,10 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>22.9752276531</v>
+        <v>21.4688585961</v>
       </c>
       <c r="F89" t="n">
-        <v>73357.3007982185</v>
+        <v>68547.6349399048</v>
       </c>
     </row>
     <row r="90">
@@ -2976,10 +2976,10 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>37.4366183284</v>
+        <v>21.7691947481</v>
       </c>
       <c r="F90" t="n">
-        <v>119530.884004793</v>
+        <v>69506.5742714996</v>
       </c>
     </row>
     <row r="91">
@@ -2996,10 +2996,10 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>31.0653343955</v>
+        <v>29.9522852618</v>
       </c>
       <c r="F91" t="n">
-        <v>99188.0957200938</v>
+        <v>95634.255848064</v>
       </c>
     </row>
     <row r="92">
@@ -3016,10 +3016,10 @@
         <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>26.2346826397</v>
+        <v>24.9119354598</v>
       </c>
       <c r="F92" t="n">
-        <v>83764.3715573003</v>
+        <v>79540.9895644048</v>
       </c>
     </row>
     <row r="93">
@@ -3036,10 +3036,10 @@
         <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>15.9558026153</v>
+        <v>36.0335404482</v>
       </c>
       <c r="F93" t="n">
-        <v>50945.0713439853</v>
+        <v>115051.015180332</v>
       </c>
     </row>
     <row r="94">
@@ -3056,10 +3056,10 @@
         <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>35.2868689873</v>
+        <v>51.0274416398</v>
       </c>
       <c r="F94" t="n">
-        <v>112666.977738623</v>
+        <v>162924.844178134</v>
       </c>
     </row>
     <row r="95">
@@ -3076,10 +3076,10 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>34.8607431524</v>
+        <v>26.291789081</v>
       </c>
       <c r="F95" t="n">
-        <v>111306.406190796</v>
+        <v>83946.7059590495</v>
       </c>
     </row>
     <row r="96">
@@ -3096,10 +3096,10 @@
         <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>38.7103700134</v>
+        <v>48.0692836045</v>
       </c>
       <c r="F96" t="n">
-        <v>123597.828929608</v>
+        <v>153479.780473715</v>
       </c>
     </row>
     <row r="97">
@@ -3116,10 +3116,10 @@
         <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>26.291789081</v>
+        <v>38.2278796781</v>
       </c>
       <c r="F97" t="n">
-        <v>83946.7059590495</v>
+        <v>122057.291913234</v>
       </c>
     </row>
     <row r="98">
@@ -3136,10 +3136,10 @@
         <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>32.8703525669</v>
+        <v>21.444170572</v>
       </c>
       <c r="F98" t="n">
-        <v>104951.314389816</v>
+        <v>68468.8088739752</v>
       </c>
     </row>
     <row r="99">
@@ -3156,10 +3156,10 @@
         <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>16.3304511514</v>
+        <v>41.2882419925</v>
       </c>
       <c r="F99" t="n">
-        <v>52141.2817045104</v>
+        <v>131828.682309782</v>
       </c>
     </row>
     <row r="100">
@@ -3176,10 +3176,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>33.4192649191</v>
+        <v>23.0393901066</v>
       </c>
       <c r="F100" t="n">
-        <v>106703.929386095</v>
+        <v>73562.1642483047</v>
       </c>
     </row>
     <row r="101">
@@ -3196,10 +3196,10 @@
         <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>19.239967325</v>
+        <v>29.9799588</v>
       </c>
       <c r="F101" t="n">
-        <v>61431.0374512667</v>
+        <v>95722.6143225587</v>
       </c>
     </row>
     <row r="102">
@@ -3216,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>38.1248922246</v>
+        <v>25.9703901185</v>
       </c>
       <c r="F102" t="n">
-        <v>121728.464633835</v>
+        <v>82920.5154583356</v>
       </c>
     </row>
     <row r="103">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>28.0492334773</v>
+        <v>32.8703525669</v>
       </c>
       <c r="F103" t="n">
-        <v>89558.0269506576</v>
+        <v>104951.314389816</v>
       </c>
     </row>
     <row r="104">
@@ -3256,10 +3256,10 @@
         <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>16.2835063516</v>
+        <v>22.7100039023</v>
       </c>
       <c r="F104" t="n">
-        <v>51991.3922733664</v>
+        <v>72510.4713887812</v>
       </c>
     </row>
     <row r="105">
@@ -3276,10 +3276,10 @@
         <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>20.6410959353</v>
+        <v>34.2199685868</v>
       </c>
       <c r="F105" t="n">
-        <v>65904.6824778416</v>
+        <v>109260.485546949</v>
       </c>
     </row>
     <row r="106">
@@ -3296,10 +3296,10 @@
         <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>24.0188917417</v>
+        <v>29.4386304372</v>
       </c>
       <c r="F106" t="n">
-        <v>76689.6020766825</v>
+        <v>93994.2141455424</v>
       </c>
     </row>
     <row r="107">
@@ -3316,10 +3316,10 @@
         <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>21.6981453816</v>
+        <v>46.2986557293</v>
       </c>
       <c r="F107" t="n">
-        <v>69279.7216877713</v>
+        <v>147826.366126655</v>
       </c>
     </row>
     <row r="108">
@@ -3336,10 +3336,10 @@
         <v>8</v>
       </c>
       <c r="E108" t="n">
-        <v>15.8488269009</v>
+        <v>26.0258074916</v>
       </c>
       <c r="F108" t="n">
-        <v>50603.5099989545</v>
+        <v>83097.4568566844</v>
       </c>
     </row>
     <row r="109">
@@ -3356,10 +3356,10 @@
         <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>29.8304407656</v>
+        <v>28.5477526407</v>
       </c>
       <c r="F109" t="n">
-        <v>95245.2201661285</v>
+        <v>91149.7422004719</v>
       </c>
     </row>
     <row r="110">
@@ -3376,10 +3376,10 @@
         <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>51.0274416398</v>
+        <v>14.6436062162</v>
       </c>
       <c r="F110" t="n">
-        <v>162924.844178134</v>
+        <v>46755.3767993226</v>
       </c>
     </row>
     <row r="111">
@@ -3396,10 +3396,10 @@
         <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>25.9703901185</v>
+        <v>21.0097881398</v>
       </c>
       <c r="F111" t="n">
-        <v>82920.5154583356</v>
+        <v>67081.8749459412</v>
       </c>
     </row>
     <row r="112">
@@ -3416,10 +3416,10 @@
         <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>34.2199685868</v>
+        <v>25.3730954137</v>
       </c>
       <c r="F112" t="n">
-        <v>109260.485546949</v>
+        <v>81013.4210876656</v>
       </c>
     </row>
   </sheetData>
@@ -3441,9 +3441,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3452,10 +3455,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>90.9019854819</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.5575798553</v>
       </c>
     </row>
     <row r="3">
@@ -3463,10 +3469,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>33.3185864595</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.2558336428</v>
       </c>
     </row>
     <row r="4">
@@ -3474,10 +3483,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.7992823682</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.9655884343</v>
       </c>
     </row>
     <row r="5">
@@ -3485,10 +3497,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36.5793898883</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.2511785111</v>
       </c>
     </row>
     <row r="6">
@@ -3496,10 +3511,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.1929837048</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.9452890423</v>
       </c>
     </row>
     <row r="7">
@@ -3507,10 +3525,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.7440704124</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.7095433564</v>
       </c>
     </row>
     <row r="8">
@@ -3518,10 +3539,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23.7684426352</v>
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.3311477789</v>
       </c>
     </row>
     <row r="9">
@@ -3529,10 +3553,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>35.8126228491</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.0671488057</v>
       </c>
     </row>
     <row r="10">
@@ -3540,10 +3567,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29.9799588</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.5244685972</v>
       </c>
     </row>
     <row r="11">
@@ -3551,10 +3581,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.0258074916</v>
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.5815078901</v>
       </c>
     </row>
     <row r="12">
@@ -3562,10 +3595,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.1207776114</v>
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.5022235781</v>
       </c>
     </row>
     <row r="13">
@@ -3573,10 +3609,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14.6436062162</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.4662372509</v>
       </c>
     </row>
     <row r="14">
@@ -3584,10 +3623,13 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.9947332752</v>
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.2508978383</v>
       </c>
     </row>
     <row r="15">
@@ -3595,10 +3637,13 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29.1489879683</v>
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.0188917417</v>
       </c>
     </row>
     <row r="16">
@@ -3606,10 +3651,13 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30.7200727675</v>
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.7578426167</v>
       </c>
     </row>
     <row r="17">
@@ -3617,10 +3665,13 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22.7578426167</v>
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32.6610344094</v>
       </c>
     </row>
     <row r="18">
@@ -3628,9 +3679,12 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
         <v>25.1624177887</v>
       </c>
     </row>
@@ -3639,10 +3693,13 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45.1058946851</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50.2768869445</v>
       </c>
     </row>
     <row r="20">
@@ -3650,10 +3707,13 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>28.0598900006</v>
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24.6727889601</v>
       </c>
     </row>
     <row r="21">
@@ -3661,10 +3721,13 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.8101051495</v>
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>38.1248922246</v>
       </c>
     </row>
     <row r="22">
@@ -3672,10 +3735,13 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>32.0327703834</v>
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32.9957199641</v>
       </c>
     </row>
     <row r="23">
@@ -3683,10 +3749,13 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21.6264463765</v>
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.360364513</v>
       </c>
     </row>
     <row r="24">
@@ -3694,10 +3763,13 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>21.982390017</v>
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>31.380804819</v>
       </c>
     </row>
     <row r="25">
@@ -3705,10 +3777,13 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>23.2508978383</v>
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28.7357030145</v>
       </c>
     </row>
     <row r="26">
@@ -3716,10 +3791,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>31.380804819</v>
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>45.1058946851</v>
       </c>
     </row>
     <row r="27">
@@ -3727,10 +3805,13 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="n">
-        <v>29.7649218653</v>
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>28.0598900006</v>
       </c>
     </row>
     <row r="28">
@@ -3738,10 +3819,13 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>40.4873325162</v>
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.5527828645</v>
       </c>
     </row>
     <row r="29">
@@ -3749,10 +3833,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="n">
-        <v>22.3377356711</v>
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28.4856177613</v>
       </c>
     </row>
     <row r="30">
@@ -3760,10 +3847,13 @@
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>50.7210220638</v>
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.8101051495</v>
       </c>
     </row>
     <row r="31">
@@ -3771,10 +3861,13 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>37.8610450435</v>
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>52.001506156</v>
       </c>
     </row>
     <row r="32">
@@ -3782,10 +3875,13 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>28.2761919649</v>
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22.9752276531</v>
       </c>
     </row>
     <row r="33">
@@ -3793,10 +3889,13 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>36.3209709478</v>
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>28.0492334773</v>
       </c>
     </row>
     <row r="34">
@@ -3804,10 +3903,13 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>23.0393901066</v>
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>29.7649218653</v>
       </c>
     </row>
     <row r="35">
@@ -3815,10 +3917,13 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>46.2986557293</v>
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16.2835063516</v>
       </c>
     </row>
     <row r="36">
@@ -3826,10 +3931,13 @@
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>28.5477526407</v>
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>40.4873325162</v>
       </c>
     </row>
     <row r="37">
@@ -3837,10 +3945,13 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>26.3298007645</v>
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40.6705875611</v>
       </c>
     </row>
     <row r="38">
@@ -3848,10 +3959,13 @@
         <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20.9054167407</v>
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37.4366183284</v>
       </c>
     </row>
     <row r="39">
@@ -3859,10 +3973,13 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29.4386304372</v>
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>31.0653343955</v>
       </c>
     </row>
     <row r="40">
@@ -3870,10 +3987,13 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>22.3311477789</v>
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>26.3298007645</v>
       </c>
     </row>
     <row r="41">
@@ -3881,10 +4001,13 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>24.5022235781</v>
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>90.9019854819</v>
       </c>
     </row>
     <row r="42">
@@ -3892,10 +4015,13 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>23.4662372509</v>
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.4318146695</v>
       </c>
     </row>
     <row r="43">
@@ -3903,10 +4029,13 @@
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>32.6610344094</v>
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32.0327703834</v>
       </c>
     </row>
     <row r="44">
@@ -3914,10 +4043,13 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>50.2768869445</v>
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22.3377356711</v>
       </c>
     </row>
     <row r="45">
@@ -3925,10 +4057,13 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>28.7357030145</v>
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.3304511514</v>
       </c>
     </row>
     <row r="46">
@@ -3936,10 +4071,13 @@
         <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>27.4318146695</v>
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>33.4192649191</v>
       </c>
     </row>
     <row r="47">
@@ -3947,10 +4085,13 @@
         <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="n">
-        <v>26.8287135646</v>
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50.7210220638</v>
       </c>
     </row>
     <row r="48">
@@ -3958,10 +4099,13 @@
         <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="n">
-        <v>21.7691947481</v>
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.2346826397</v>
       </c>
     </row>
     <row r="49">
@@ -3969,10 +4113,13 @@
         <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24.6727889601</v>
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37.8610450435</v>
       </c>
     </row>
     <row r="50">
@@ -3980,10 +4127,13 @@
         <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="n">
-        <v>14.5527828645</v>
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>23.1207776114</v>
       </c>
     </row>
     <row r="51">
@@ -3991,10 +4141,13 @@
         <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="n">
-        <v>21.7698529739</v>
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.9558026153</v>
       </c>
     </row>
     <row r="52">
@@ -4002,10 +4155,13 @@
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="n">
-        <v>37.7051695131</v>
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>33.3185864595</v>
       </c>
     </row>
     <row r="53">
@@ -4013,10 +4169,13 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.5050095114</v>
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.7698529739</v>
       </c>
     </row>
     <row r="54">
@@ -4024,10 +4183,13 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="n">
-        <v>21.4688585961</v>
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20.6410959353</v>
       </c>
     </row>
     <row r="55">
@@ -4035,10 +4197,13 @@
         <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="n">
-        <v>36.0335404482</v>
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>21.6981453816</v>
       </c>
     </row>
     <row r="56">
@@ -4046,10 +4211,13 @@
         <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="n">
-        <v>22.7100039023</v>
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>35.2868689873</v>
       </c>
     </row>
     <row r="57">
@@ -4057,10 +4225,13 @@
         <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>33.2558336428</v>
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>42.7917499457</v>
       </c>
     </row>
     <row r="58">
@@ -4068,10 +4239,13 @@
         <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>29.5244685972</v>
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>30.2444616869</v>
       </c>
     </row>
     <row r="59">
@@ -4079,10 +4253,13 @@
         <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>28.5815078901</v>
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26.1836710884</v>
       </c>
     </row>
     <row r="60">
@@ -4090,10 +4267,13 @@
         <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>52.001506156</v>
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20.3727711299</v>
       </c>
     </row>
     <row r="61">
@@ -4101,10 +4281,13 @@
         <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>42.7917499457</v>
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28.2761919649</v>
       </c>
     </row>
     <row r="62">
@@ -4112,10 +4295,13 @@
         <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>20.3727711299</v>
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37.7051695131</v>
       </c>
     </row>
     <row r="63">
@@ -4123,10 +4309,13 @@
         <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>42.5612823876</v>
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>21.6264463765</v>
       </c>
     </row>
     <row r="64">
@@ -4134,10 +4323,13 @@
         <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15.8488269009</v>
       </c>
     </row>
     <row r="65">
@@ -4145,10 +4337,13 @@
         <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>44.4379136042</v>
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19.239967325</v>
       </c>
     </row>
     <row r="66">
@@ -4156,10 +4351,13 @@
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>24.9119354598</v>
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>52.968233868</v>
       </c>
     </row>
     <row r="67">
@@ -4167,10 +4365,13 @@
         <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="n">
-        <v>31.903816064</v>
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>42.5612823876</v>
       </c>
     </row>
     <row r="68">
@@ -4178,10 +4379,13 @@
         <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>41.2882419925</v>
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>21.5050095114</v>
       </c>
     </row>
     <row r="69">
@@ -4189,10 +4393,13 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>21.0097881398</v>
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>28.7992823682</v>
       </c>
     </row>
     <row r="70">
@@ -4200,10 +4407,13 @@
         <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="n">
-        <v>55.5575798553</v>
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21.982390017</v>
       </c>
     </row>
     <row r="71">
@@ -4211,10 +4421,13 @@
         <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>30.9452890423</v>
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30.9947332752</v>
       </c>
     </row>
     <row r="72">
@@ -4222,10 +4435,13 @@
         <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>34.0671488057</v>
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26.8287135646</v>
       </c>
     </row>
     <row r="73">
@@ -4233,10 +4449,13 @@
         <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>28.4856177613</v>
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>24.255118957</v>
       </c>
     </row>
     <row r="74">
@@ -4244,10 +4463,13 @@
         <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>40.6705875611</v>
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>36.5793898883</v>
       </c>
     </row>
     <row r="75">
@@ -4255,10 +4477,13 @@
         <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30.2444616869</v>
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>34.8607431524</v>
       </c>
     </row>
     <row r="76">
@@ -4266,10 +4491,13 @@
         <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>24.255118957</v>
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>20.9054167407</v>
       </c>
     </row>
     <row r="77">
@@ -4277,10 +4505,13 @@
         <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="n">
-        <v>21.444170572</v>
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>36.3209709478</v>
       </c>
     </row>
     <row r="78">
@@ -4288,10 +4519,13 @@
         <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>31.9655884343</v>
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>38.7103700134</v>
       </c>
     </row>
     <row r="79">
@@ -4299,10 +4533,13 @@
         <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>27.2511785111</v>
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29.8304407656</v>
       </c>
     </row>
     <row r="80">
@@ -4310,10 +4547,13 @@
         <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="n">
-        <v>19.7095433564</v>
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>29.1489879683</v>
       </c>
     </row>
     <row r="81">
@@ -4321,10 +4561,13 @@
         <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="n">
-        <v>26.1836710884</v>
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4332,10 +4575,13 @@
         <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>52.968233868</v>
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>44.4379136042</v>
       </c>
     </row>
     <row r="83">
@@ -4343,10 +4589,13 @@
         <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="n">
-        <v>29.9522852618</v>
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>28.1929837048</v>
       </c>
     </row>
     <row r="84">
@@ -4354,10 +4603,13 @@
         <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="n">
-        <v>48.0692836045</v>
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15.7440704124</v>
       </c>
     </row>
     <row r="85">
@@ -4365,10 +4617,13 @@
         <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>38.2278796781</v>
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>23.7684426352</v>
       </c>
     </row>
     <row r="86">
@@ -4376,10 +4631,13 @@
         <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="n">
-        <v>25.3730954137</v>
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>31.903816064</v>
       </c>
     </row>
     <row r="87">
@@ -4387,10 +4645,13 @@
         <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>32.9957199641</v>
+        <v>178</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>30.7200727675</v>
       </c>
     </row>
     <row r="88">
@@ -4398,10 +4659,13 @@
         <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="n">
-        <v>38.360364513</v>
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>35.8126228491</v>
       </c>
     </row>
     <row r="89">
@@ -4409,10 +4673,13 @@
         <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>22.9752276531</v>
+        <v>182</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>21.4688585961</v>
       </c>
     </row>
     <row r="90">
@@ -4420,10 +4687,13 @@
         <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>37.4366183284</v>
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>21.7691947481</v>
       </c>
     </row>
     <row r="91">
@@ -4431,10 +4701,13 @@
         <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="n">
-        <v>31.0653343955</v>
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>29.9522852618</v>
       </c>
     </row>
     <row r="92">
@@ -4442,10 +4715,13 @@
         <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>26.2346826397</v>
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24.9119354598</v>
       </c>
     </row>
     <row r="93">
@@ -4453,10 +4729,13 @@
         <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="n">
-        <v>15.9558026153</v>
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>36.0335404482</v>
       </c>
     </row>
     <row r="94">
@@ -4464,10 +4743,13 @@
         <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="n">
-        <v>35.2868689873</v>
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>51.0274416398</v>
       </c>
     </row>
     <row r="95">
@@ -4475,10 +4757,13 @@
         <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.8607431524</v>
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>26.291789081</v>
       </c>
     </row>
     <row r="96">
@@ -4486,10 +4771,13 @@
         <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>38.7103700134</v>
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>48.0692836045</v>
       </c>
     </row>
     <row r="97">
@@ -4497,10 +4785,13 @@
         <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>26.291789081</v>
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>38.2278796781</v>
       </c>
     </row>
     <row r="98">
@@ -4508,10 +4799,13 @@
         <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="n">
-        <v>32.8703525669</v>
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21.444170572</v>
       </c>
     </row>
     <row r="99">
@@ -4519,10 +4813,13 @@
         <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="n">
-        <v>16.3304511514</v>
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>41.2882419925</v>
       </c>
     </row>
     <row r="100">
@@ -4530,10 +4827,13 @@
         <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="n">
-        <v>33.4192649191</v>
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>23.0393901066</v>
       </c>
     </row>
     <row r="101">
@@ -4541,10 +4841,13 @@
         <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>19.239967325</v>
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29.9799588</v>
       </c>
     </row>
     <row r="102">
@@ -4552,10 +4855,13 @@
         <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>38.1248922246</v>
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>25.9703901185</v>
       </c>
     </row>
     <row r="103">
@@ -4563,10 +4869,13 @@
         <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="n">
-        <v>28.0492334773</v>
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>32.8703525669</v>
       </c>
     </row>
     <row r="104">
@@ -4574,10 +4883,13 @@
         <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>16.2835063516</v>
+        <v>212</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>22.7100039023</v>
       </c>
     </row>
     <row r="105">
@@ -4585,10 +4897,13 @@
         <v>213</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="n">
-        <v>20.6410959353</v>
+        <v>214</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34.2199685868</v>
       </c>
     </row>
     <row r="106">
@@ -4596,10 +4911,13 @@
         <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>24.0188917417</v>
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>29.4386304372</v>
       </c>
     </row>
     <row r="107">
@@ -4607,10 +4925,13 @@
         <v>217</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>21.6981453816</v>
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>46.2986557293</v>
       </c>
     </row>
     <row r="108">
@@ -4618,10 +4939,13 @@
         <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="n">
-        <v>15.8488269009</v>
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26.0258074916</v>
       </c>
     </row>
     <row r="109">
@@ -4629,10 +4953,13 @@
         <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="n">
-        <v>29.8304407656</v>
+        <v>222</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>28.5477526407</v>
       </c>
     </row>
     <row r="110">
@@ -4640,10 +4967,13 @@
         <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="n">
-        <v>51.0274416398</v>
+        <v>224</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>14.6436062162</v>
       </c>
     </row>
     <row r="111">
@@ -4651,10 +4981,13 @@
         <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25.9703901185</v>
+        <v>226</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>21.0097881398</v>
       </c>
     </row>
     <row r="112">
@@ -4662,10 +4995,13 @@
         <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>34.2199685868</v>
+        <v>228</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>25.3730954137</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,340 +34,673 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
-    <t xml:space="preserve">budget</t>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
   </si>
   <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -746,22 +1079,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1102,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1110,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -873,300 +1206,334 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>90.9019854819</v>
+        <v>55.5575798553</v>
       </c>
       <c r="F2" t="n">
-        <v>290239.748342883</v>
+        <v>177389.062628968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3"/>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3185864595</v>
+        <v>33.2558336428</v>
       </c>
       <c r="F3" t="n">
-        <v>106382.474462673</v>
+        <v>106182.111823652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4"/>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>28.7992823682</v>
+        <v>31.9655884343</v>
       </c>
       <c r="F4" t="n">
-        <v>91952.84814409</v>
+        <v>102062.504945359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5"/>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>36.5793898883</v>
+        <v>27.2511785111</v>
       </c>
       <c r="F5" t="n">
-        <v>116793.850645038</v>
+        <v>87009.9277938285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6"/>
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>28.1929837048</v>
+        <v>30.9452890423</v>
       </c>
       <c r="F6" t="n">
-        <v>90017.0051528357</v>
+        <v>98804.8044981757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7"/>
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7440704124</v>
+        <v>19.7095433564</v>
       </c>
       <c r="F7" t="n">
-        <v>50269.0343907471</v>
+        <v>62930.3405572755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8"/>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>23.7684426352</v>
+        <v>22.3311477789</v>
       </c>
       <c r="F8" t="n">
-        <v>75889.9464336623</v>
+        <v>71300.8266783937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9"/>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>35.8126228491</v>
+        <v>34.0671488057</v>
       </c>
       <c r="F9" t="n">
-        <v>114345.650297202</v>
+        <v>108772.549287199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10"/>
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>29.9799588</v>
+        <v>29.5244685972</v>
       </c>
       <c r="F10" t="n">
-        <v>95722.6143225587</v>
+        <v>94268.2856724496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11"/>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>26.0258074916</v>
+        <v>28.5815078901</v>
       </c>
       <c r="F11" t="n">
-        <v>83097.4568566844</v>
+        <v>91257.5188903563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12"/>
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>23.1207776114</v>
+        <v>24.5022235781</v>
       </c>
       <c r="F12" t="n">
-        <v>73822.0253369709</v>
+        <v>78232.8259106981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13"/>
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>14.6436062162</v>
+        <v>23.4662372509</v>
       </c>
       <c r="F13" t="n">
-        <v>46755.3767993226</v>
+        <v>74925.0388552694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14"/>
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>30.9947332752</v>
+        <v>23.2508978383</v>
       </c>
       <c r="F14" t="n">
-        <v>98962.674336227</v>
+        <v>74237.4844902019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15"/>
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>29.1489879683</v>
+        <v>24.0188917417</v>
       </c>
       <c r="F15" t="n">
-        <v>93069.4185337463</v>
+        <v>76689.6020766825</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16"/>
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>30.7200727675</v>
+        <v>22.7578426167</v>
       </c>
       <c r="F16" t="n">
-        <v>98085.7144302312</v>
+        <v>72663.2149878783</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17"/>
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>22.7578426167</v>
+        <v>32.6610344094</v>
       </c>
       <c r="F17" t="n">
-        <v>72663.2149878783</v>
+        <v>104282.985210515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18"/>
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>25.1624177887</v>
@@ -1177,1694 +1544,1882 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19"/>
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>45.1058946851</v>
+        <v>50.2768869445</v>
       </c>
       <c r="F19" t="n">
-        <v>144018.01514865</v>
+        <v>160528.408008694</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20"/>
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>28.0598900006</v>
+        <v>24.6727889601</v>
       </c>
       <c r="F20" t="n">
-        <v>89592.0520231214</v>
+        <v>78777.4218653072</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21"/>
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>26.8101051495</v>
+        <v>38.1248922246</v>
       </c>
       <c r="F21" t="n">
-        <v>85601.6304857098</v>
+        <v>121728.464633835</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22"/>
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>32.0327703834</v>
+        <v>32.9957199641</v>
       </c>
       <c r="F22" t="n">
-        <v>102277.009303159</v>
+        <v>105351.598295746</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23"/>
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>21.6264463765</v>
+        <v>38.360364513</v>
       </c>
       <c r="F23" t="n">
-        <v>69050.7948817371</v>
+        <v>122480.300991847</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24"/>
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>21.982390017</v>
+        <v>31.380804819</v>
       </c>
       <c r="F24" t="n">
-        <v>70187.2826284262</v>
+        <v>100195.357067156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25"/>
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>23.2508978383</v>
+        <v>28.7357030145</v>
       </c>
       <c r="F25" t="n">
-        <v>74237.4844902019</v>
+        <v>91749.8464654517</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26"/>
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>31.380804819</v>
+        <v>45.1058946851</v>
       </c>
       <c r="F26" t="n">
-        <v>100195.357067156</v>
+        <v>144018.01514865</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27"/>
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>29.7649218653</v>
+        <v>28.0598900006</v>
       </c>
       <c r="F27" t="n">
-        <v>95036.025735207</v>
+        <v>89592.0520231214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28"/>
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>40.4873325162</v>
+        <v>14.5527828645</v>
       </c>
       <c r="F28" t="n">
-        <v>129271.46902549</v>
+        <v>46465.3881198747</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29"/>
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>22.3377356711</v>
+        <v>28.4856177613</v>
       </c>
       <c r="F29" t="n">
-        <v>71321.8610722991</v>
+        <v>90951.352565191</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30"/>
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>50.7210220638</v>
+        <v>26.8101051495</v>
       </c>
       <c r="F30" t="n">
-        <v>161946.481162746</v>
+        <v>85601.6304857098</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31"/>
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>37.8610450435</v>
+        <v>52.001506156</v>
       </c>
       <c r="F31" t="n">
-        <v>120886.030455504</v>
+        <v>166034.921901233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32"/>
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>28.2761919649</v>
+        <v>22.9752276531</v>
       </c>
       <c r="F32" t="n">
-        <v>90282.6797069046</v>
+        <v>73357.3007982185</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33"/>
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>36.3209709478</v>
+        <v>28.0492334773</v>
       </c>
       <c r="F33" t="n">
-        <v>115968.748224446</v>
+        <v>89558.0269506576</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34"/>
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>23.0393901066</v>
+        <v>29.7649218653</v>
       </c>
       <c r="F34" t="n">
-        <v>73562.1642483047</v>
+        <v>95036.025735207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35"/>
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>46.2986557293</v>
+        <v>16.2835063516</v>
       </c>
       <c r="F35" t="n">
-        <v>147826.366126655</v>
+        <v>51991.3922733664</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36"/>
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>28.5477526407</v>
+        <v>40.4873325162</v>
       </c>
       <c r="F36" t="n">
-        <v>91149.7422004719</v>
+        <v>129271.46902549</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37"/>
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>26.3298007645</v>
+        <v>40.6705875611</v>
       </c>
       <c r="F37" t="n">
-        <v>84068.0729610918</v>
+        <v>129856.581636873</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38"/>
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>20.9054167407</v>
+        <v>37.4366183284</v>
       </c>
       <c r="F38" t="n">
-        <v>66748.6288848263</v>
+        <v>119530.884004793</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39"/>
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>29.4386304372</v>
+        <v>31.0653343955</v>
       </c>
       <c r="F39" t="n">
-        <v>93994.2141455424</v>
+        <v>99188.0957200938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40"/>
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>22.3311477789</v>
+        <v>26.3298007645</v>
       </c>
       <c r="F40" t="n">
-        <v>71300.8266783937</v>
+        <v>84068.0729610918</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41"/>
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>24.5022235781</v>
+        <v>90.9019854819</v>
       </c>
       <c r="F41" t="n">
-        <v>78232.8259106981</v>
+        <v>290239.748342883</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42"/>
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>23.4662372509</v>
+        <v>27.4318146695</v>
       </c>
       <c r="F42" t="n">
-        <v>74925.0388552694</v>
+        <v>87586.678597205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43"/>
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>32.6610344094</v>
+        <v>32.0327703834</v>
       </c>
       <c r="F43" t="n">
-        <v>104282.985210515</v>
+        <v>102277.009303159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44"/>
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>50.2768869445</v>
+        <v>22.3377356711</v>
       </c>
       <c r="F44" t="n">
-        <v>160528.408008694</v>
+        <v>71321.8610722991</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45"/>
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>28.7357030145</v>
+        <v>16.3304511514</v>
       </c>
       <c r="F45" t="n">
-        <v>91749.8464654517</v>
+        <v>52141.2817045104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46"/>
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>27.4318146695</v>
+        <v>33.4192649191</v>
       </c>
       <c r="F46" t="n">
-        <v>87586.678597205</v>
+        <v>106703.929386095</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47"/>
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>26.8287135646</v>
+        <v>50.7210220638</v>
       </c>
       <c r="F47" t="n">
-        <v>85661.0450485173</v>
+        <v>161946.481162746</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48"/>
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>21.7691947481</v>
+        <v>26.2346826397</v>
       </c>
       <c r="F48" t="n">
-        <v>69506.5742714996</v>
+        <v>83764.3715573003</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49"/>
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>24.6727889601</v>
+        <v>37.8610450435</v>
       </c>
       <c r="F49" t="n">
-        <v>78777.4218653072</v>
+        <v>120886.030455504</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50"/>
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>14.5527828645</v>
+        <v>23.1207776114</v>
       </c>
       <c r="F50" t="n">
-        <v>46465.3881198747</v>
+        <v>73822.0253369709</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51"/>
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>21.7698529739</v>
+        <v>15.9558026153</v>
       </c>
       <c r="F51" t="n">
-        <v>69508.6759117604</v>
+        <v>50945.0713439853</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52"/>
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>37.7051695131</v>
+        <v>33.3185864595</v>
       </c>
       <c r="F52" t="n">
-        <v>120388.337533857</v>
+        <v>106382.474462673</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53"/>
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>21.5050095114</v>
+        <v>21.7698529739</v>
       </c>
       <c r="F53" t="n">
-        <v>68663.0607198917</v>
+        <v>69508.6759117604</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54"/>
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>21.4688585961</v>
+        <v>20.6410959353</v>
       </c>
       <c r="F54" t="n">
-        <v>68547.6349399048</v>
+        <v>65904.6824778416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55"/>
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>36.0335404482</v>
+        <v>21.6981453816</v>
       </c>
       <c r="F55" t="n">
-        <v>115051.015180332</v>
+        <v>69279.7216877713</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56"/>
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>22.7100039023</v>
+        <v>35.2868689873</v>
       </c>
       <c r="F56" t="n">
-        <v>72510.4713887812</v>
+        <v>112666.977738623</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57"/>
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>33.2558336428</v>
+        <v>42.7917499457</v>
       </c>
       <c r="F57" t="n">
-        <v>106182.111823652</v>
+        <v>136629.212987471</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58"/>
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>29.5244685972</v>
+        <v>30.2444616869</v>
       </c>
       <c r="F58" t="n">
-        <v>94268.2856724496</v>
+        <v>96567.1420953772</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59"/>
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>28.5815078901</v>
+        <v>26.1836710884</v>
       </c>
       <c r="F59" t="n">
-        <v>91257.5188903563</v>
+        <v>83601.4974491272</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60"/>
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>52.001506156</v>
+        <v>20.3727711299</v>
       </c>
       <c r="F60" t="n">
-        <v>166034.921901233</v>
+        <v>65047.951752008</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61"/>
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>42.7917499457</v>
+        <v>28.2761919649</v>
       </c>
       <c r="F61" t="n">
-        <v>136629.212987471</v>
+        <v>90282.6797069046</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62"/>
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>20.3727711299</v>
+        <v>37.7051695131</v>
       </c>
       <c r="F62" t="n">
-        <v>65047.951752008</v>
+        <v>120388.337533857</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63"/>
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>42.5612823876</v>
+        <v>21.6264463765</v>
       </c>
       <c r="F63" t="n">
-        <v>135893.356166386</v>
+        <v>69050.7948817371</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64"/>
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>15.8488269009</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>50603.5099989545</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65"/>
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>44.4379136042</v>
+        <v>19.239967325</v>
       </c>
       <c r="F65" t="n">
-        <v>141885.227181811</v>
+        <v>61431.0374512667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66"/>
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>24.9119354598</v>
+        <v>52.968233868</v>
       </c>
       <c r="F66" t="n">
-        <v>79540.9895644048</v>
+        <v>169121.574039537</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67"/>
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>31.903816064</v>
+        <v>42.5612823876</v>
       </c>
       <c r="F67" t="n">
-        <v>101865.272760488</v>
+        <v>135893.356166386</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68"/>
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>41.2882419925</v>
+        <v>21.5050095114</v>
       </c>
       <c r="F68" t="n">
-        <v>131828.682309782</v>
+        <v>68663.0607198917</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69"/>
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>21.0097881398</v>
+        <v>28.7992823682</v>
       </c>
       <c r="F69" t="n">
-        <v>67081.8749459412</v>
+        <v>91952.84814409</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70"/>
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>55.5575798553</v>
+        <v>21.982390017</v>
       </c>
       <c r="F70" t="n">
-        <v>177389.062628968</v>
+        <v>70187.2826284262</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71"/>
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>30.9452890423</v>
+        <v>30.9947332752</v>
       </c>
       <c r="F71" t="n">
-        <v>98804.8044981757</v>
+        <v>98962.674336227</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72"/>
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>34.0671488057</v>
+        <v>26.8287135646</v>
       </c>
       <c r="F72" t="n">
-        <v>108772.549287199</v>
+        <v>85661.0450485173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73"/>
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>28.4856177613</v>
+        <v>24.255118957</v>
       </c>
       <c r="F73" t="n">
-        <v>90951.352565191</v>
+        <v>77443.8488312135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74"/>
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>40.6705875611</v>
+        <v>36.5793898883</v>
       </c>
       <c r="F74" t="n">
-        <v>129856.581636873</v>
+        <v>116793.850645038</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75"/>
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>30.2444616869</v>
+        <v>34.8607431524</v>
       </c>
       <c r="F75" t="n">
-        <v>96567.1420953772</v>
+        <v>111306.406190796</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76"/>
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>24.255118957</v>
+        <v>20.9054167407</v>
       </c>
       <c r="F76" t="n">
-        <v>77443.8488312135</v>
+        <v>66748.6288848263</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77"/>
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>21.444170572</v>
+        <v>36.3209709478</v>
       </c>
       <c r="F77" t="n">
-        <v>68468.8088739752</v>
+        <v>115968.748224446</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78"/>
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>31.9655884343</v>
+        <v>38.7103700134</v>
       </c>
       <c r="F78" t="n">
-        <v>102062.504945359</v>
+        <v>123597.828929608</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79"/>
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>27.2511785111</v>
+        <v>29.8304407656</v>
       </c>
       <c r="F79" t="n">
-        <v>87009.9277938285</v>
+        <v>95245.2201661285</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80"/>
+        <v>163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>19.7095433564</v>
+        <v>29.1489879683</v>
       </c>
       <c r="F80" t="n">
-        <v>62930.3405572755</v>
+        <v>93069.4185337463</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81"/>
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>26.1836710884</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>83601.4974491272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82"/>
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>52.968233868</v>
+        <v>44.4379136042</v>
       </c>
       <c r="F82" t="n">
-        <v>169121.574039537</v>
+        <v>141885.227181811</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83"/>
+        <v>169</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>29.9522852618</v>
+        <v>28.1929837048</v>
       </c>
       <c r="F83" t="n">
-        <v>95634.255848064</v>
+        <v>90017.0051528357</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84"/>
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>48.0692836045</v>
+        <v>15.7440704124</v>
       </c>
       <c r="F84" t="n">
-        <v>153479.780473715</v>
+        <v>50269.0343907471</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85"/>
+        <v>173</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>38.2278796781</v>
+        <v>23.7684426352</v>
       </c>
       <c r="F85" t="n">
-        <v>122057.291913234</v>
+        <v>75889.9464336623</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86"/>
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>25.3730954137</v>
+        <v>31.903816064</v>
       </c>
       <c r="F86" t="n">
-        <v>81013.4210876656</v>
+        <v>101865.272760488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87"/>
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>32.9957199641</v>
+        <v>30.7200727675</v>
       </c>
       <c r="F87" t="n">
-        <v>105351.598295746</v>
+        <v>98085.7144302312</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88"/>
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>38.360364513</v>
+        <v>35.8126228491</v>
       </c>
       <c r="F88" t="n">
-        <v>122480.300991847</v>
+        <v>114345.650297202</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89"/>
+        <v>181</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>22.9752276531</v>
+        <v>21.4688585961</v>
       </c>
       <c r="F89" t="n">
-        <v>73357.3007982185</v>
+        <v>68547.6349399048</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90"/>
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>37.4366183284</v>
+        <v>21.7691947481</v>
       </c>
       <c r="F90" t="n">
-        <v>119530.884004793</v>
+        <v>69506.5742714996</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91"/>
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>31.0653343955</v>
+        <v>29.9522852618</v>
       </c>
       <c r="F91" t="n">
-        <v>99188.0957200938</v>
+        <v>95634.255848064</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92"/>
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>26.2346826397</v>
+        <v>24.9119354598</v>
       </c>
       <c r="F92" t="n">
-        <v>83764.3715573003</v>
+        <v>79540.9895644048</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93"/>
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>15.9558026153</v>
+        <v>36.0335404482</v>
       </c>
       <c r="F93" t="n">
-        <v>50945.0713439853</v>
+        <v>115051.015180332</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94"/>
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>35.2868689873</v>
+        <v>51.0274416398</v>
       </c>
       <c r="F94" t="n">
-        <v>112666.977738623</v>
+        <v>162924.844178134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95"/>
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>34.8607431524</v>
+        <v>26.291789081</v>
       </c>
       <c r="F95" t="n">
-        <v>111306.406190796</v>
+        <v>83946.7059590495</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96"/>
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>38.7103700134</v>
+        <v>48.0692836045</v>
       </c>
       <c r="F96" t="n">
-        <v>123597.828929608</v>
+        <v>153479.780473715</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97"/>
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>26.291789081</v>
+        <v>38.2278796781</v>
       </c>
       <c r="F97" t="n">
-        <v>83946.7059590495</v>
+        <v>122057.291913234</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98"/>
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>32.8703525669</v>
+        <v>21.444170572</v>
       </c>
       <c r="F98" t="n">
-        <v>104951.314389816</v>
+        <v>68468.8088739752</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99"/>
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>16.3304511514</v>
+        <v>41.2882419925</v>
       </c>
       <c r="F99" t="n">
-        <v>52141.2817045104</v>
+        <v>131828.682309782</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100"/>
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>33.4192649191</v>
+        <v>23.0393901066</v>
       </c>
       <c r="F100" t="n">
-        <v>106703.929386095</v>
+        <v>73562.1642483047</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101"/>
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>19.239967325</v>
+        <v>29.9799588</v>
       </c>
       <c r="F101" t="n">
-        <v>61431.0374512667</v>
+        <v>95722.6143225587</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102"/>
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>38.1248922246</v>
+        <v>25.9703901185</v>
       </c>
       <c r="F102" t="n">
-        <v>121728.464633835</v>
+        <v>82920.5154583356</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103"/>
+        <v>209</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>28.0492334773</v>
+        <v>32.8703525669</v>
       </c>
       <c r="F103" t="n">
-        <v>89558.0269506576</v>
+        <v>104951.314389816</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104"/>
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>212</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>16.2835063516</v>
+        <v>22.7100039023</v>
       </c>
       <c r="F104" t="n">
-        <v>51991.3922733664</v>
+        <v>72510.4713887812</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105"/>
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>20.6410959353</v>
+        <v>34.2199685868</v>
       </c>
       <c r="F105" t="n">
-        <v>65904.6824778416</v>
+        <v>109260.485546949</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106"/>
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>24.0188917417</v>
+        <v>29.4386304372</v>
       </c>
       <c r="F106" t="n">
-        <v>76689.6020766825</v>
+        <v>93994.2141455424</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107"/>
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>21.6981453816</v>
+        <v>46.2986557293</v>
       </c>
       <c r="F107" t="n">
-        <v>69279.7216877713</v>
+        <v>147826.366126655</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108"/>
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
-        <v>15.8488269009</v>
+        <v>26.0258074916</v>
       </c>
       <c r="F108" t="n">
-        <v>50603.5099989545</v>
+        <v>83097.4568566844</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109"/>
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>29.8304407656</v>
+        <v>28.5477526407</v>
       </c>
       <c r="F109" t="n">
-        <v>95245.2201661285</v>
+        <v>91149.7422004719</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110"/>
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>51.0274416398</v>
+        <v>14.6436062162</v>
       </c>
       <c r="F110" t="n">
-        <v>162924.844178134</v>
+        <v>46755.3767993226</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111"/>
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>25.9703901185</v>
+        <v>21.0097881398</v>
       </c>
       <c r="F111" t="n">
-        <v>82920.5154583356</v>
+        <v>67081.8749459412</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112"/>
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>34.2199685868</v>
+        <v>25.3730954137</v>
       </c>
       <c r="F112" t="n">
-        <v>109260.485546949</v>
+        <v>81013.4210876656</v>
       </c>
     </row>
   </sheetData>
@@ -2886,10 +3441,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>118</v>
+      <c r="D1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -2899,1218 +3457,1551 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>90.9019854819</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.5575798553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>33.3185864595</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.2558336428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.7992823682</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.9655884343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36.5793898883</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.2511785111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.1929837048</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.9452890423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.7440704124</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.7095433564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23.7684426352</v>
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.3311477789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>35.8126228491</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.0671488057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29.9799588</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.5244685972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.0258074916</v>
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.5815078901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.1207776114</v>
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.5022235781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14.6436062162</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.4662372509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.9947332752</v>
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.2508978383</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29.1489879683</v>
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.0188917417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30.7200727675</v>
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.7578426167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22.7578426167</v>
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32.6610344094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
         <v>25.1624177887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45.1058946851</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50.2768869445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>28.0598900006</v>
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24.6727889601</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.8101051495</v>
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>38.1248922246</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>32.0327703834</v>
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32.9957199641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21.6264463765</v>
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.360364513</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>21.982390017</v>
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>31.380804819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>23.2508978383</v>
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28.7357030145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>31.380804819</v>
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>45.1058946851</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>29.7649218653</v>
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>28.0598900006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="n">
-        <v>40.4873325162</v>
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.5527828645</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>22.3377356711</v>
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28.4856177613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="n">
-        <v>50.7210220638</v>
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.8101051495</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="n">
-        <v>37.8610450435</v>
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>52.001506156</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>28.2761919649</v>
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22.9752276531</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="n">
-        <v>36.3209709478</v>
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>28.0492334773</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>23.0393901066</v>
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>29.7649218653</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>46.2986557293</v>
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16.2835063516</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="n">
-        <v>28.5477526407</v>
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>40.4873325162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="n">
-        <v>26.3298007645</v>
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40.6705875611</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20.9054167407</v>
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37.4366183284</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29.4386304372</v>
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>31.0653343955</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="n">
-        <v>22.3311477789</v>
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>26.3298007645</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>24.5022235781</v>
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>90.9019854819</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>23.4662372509</v>
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.4318146695</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="n">
-        <v>32.6610344094</v>
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32.0327703834</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>50.2768869445</v>
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22.3377356711</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>28.7357030145</v>
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.3304511514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="n">
-        <v>27.4318146695</v>
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>33.4192649191</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="n">
-        <v>26.8287135646</v>
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50.7210220638</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="n">
-        <v>21.7691947481</v>
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.2346826397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24.6727889601</v>
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37.8610450435</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="n">
-        <v>14.5527828645</v>
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>23.1207776114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>21.7698529739</v>
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.9558026153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="n">
-        <v>37.7051695131</v>
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>33.3185864595</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.5050095114</v>
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.7698529739</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="n">
-        <v>21.4688585961</v>
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20.6410959353</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>36.0335404482</v>
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>21.6981453816</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>22.7100039023</v>
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>35.2868689873</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>33.2558336428</v>
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>42.7917499457</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>29.5244685972</v>
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>30.2444616869</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>28.5815078901</v>
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26.1836710884</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>52.001506156</v>
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20.3727711299</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="n">
-        <v>42.7917499457</v>
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28.2761919649</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="n">
-        <v>20.3727711299</v>
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37.7051695131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>42.5612823876</v>
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>21.6264463765</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15.8488269009</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="n">
-        <v>44.4379136042</v>
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19.239967325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="n">
-        <v>24.9119354598</v>
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>52.968233868</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="n">
-        <v>31.903816064</v>
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>42.5612823876</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="n">
-        <v>41.2882419925</v>
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>21.5050095114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="n">
-        <v>21.0097881398</v>
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>28.7992823682</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="n">
-        <v>55.5575798553</v>
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21.982390017</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="n">
-        <v>30.9452890423</v>
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30.9947332752</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="n">
-        <v>34.0671488057</v>
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26.8287135646</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>28.4856177613</v>
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>24.255118957</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>40.6705875611</v>
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>36.5793898883</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30.2444616869</v>
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>34.8607431524</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="n">
-        <v>24.255118957</v>
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>20.9054167407</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>21.444170572</v>
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>36.3209709478</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="n">
-        <v>31.9655884343</v>
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>38.7103700134</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="n">
-        <v>27.2511785111</v>
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29.8304407656</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>19.7095433564</v>
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>29.1489879683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>26.1836710884</v>
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="n">
-        <v>52.968233868</v>
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>44.4379136042</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="n">
-        <v>29.9522852618</v>
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>28.1929837048</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="n">
-        <v>48.0692836045</v>
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15.7440704124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="n">
-        <v>38.2278796781</v>
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>23.7684426352</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="n">
-        <v>25.3730954137</v>
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>31.903816064</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="n">
-        <v>32.9957199641</v>
+        <v>178</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>30.7200727675</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>38.360364513</v>
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>35.8126228491</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>22.9752276531</v>
+        <v>182</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>21.4688585961</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>37.4366183284</v>
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>21.7691947481</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="n">
-        <v>31.0653343955</v>
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>29.9522852618</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>26.2346826397</v>
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24.9119354598</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>15.9558026153</v>
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>36.0335404482</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="n">
-        <v>35.2868689873</v>
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>51.0274416398</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.8607431524</v>
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>26.291789081</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>38.7103700134</v>
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>48.0692836045</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>26.291789081</v>
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>38.2278796781</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="n">
-        <v>32.8703525669</v>
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21.444170572</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="n">
-        <v>16.3304511514</v>
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>41.2882419925</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="n">
-        <v>33.4192649191</v>
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>23.0393901066</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>19.239967325</v>
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29.9799588</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="n">
-        <v>38.1248922246</v>
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>25.9703901185</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>28.0492334773</v>
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>32.8703525669</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>16.2835063516</v>
+        <v>212</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>22.7100039023</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="n">
-        <v>20.6410959353</v>
+        <v>214</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34.2199685868</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="n">
-        <v>24.0188917417</v>
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>29.4386304372</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>21.6981453816</v>
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>46.2986557293</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>15.8488269009</v>
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26.0258074916</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>29.8304407656</v>
+        <v>222</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>28.5477526407</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="n">
-        <v>51.0274416398</v>
+        <v>224</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>14.6436062162</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25.9703901185</v>
+        <v>226</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>21.0097881398</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>34.2199685868</v>
+        <v>228</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>25.3730954137</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
+++ b/user-data/uganda-gov-spend-pp/uganda-gov-spend-pp.xlsx
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 29</t>
+    <t xml:space="preserve">Source: 30</t>
   </si>
   <si>
     <t xml:space="preserve"/>
